--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07482F53-8DA4-4936-8373-3DFF90640FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13725" windowHeight="12540" tabRatio="902"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -58,7 +52,7 @@
     <t>应把领导活动作为一门科学来研究</t>
   </si>
   <si>
-    <t>领导活动是人类一种【特殊的重要实践活动】，领导活动实践本身就【包含】着极其【丰富的科学内容】，哪里有实践，哪里就有延伸科学的土壤和源泉</t>
+    <t>领导活动是人类一种特殊的重要实践活动，领导活动实践本身就包含着极其丰富的科学内容。</t>
   </si>
   <si>
     <t>它有其他领域所不能代替的【特殊规律】和【科学内容】（美国造原子弹，没有找爱因斯坦，找了奥本海默）</t>
@@ -94,7 +88,7 @@
     <t>领导科学</t>
   </si>
   <si>
-    <t>现代领导活动及其发展规律也就是研究领导者，被领导者，群体目标和客观环境相互结合，相互作用的规律的科学</t>
+    <t>现代领导活动及其发展规律，也就是研究领导者，被领导者，群体目标和客观环境相互结合，相互作用的规律的科学</t>
   </si>
   <si>
     <t>领导活动过程基本要素</t>
@@ -226,7 +220,7 @@
     <t>领导的含义</t>
   </si>
   <si>
-    <t>是指在一定的社会组织或群体内部，领导者运用其法定群里和自身影响力，</t>
+    <t>是指在一定的社会组织或群体内部，领导者运用其法定权力和自身影响力，</t>
   </si>
   <si>
     <t>采用一定的形式和方法对被领导者施加影响并共同作用于各个客观对象，已实现预定目标的行为过程</t>
@@ -409,33 +403,168 @@
     <t>领导的基础</t>
   </si>
   <si>
+    <t>是指领导活动赖以存在并发挥作用的根本条件。</t>
+  </si>
+  <si>
+    <t>主要表现为一种综合影响力。</t>
+  </si>
+  <si>
+    <t>权力是一种重要影响力，是领导履行职责必不可少的条件。</t>
+  </si>
+  <si>
+    <t>品德是领导影响力的重要因素。</t>
+  </si>
+  <si>
+    <t>还要具备相应的领导才能。</t>
+  </si>
+  <si>
+    <t>领导者具备这些能力就要有渊博的知识</t>
+  </si>
+  <si>
     <t>社会主义领导的本质属性</t>
   </si>
   <si>
+    <t>社会主义领导的本质属性就是服务</t>
+  </si>
+  <si>
+    <t>服务是内涵丰富的概念，有指导性的服务，管理型的服务，事务性的服务</t>
+  </si>
+  <si>
+    <t>强调领导就是服务，必须正确处理领导者和被领导者的关系</t>
+  </si>
+  <si>
+    <t>领导一个重要的职能就是教育，提高广大群众的素质</t>
+  </si>
+  <si>
     <t>领导者的含义</t>
   </si>
   <si>
+    <t>是指在【社会共同活动中】，在一定的【职位体系中】【担任一定领导职务】的【个人或集体】</t>
+  </si>
+  <si>
+    <t>领导者的本质</t>
+  </si>
+  <si>
+    <t>【领导者】与【其他社会实践主体联系时】所【表现出来的属性】，是领导者内在的固有属性。</t>
+  </si>
+  <si>
+    <t>领导者的本质由其在社会活动中所处的政治，经济，文化等地位所决定，并随着社会形态的变化而变化</t>
+  </si>
+  <si>
     <t>领导者的特征</t>
   </si>
   <si>
-    <t>领导者的本质</t>
+    <t>拥有职权</t>
+  </si>
+  <si>
+    <t>负有责任</t>
+  </si>
+  <si>
+    <t>提供服务</t>
+  </si>
+  <si>
+    <t>富于创新</t>
+  </si>
+  <si>
+    <t>多重角色</t>
   </si>
   <si>
     <t>领导者的地位与作用</t>
   </si>
   <si>
+    <t>首先，领导者在领导活动中居于【中心地位】（领导者影响力的大小与领导者的职权和素质成正比）</t>
+  </si>
+  <si>
+    <t>其次，领导者在领导活动中起【发动作用】（领导者要科学决策，指定计划，发布命令）</t>
+  </si>
+  <si>
+    <t>再次，领导者在领导活动中起【统率作用】（根据组织目标，协调各种关系，不断修正，完善决策）</t>
+  </si>
+  <si>
     <t>被领导者的含义</t>
   </si>
   <si>
+    <t>是指【在领导者的领导下】【按照领导的意图】为【实现组织目标】从事具体实践活动的【个人或集团】</t>
+  </si>
+  <si>
+    <t>两类：</t>
+  </si>
+  <si>
+    <t>绝对被领导者，指在一切社会组织中，不担任任何领导职务和不承担领导责任的人（工农商学兵）</t>
+  </si>
+  <si>
+    <t>相对被领导者，相对于夏季而言其是领导者，而相对于上级而言又是被领导者（省长领导下的市长，县长）</t>
+  </si>
+  <si>
+    <t>被领导者的本质</t>
+  </si>
+  <si>
+    <t>是指【被领导者】在【领导活动中】表现出来的【内在属性】。它是由被领导者在社会中的政治，经济文化地位决定的。</t>
+  </si>
+  <si>
+    <t>不同社会中的被领导者有着不同的政治，经济，文化地位，也有着不同的本质。</t>
+  </si>
+  <si>
     <t>被领导者的特征</t>
   </si>
   <si>
+    <t>服从性（在领导者的指挥下进行活动）</t>
+  </si>
+  <si>
+    <t>受动性（领导者活动中发挥主观能动性，被领导者努力实现目标）</t>
+  </si>
+  <si>
+    <t>对象性（被领导者是领导者的服务对象）</t>
+  </si>
+  <si>
+    <t>源泉性（被领导者是领导者创新的基础）</t>
+  </si>
+  <si>
+    <t>不担任领导职务或担任较低领导职务（绝对被领导，相对被领导者）</t>
+  </si>
+  <si>
+    <t>被领导者的地位与作用</t>
+  </si>
+  <si>
+    <t>被领导者【是领导者的对应面】（相互依存，谁也离不开谁）</t>
+  </si>
+  <si>
+    <t>被领导者起着产生于【选择领导者】的根本作用（选举权，罢免权）</t>
+  </si>
+  <si>
+    <t>被领导者对【领导效能】起决定作用（被领导者实现目标的中间环节，直接影响效能）</t>
+  </si>
+  <si>
     <t>好的被领导者的基本要求</t>
   </si>
   <si>
+    <t>要服从领导</t>
+  </si>
+  <si>
+    <t>要支持领导</t>
+  </si>
+  <si>
+    <t>监督领导</t>
+  </si>
+  <si>
     <t>领导者与被领导者的关系</t>
   </si>
   <si>
+    <t>相互【信任】的关系</t>
+  </si>
+  <si>
+    <t>相互【促进】的关系</t>
+  </si>
+  <si>
+    <t>相互【支持】的关系</t>
+  </si>
+  <si>
+    <t>相互【转化】的关系</t>
+  </si>
+  <si>
+    <t>相互【监督】的关系</t>
+  </si>
+  <si>
     <t>领导职能的含义</t>
   </si>
   <si>
@@ -2486,193 +2615,19 @@
   </si>
   <si>
     <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
-  </si>
-  <si>
-    <t>是指领导活动赖以存在并发挥作用的根本条件。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要表现为一种综合影响力。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>权力是一种重要影响力，是领导履行职责必不可少的条件。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>品德是领导影响力的重要因素。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>还要具备相应的领导才能。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导者具备这些能力就要有渊博的知识</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导一个重要的职能就是教育，提高广大群众的素质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>强调领导就是服务，必须正确处理领导者和被领导者的关系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务是内涵丰富的概念，有指导性的服务，管理型的服务，事务性的服务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会主义领导的本质属性就是服务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是指在【社会共同活动中】，在一定的【职位体系中】【担任一定领导职务】的【个人或集体】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>【领导者】与【其他社会实践主体联系时】所【表现出来的属性】，是领导者内在的固有属性。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导者的本质由其在社会活动中所处的政治，经济，文化等地位所决定，并随着社会形态的变化而变化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有职权</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>负有责任</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供服务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>富于创新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>多重角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>其次，领导者在领导活动中起【发动作用】（领导者要科学决策，指定计划，发布命令）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先，领导者在领导活动中居于【中心地位】（领导者影响力的大小与领导者的职权和素质成正比）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次，领导者在领导活动中起【统率作用】（根据组织目标，协调各种关系，不断修正，完善决策）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是指【在领导者的领导下】【按照领导的意图】为【实现组织目标】从事具体实践活动的【个人或集团】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>两类：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对被领导者，指在一切社会组织中，不担任任何领导职务和不承担领导责任的人（工农商学兵）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对被领导者，相对于夏季而言其是领导者，而相对于上级而言又是被领导者（省长领导下的市长，县长）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>被领导者的本质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同社会中的被领导者有着不同的政治，经济，文化地位，也有着不同的本质。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是指【被领导者】在【领导活动中】表现出来的【内在属性】。它是由被领导者在社会中的政治，经济文化地位决定的。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>源泉性（被领导者是领导者创新的基础）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>服从性（在领导者的指挥下进行活动）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>受动性（领导者活动中发挥主观能动性，被领导者努力实现目标）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象性（被领导者是领导者的服务对象）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不担任领导职务或担任较低领导职务（绝对被领导，相对被领导者）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>被领导者的地位与作用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>被领导者【是领导者的对应面】（相互依存，谁也离不开谁）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>被领导者起着产生于【选择领导者】的根本作用（选举权，罢免权）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>被领导者对【领导效能】起决定作用（被领导者实现目标的中间环节，直接影响效能）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>要服从领导</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>要支持领导</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>监督领导</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>相互【信任】的关系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>相互【促进】的关系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>相互【支持】的关系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>相互【转化】的关系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>相互【监督】的关系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2688,7 +2643,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.14993743705557422"/>
+      <color theme="0" tint="-0.149937437055574"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2710,27 +2665,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2738,13 +3011,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2763,24 +3278,65 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3067,119 +3623,119 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:3">
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:3">
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2">
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -3187,1058 +3743,1063 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2">
       <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2">
       <c r="B42" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2">
       <c r="B43" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2">
       <c r="B44" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2">
       <c r="B47" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2">
       <c r="B54" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2">
       <c r="B55" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2">
       <c r="B59" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:2">
       <c r="B60" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2">
       <c r="B61" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2">
       <c r="B62" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:2">
       <c r="B65" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2">
       <c r="B66" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:2">
       <c r="B69" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:2">
       <c r="B70" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:2">
       <c r="B71" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:2">
       <c r="B72" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:2">
       <c r="B74" s="5" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>679</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>680</v>
+        <v>725</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>686</v>
+        <v>731</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>692</v>
+        <v>737</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>696</v>
+        <v>741</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>698</v>
+        <v>743</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>699</v>
+        <v>744</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>702</v>
+        <v>747</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>705</v>
+        <v>750</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>708</v>
+        <v>753</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>709</v>
+        <v>754</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>718</v>
+        <v>763</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>719</v>
+        <v>764</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>721</v>
+        <v>766</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>723</v>
+        <v>768</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>724</v>
+        <v>769</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>726</v>
+        <v>771</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>727</v>
+        <v>772</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>729</v>
+        <v>774</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>731</v>
+        <v>776</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>737</v>
+        <v>782</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>741</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>742</v>
+        <v>787</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>748</v>
+        <v>793</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>750</v>
+        <v>795</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>752</v>
+        <v>797</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>757</v>
+        <v>802</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>762</v>
+        <v>807</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>764</v>
+        <v>809</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>765</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>766</v>
+        <v>811</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>768</v>
+        <v>813</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>770</v>
+        <v>815</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>772</v>
+        <v>817</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>776</v>
+        <v>821</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>778</v>
+        <v>823</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>779</v>
+        <v>824</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>781</v>
+        <v>826</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>784</v>
+        <v>829</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>785</v>
+        <v>830</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>787</v>
+        <v>832</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>788</v>
+        <v>833</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>790</v>
+        <v>835</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>791</v>
+        <v>836</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>793</v>
+        <v>838</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>797</v>
+        <v>842</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>799</v>
+        <v>844</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>801</v>
+        <v>846</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>803</v>
+        <v>848</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>805</v>
+        <v>850</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>807</v>
+        <v>852</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>809</v>
+        <v>854</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>811</v>
+        <v>856</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>813</v>
+        <v>858</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>815</v>
+        <v>860</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>817</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
@@ -4246,12 +4807,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:3">
       <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -4262,2608 +4823,2615 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:2">
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2">
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2">
       <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2">
       <c r="B32" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2">
       <c r="B42" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2">
       <c r="B43" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2">
       <c r="B46" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2">
       <c r="B47" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2">
       <c r="B57" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2">
       <c r="B58" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2">
       <c r="B61" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2">
       <c r="B62" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:2">
       <c r="B63" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2">
       <c r="B66" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:2">
       <c r="B67" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:2">
       <c r="B68" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:2">
       <c r="B71" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:2">
       <c r="B72" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" s="5" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" s="5" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
       <c r="B77" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
       <c r="B78" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
       <c r="B79" s="5" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" s="5" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" s="5" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" s="5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" s="5" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="6" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="6" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="6" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="6" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="6" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B97" s="6" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B98" s="6" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B99" s="6" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B102" s="6" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B103" s="6" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B104" s="6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="6" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="6" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="6" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B112" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="7" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B118" s="6" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B119" s="6" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B120" s="6" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B121" s="6" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B122" s="6" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A124" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B125" s="6" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B126" s="6" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B127" s="6" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B130" s="6" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B131" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B132" s="6" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B135" s="6" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B136" s="6" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B137" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B138" s="6" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B139" s="6" t="s">
-        <v>862</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6">
       <c r="F11" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6">
       <c r="F12" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6">
       <c r="F13" s="1" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15">
       <c r="M17" s="1" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15">
       <c r="F25" s="1" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12">
       <c r="L26" s="1" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>456</v>
+        <v>501</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>506</v>
+        <v>551</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>509</v>
+        <v>554</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>513</v>
+        <v>558</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>515</v>
+        <v>560</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>516</v>
+        <v>561</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>531</v>
+        <v>576</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>538</v>
+        <v>583</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>539</v>
+        <v>584</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>544</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>545</v>
+        <v>590</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>547</v>
+        <v>592</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>548</v>
+        <v>593</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>549</v>
+        <v>594</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>553</v>
+        <v>598</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>554</v>
+        <v>599</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>574</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>599</v>
+        <v>644</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>602</v>
+        <v>647</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>603</v>
+        <v>648</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>606</v>
+        <v>651</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>609</v>
+        <v>654</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>611</v>
+        <v>656</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>613</v>
+        <v>658</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>618</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>629</v>
+        <v>674</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540" tabRatio="902"/>
+    <workbookView windowWidth="24225" windowHeight="12690" tabRatio="902" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="893">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -568,988 +568,1078 @@
     <t>领导职能的含义</t>
   </si>
   <si>
-    <t>是领导职责和社会功能，是本质的具体表现</t>
+    <t>就是领导的【职责】和【社会功能】，他是领导【本质】的【具体表现】</t>
+  </si>
+  <si>
+    <t>领导职能在领导活动中的地位</t>
+  </si>
+  <si>
+    <t>领导职能是【确定合理的组织机构】，【实现领导科学化】的一个【重要标志】</t>
+  </si>
+  <si>
+    <t>领导职能是【领导活动科学化】的依据</t>
+  </si>
+  <si>
+    <t>领导职能的实现情况是【检验】【领导活动结束】的依据</t>
+  </si>
+  <si>
+    <t>领导的一般职能</t>
+  </si>
+  <si>
+    <t>引导（为群众引路导航，正确的规划目标，提出任务，实现方法，是基本职能）</t>
+  </si>
+  <si>
+    <t>指挥，（运用组织权责，推动下属为实现目标努力，一般采用命令，说服，示范）</t>
+  </si>
+  <si>
+    <t>组织（按照目标，合理设置机构，简历体质，分配权力，使用人员）</t>
+  </si>
+  <si>
+    <t>协调（领导的系统同外部环境之间，为了达到目标相互配合）</t>
+  </si>
+  <si>
+    <t>监督（检查规划目标任务的执行情况，及时发现问题，纠正偏差）</t>
+  </si>
+  <si>
+    <t>教育（对广大群众进行宣传，动员，培养，训练，从各方面提高他们的素质，改正错误）</t>
+  </si>
+  <si>
+    <t>当代领导的基本职能</t>
+  </si>
+  <si>
+    <t>科学决策（决策的正确与否直接关系到领导工作的成功失败，社会主义市场经济条件下，决策需要科学化）</t>
+  </si>
+  <si>
+    <t>选才用人</t>
+  </si>
+  <si>
+    <t>思想政治工作（以人为对象，解决人的思想观念，思想认识，政治立场问题，从而提高人们认识世界和改造世界的能力）</t>
+  </si>
+  <si>
+    <t>领导用人必须注意</t>
+  </si>
+  <si>
+    <t>能级，能质对应（能力和素质要对应）</t>
+  </si>
+  <si>
+    <t>优势定位（把人才安置在有利于发挥其优势的岗位上）</t>
+  </si>
+  <si>
+    <t>结构优化（不同人才配置得当）</t>
+  </si>
+  <si>
+    <t>思想政治工作正确处理要素之间的关系要做到</t>
+  </si>
+  <si>
+    <t>内容和方法必须适应被教育者的思想发展变化规律</t>
+  </si>
+  <si>
+    <t>依靠群众力量做好思想政治工作</t>
+  </si>
+  <si>
+    <t>教育者必须先受教育</t>
+  </si>
+  <si>
+    <t>领导的总原则</t>
+  </si>
+  <si>
+    <t>领导者在进行领导活动的过程中必须坚持和遵循的【标准和法则】，</t>
+  </si>
+  <si>
+    <t>它是领导职能的根本途径，同时又是领导原理与理论在不同环境下的具体体现</t>
+  </si>
+  <si>
+    <t>领导原则根据实际需要可以分为</t>
+  </si>
+  <si>
+    <t>总原则</t>
+  </si>
+  <si>
+    <t>基本原则</t>
+  </si>
+  <si>
+    <t>具体原则</t>
+  </si>
+  <si>
+    <t>是指在我国领导实际情况中那些根本性和综合性的原则</t>
+  </si>
+  <si>
+    <t>总原则包括</t>
+  </si>
+  <si>
+    <t>党的基本路线原则（一个中心，两个基本点）</t>
+  </si>
+  <si>
+    <t>实事求是原则（）</t>
+  </si>
+  <si>
+    <t>民主集中制原则（民主基础上和在集中指导下的民主相结合）</t>
+  </si>
+  <si>
+    <t>群众路线原则（从群众中来，到群众中去）</t>
+  </si>
+  <si>
+    <t>民主集中制原则基本内容</t>
+  </si>
+  <si>
+    <t>个人服从组织，少数服从多数，下级服从上级，全党服从中央</t>
+  </si>
+  <si>
+    <t>各级领导机关，除排除机关以外，均由民主选举产生</t>
+  </si>
+  <si>
+    <t>各级代表大会产生本机委员会，各级委员会向本机代表大会负责并报告</t>
+  </si>
+  <si>
+    <t>上级组织要经常听取下级组织的群众意见，及时解决他们提出的问题</t>
+  </si>
+  <si>
+    <t>各级组织都实行集体领导和个人分工负责相结合的制度，凡属重大问题，都要通过集体讨论后才能做出决定</t>
+  </si>
+  <si>
+    <t>上下级组织要互相沟通，互通情报，互相支持，配合和监督，禁止任何形式的个人崇拜，保证领导者的活动处于组织群众的监督下，同时维护一切代表人民利益的领导的权威</t>
+  </si>
+  <si>
+    <t>领导的基本原则</t>
+  </si>
+  <si>
+    <t>统一领导原则（一定时期内必须有统一的一直，统一的目标，统一的行为规范，是领导活动成立的原因）</t>
+  </si>
+  <si>
+    <t>分层领导原则（建立合理的层次系列，掌握适当的领导幅度，正确处理层次之间的关系，内在要求）</t>
+  </si>
+  <si>
+    <t>系统整体原则（要求领导者用系统的观点去观察和处理问题，正确处理局部和整体的关系，行程最佳的整体效能）</t>
+  </si>
+  <si>
+    <t>责权一致原则</t>
+  </si>
+  <si>
+    <t>民主公开原则（重视民主公开办事制度，公开办事结果，接受监督）</t>
+  </si>
+  <si>
+    <t>集体领导和分工负责相结合原则（重大问题要由领导集体讨论和决定，集体决定的事情要分头去办）</t>
+  </si>
+  <si>
+    <t>统一领导两个方面意思</t>
+  </si>
+  <si>
+    <t>组织体制应该坚持统一领导的原则</t>
+  </si>
+  <si>
+    <t>人员序列应该坚持统一领导的原则</t>
+  </si>
+  <si>
+    <t>为了实现统一领导，解决两种关系</t>
+  </si>
+  <si>
+    <t>处理好集权和分权的估关系</t>
+  </si>
+  <si>
+    <t>处理好原则性和灵活性的关系</t>
+  </si>
+  <si>
+    <t>分层领导原则</t>
+  </si>
+  <si>
+    <t>首先，分层领导由领导幅度所决定</t>
+  </si>
+  <si>
+    <t>其次，分层领导与领导职能相适应</t>
+  </si>
+  <si>
+    <t>再次，分层领导应该促进领导工作的有效性</t>
+  </si>
+  <si>
+    <t>领导观念的基本内涵</t>
+  </si>
+  <si>
+    <t>领导对领导活动中的规律性的本质认识和反应</t>
+  </si>
+  <si>
+    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
+  </si>
+  <si>
+    <t>现代领导观念的基本特征</t>
+  </si>
+  <si>
+    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
+  </si>
+  <si>
+    <t>决定领导者的领导方式，影响成败</t>
+  </si>
+  <si>
+    <t>领导观念的重要作用</t>
+  </si>
+  <si>
+    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
+  </si>
+  <si>
+    <t>政治观念的基本内涵</t>
+  </si>
+  <si>
+    <t>坚持中国民族特色，建设中国特色社会主义</t>
+  </si>
+  <si>
+    <t>领导者对政治本质的认识和看法</t>
+  </si>
+  <si>
+    <t>人本观念的基本内涵</t>
+  </si>
+  <si>
+    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
+  </si>
+  <si>
+    <t>权力观念的基本内涵</t>
+  </si>
+  <si>
+    <t>把个人意志强加在其他人行为上的能力</t>
+  </si>
+  <si>
+    <t>市场经济的需要</t>
+  </si>
+  <si>
+    <t>领导工作中主要矛盾决定的</t>
+  </si>
+  <si>
+    <t>法制观念的基本内涵</t>
+  </si>
+  <si>
+    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
+  </si>
+  <si>
+    <t>党的基本路线</t>
+  </si>
+  <si>
+    <t>社会主义社会对领导的本质要求决定的</t>
+  </si>
+  <si>
+    <t>市场经济观念的基本内涵</t>
+  </si>
+  <si>
+    <t>领导者对市场经济的认识</t>
+  </si>
+  <si>
+    <t>密切党群关系的需要</t>
+  </si>
+  <si>
+    <t>改革创新观念的基本内涵</t>
+  </si>
+  <si>
+    <t>对改革创新的总体认识和看法</t>
+  </si>
+  <si>
+    <t>坚持党性质和宗旨的需要</t>
+  </si>
+  <si>
+    <t>权力是领导者执行领导活动的基本和前提</t>
+  </si>
+  <si>
+    <t>对政治本质的认识和看法</t>
+  </si>
+  <si>
+    <t>对外工作的需要</t>
+  </si>
+  <si>
+    <t>没有权力领导者无法完成使命</t>
+  </si>
+  <si>
+    <t>领导者树立政治观念的必要性</t>
+  </si>
+  <si>
+    <t>是依法治国的前提条件</t>
+  </si>
+  <si>
+    <t>科学发展</t>
+  </si>
+  <si>
+    <t>必须要有决策权和用人权</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的必要性</t>
+  </si>
+  <si>
+    <t>是依法行政的首要条件</t>
+  </si>
+  <si>
+    <t>时代变化的要求</t>
+  </si>
+  <si>
+    <t>领导者树立权力观念的必要性</t>
+  </si>
+  <si>
+    <t>是依法政府必要条件</t>
+  </si>
+  <si>
+    <t>社会主义现代化建设的要求</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的必要性</t>
+  </si>
+  <si>
+    <t>保障人权的需要</t>
+  </si>
+  <si>
+    <t>保障事业发展的要求</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+  </si>
+  <si>
+    <t>权力内容</t>
+  </si>
+  <si>
+    <t>领导者树立改革创新观念的必要性</t>
+  </si>
+  <si>
+    <t>先人后事</t>
+  </si>
+  <si>
+    <t>权力来源</t>
+  </si>
+  <si>
+    <t>坚持人才原则</t>
+  </si>
+  <si>
+    <t>权责关系的</t>
+  </si>
+  <si>
+    <t>领导者树立正确的政治观念的基本要求</t>
+  </si>
+  <si>
+    <t>正确的政治方向，最终实现共产主义</t>
+  </si>
+  <si>
+    <t>人尽其才</t>
+  </si>
+  <si>
+    <t>权力监督</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的基本要求</t>
+  </si>
+  <si>
+    <t>正确的政治立场，为人民服务</t>
+  </si>
+  <si>
+    <t>人才竞争</t>
+  </si>
+  <si>
+    <t>权力行使的</t>
+  </si>
+  <si>
+    <t>领导者树立正确的权利观念的基本要求</t>
+  </si>
+  <si>
+    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
+  </si>
+  <si>
+    <t>人文关怀</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的基本要求</t>
+  </si>
+  <si>
+    <t>领导者树立现代市场经济观念的基本要求</t>
+  </si>
+  <si>
+    <t>法律至上</t>
+  </si>
+  <si>
+    <t>人情了解市场经济体制的必然性</t>
+  </si>
+  <si>
+    <t>要认识改革创新的性质和目的</t>
+  </si>
+  <si>
+    <t>什么是政绩</t>
+  </si>
+  <si>
+    <t>领导者树立科学的改革创新观念的基本要求</t>
+  </si>
+  <si>
+    <t>人人平等</t>
+  </si>
+  <si>
+    <t>了解基本规律</t>
+  </si>
+  <si>
+    <t>要明确改革创新的价值</t>
+  </si>
+  <si>
+    <t>为谁创政绩</t>
+  </si>
+  <si>
+    <t>领导者树立科学的政绩观念的基本要求</t>
+  </si>
+  <si>
+    <t>人权保障</t>
+  </si>
+  <si>
+    <t>了解特征</t>
+  </si>
+  <si>
+    <t>坚持改革创新的立场</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>依法用权</t>
+  </si>
+  <si>
+    <t>完善目标</t>
+  </si>
+  <si>
+    <t>保持解放思想的思维方式</t>
+  </si>
+  <si>
+    <t>怎么创造政绩</t>
+  </si>
+  <si>
+    <t>选择合理的改革方式</t>
+  </si>
+  <si>
+    <t>决策及其在领导工作中的地位：</t>
+  </si>
+  <si>
+    <t>决策的含义</t>
+  </si>
+  <si>
+    <t>做出的决定，是决策做出的决定</t>
+  </si>
+  <si>
+    <t>决策的构成要素</t>
+  </si>
+  <si>
+    <t>决策者</t>
+  </si>
+  <si>
+    <t>决策目标</t>
+  </si>
+  <si>
+    <t>决策环境</t>
+  </si>
+  <si>
+    <t>决策结果</t>
+  </si>
+  <si>
+    <t>决策备选方案</t>
+  </si>
+  <si>
+    <t>决策的基本特征</t>
+  </si>
+  <si>
+    <t>针对性</t>
+  </si>
+  <si>
+    <t>目的性</t>
+  </si>
+  <si>
+    <t>实施性</t>
+  </si>
+  <si>
+    <t>选择性</t>
+  </si>
+  <si>
+    <t>优化型</t>
+  </si>
+  <si>
+    <t>经验决策特点</t>
+  </si>
+  <si>
+    <t>是个人的决策活动，主要依靠决策者个人的素质做出决策，以经验为基础，信息量有限</t>
+  </si>
+  <si>
+    <t>科学决策的特点</t>
+  </si>
+  <si>
+    <t>注重集体共同决策，共同完成决策活动，建立在科学基础上，运用广泛的科学技术方法进行分析，确保决策的可靠性</t>
+  </si>
+  <si>
+    <t>决策的分类</t>
+  </si>
+  <si>
+    <t>战略，战术，程序化，非程序化，高中基层，最快，最优，确定性不确定性风险性</t>
+  </si>
+  <si>
+    <t>决策的模式</t>
+  </si>
+  <si>
+    <t>理性，渐进，综合</t>
+  </si>
+  <si>
+    <t>科学决策的原则，程序，方法：</t>
+  </si>
+  <si>
+    <t>德尔菲法特点</t>
+  </si>
+  <si>
+    <t>匿名</t>
+  </si>
+  <si>
+    <t>多伦反馈</t>
+  </si>
+  <si>
+    <t>最终结论的统一性</t>
+  </si>
+  <si>
+    <t>组成专家小组</t>
+  </si>
+  <si>
+    <t>头脑风暴法的含义</t>
+  </si>
+  <si>
+    <t>一定数量的专家，用创造性的思维对决策对象的未来做出判断性的方法</t>
+  </si>
+  <si>
+    <t>提供问题和要求，并提供相关信息和文件</t>
+  </si>
+  <si>
+    <t>试验决策法的含义</t>
+  </si>
+  <si>
+    <t>新出现的问题，无法通过经验，不能通过备选方案，无法选择最优方案的时候使用的决策</t>
+  </si>
+  <si>
+    <t>专家根据提供的资料给出预测结果</t>
+  </si>
+  <si>
+    <t>科学决策的基本标准</t>
+  </si>
+  <si>
+    <t>要有决策目标，决策方案可以实现目标，实现目标的成本低，没有副作用</t>
+  </si>
+  <si>
+    <t>手机专家预测结果，绘制图表分发给专家，进行对比和修改</t>
+  </si>
+  <si>
+    <t>科学决策的基本原则</t>
+  </si>
+  <si>
+    <t>客观性，信息性，程序性，选择性，可行性预测性，外脑性</t>
+  </si>
+  <si>
+    <t>手机修改后的结果，再次分发给专家，做二次修改</t>
+  </si>
+  <si>
+    <t>追踪决策的特征</t>
+  </si>
+  <si>
+    <t>回溯性，非零起点，双重优化，心灵效应</t>
+  </si>
+  <si>
+    <t>最后对专家的意见做综合评价</t>
+  </si>
+  <si>
+    <t>头脑风暴法必须遵循的原则</t>
+  </si>
+  <si>
+    <t>自由畅言，强调数量，禁止评论，相互借鉴</t>
+  </si>
+  <si>
+    <t>科学决策的程序</t>
+  </si>
+  <si>
+    <t>明确问题，确定目标，集思广益，拟定方案，分析评估，选择防范，实施方案，反馈修正</t>
+  </si>
+  <si>
+    <t>德尔菲法的实施步骤</t>
+  </si>
+  <si>
+    <t>决策树法的步骤</t>
+  </si>
+  <si>
+    <t>根据决策问题绘制决策树，计算概率值，计算收益指，提出最优方案</t>
+  </si>
+  <si>
+    <t>决策中枢系统为核心</t>
+  </si>
+  <si>
+    <t>决策信息性系统外围</t>
+  </si>
+  <si>
+    <t>决策中的领导者：</t>
+  </si>
+  <si>
+    <t>决策智囊系统两者之间</t>
+  </si>
+  <si>
+    <t>决策体质的内涵</t>
+  </si>
+  <si>
+    <t>承担决策的结构和人员组成的组织形式的体质</t>
+  </si>
+  <si>
+    <t>决策体质的构成</t>
+  </si>
+  <si>
+    <t>具有决策权的领导集团共同作出的决策</t>
+  </si>
+  <si>
+    <t>集体抉择含义</t>
+  </si>
+  <si>
+    <t>决策信息系统</t>
+  </si>
+  <si>
+    <t>个人决策的含义</t>
+  </si>
+  <si>
+    <t>具有决策权的个人作出的决策</t>
+  </si>
+  <si>
+    <t>危机决策的内涵</t>
+  </si>
+  <si>
+    <t>非程序化的决策，一般为从未见过的，难以决策的，环境变化无常的</t>
+  </si>
+  <si>
+    <t>现代决策体质系统</t>
+  </si>
+  <si>
+    <t>决策目标的指定</t>
+  </si>
+  <si>
+    <t>时效性</t>
+  </si>
+  <si>
+    <t>领导保证智囊团独立研究，不能干涉，只让智能团论证自己的正确性</t>
+  </si>
+  <si>
+    <t>领导者在决策活动中的主要职责</t>
+  </si>
+  <si>
+    <t>方案的指定</t>
+  </si>
+  <si>
+    <t>民主性</t>
+  </si>
+  <si>
+    <t>领导者不能被智囊团替换，不能让智囊团为领导者作出决定</t>
+  </si>
+  <si>
+    <t>集体决策需要注意的问题，对领导决策的基本要求</t>
+  </si>
+  <si>
+    <t>快速果断</t>
+  </si>
+  <si>
+    <t>方案的选择</t>
+  </si>
+  <si>
+    <t>灵活性</t>
+  </si>
+  <si>
+    <t>决策的问题进行科学预测</t>
+  </si>
+  <si>
+    <t>领导者与智囊团的关系</t>
+  </si>
+  <si>
+    <t>高效准确</t>
+  </si>
+  <si>
+    <t>方案的试试</t>
+  </si>
+  <si>
+    <t>系统性</t>
+  </si>
+  <si>
+    <t>觉得的方案进行设计和分析</t>
+  </si>
+  <si>
+    <t>领导者危机决策的基本要求</t>
+  </si>
+  <si>
+    <t>非程序性</t>
+  </si>
+  <si>
+    <t>合法性</t>
+  </si>
+  <si>
+    <t>觉得问题进行咨询</t>
+  </si>
+  <si>
+    <t>领导者在决策过程中发挥智囊团的作用</t>
+  </si>
+  <si>
+    <t>主动积极</t>
+  </si>
+  <si>
+    <t>决策实施情况进行反馈</t>
+  </si>
+  <si>
+    <t>领导者进行危机决策的方法</t>
+  </si>
+  <si>
+    <t>迅速果断</t>
+  </si>
+  <si>
+    <t>领导者科学决策的原则和方法</t>
+  </si>
+  <si>
+    <t>富有创意灵活</t>
+  </si>
+  <si>
+    <t>人才的特点</t>
+  </si>
+  <si>
+    <t>社会性</t>
+  </si>
+  <si>
+    <t>工作性质</t>
+  </si>
+  <si>
+    <t>理论</t>
+  </si>
+  <si>
+    <t>实践</t>
+  </si>
+  <si>
+    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
+  </si>
+  <si>
+    <t>人才的类型</t>
+  </si>
+  <si>
+    <t>专业性</t>
+  </si>
+  <si>
+    <t>自身素质</t>
+  </si>
+  <si>
+    <t>发现型</t>
+  </si>
+  <si>
+    <t>再现型</t>
+  </si>
+  <si>
+    <t>人才是事业之本，正确的选才，推动社会金币</t>
+  </si>
+  <si>
+    <t>衡量人才的标准</t>
+  </si>
+  <si>
+    <t>衡量是否属于人才的指标和准则</t>
+  </si>
+  <si>
+    <t>创造性</t>
+  </si>
+  <si>
+    <t>发挥作用不同</t>
+  </si>
+  <si>
+    <t>组织型</t>
+  </si>
+  <si>
+    <t>操作型</t>
+  </si>
+  <si>
+    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
+  </si>
+  <si>
+    <t>选材用人对于现代领导的重要意义</t>
+  </si>
+  <si>
+    <t>历史进步性</t>
+  </si>
+  <si>
+    <t>相对性</t>
+  </si>
+  <si>
+    <t>资历与能力的关系，避免论资排辈</t>
+  </si>
+  <si>
+    <t>选举制的含义</t>
+  </si>
+  <si>
+    <t>通过投票以选拔人才</t>
+  </si>
+  <si>
+    <t>察言观行相结合</t>
+  </si>
+  <si>
+    <t>知识分子与人才的关系，避免把两者等同起来</t>
+  </si>
+  <si>
+    <t>考选制的含义</t>
+  </si>
+  <si>
+    <t>通过考试选拔人才</t>
+  </si>
+  <si>
+    <t>考察历史和显示结合</t>
+  </si>
+  <si>
+    <t>学历和能力的关系，要实践与文化相结合</t>
+  </si>
+  <si>
+    <t>荐举制的含义</t>
+  </si>
+  <si>
+    <t>通过推荐选拔人才</t>
+  </si>
+  <si>
+    <t>发现人才的长处与短处</t>
+  </si>
+  <si>
+    <t>人才选拔的基本原则</t>
+  </si>
+  <si>
+    <t>群众评论</t>
+  </si>
+  <si>
+    <t>人才选拔的制度</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>考选</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>领导者在选拔人才时必须正确处理的关系</t>
+  </si>
+  <si>
+    <t>领导者选拔人才的原则和方法</t>
+  </si>
+  <si>
+    <t>选任制的含义</t>
+  </si>
+  <si>
+    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
+  </si>
+  <si>
+    <t>委任制的含义</t>
+  </si>
+  <si>
+    <t>有任免权的领导按人事制度授予一定职位的制度</t>
+  </si>
+  <si>
+    <t>聘任制的含义</t>
+  </si>
+  <si>
+    <t>通过签署合同的方式照片人才的一种制度</t>
+  </si>
+  <si>
+    <t>考核制度的含义</t>
+  </si>
+  <si>
+    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
+  </si>
+  <si>
+    <t>奖惩制度的含义</t>
+  </si>
+  <si>
+    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
+  </si>
+  <si>
+    <t>交流制度的含义</t>
+  </si>
+  <si>
+    <t>对于人才实行有计划的定期交流的一种制度</t>
+  </si>
+  <si>
+    <t>任期制度的含义</t>
+  </si>
+  <si>
+    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
+  </si>
+  <si>
+    <t>人才使用的基本原则</t>
+  </si>
+  <si>
+    <t>人才使用的主要制度</t>
+  </si>
+  <si>
+    <t>量才用人，只能相称</t>
+  </si>
+  <si>
+    <t>任免制度培养制度</t>
+  </si>
+  <si>
+    <t>领导者使用人才的基本原则和方法</t>
+  </si>
+  <si>
+    <t>扬长避短，各尽所能</t>
+  </si>
+  <si>
+    <t>考核制度奖惩制度</t>
+  </si>
+  <si>
+    <t>用人不疑，疑人不用</t>
+  </si>
+  <si>
+    <t>交流制度回避制度</t>
+  </si>
+  <si>
+    <t>合理搭配，整体效能</t>
+  </si>
+  <si>
+    <t>甚至制度辞职制度</t>
+  </si>
+  <si>
+    <t>五湖四海，宽以容才</t>
+  </si>
+  <si>
+    <t>任期制度，退休制度</t>
+  </si>
+  <si>
+    <t>合理流动，适材适所</t>
+  </si>
+  <si>
+    <t>爱护人才，关心帮助</t>
+  </si>
+  <si>
+    <t>重视培养，用养结合</t>
+  </si>
+  <si>
+    <t>思想政治工作的含义</t>
+  </si>
+  <si>
+    <t>思想工作就是人的工作，通过确立观念，立场，思想来提高工作效率</t>
+  </si>
+  <si>
+    <t>思想政治工作的对象</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>马克思主义基本理论</t>
+  </si>
+  <si>
+    <t>思想政治工作对领导工作的重要意义</t>
+  </si>
+  <si>
+    <t>领导者在领导工作中，提高人们的思想觉悟，调用积极性的一种手段</t>
+  </si>
+  <si>
+    <t>爱国主义教育</t>
+  </si>
+  <si>
+    <t>形式和任务教育</t>
+  </si>
+  <si>
+    <t>政治教育的含义</t>
+  </si>
+  <si>
+    <t>是指中国中国共产党基本路线和方正的教育，爱国主义教育，形势任务教育</t>
+  </si>
+  <si>
+    <t>民主与法治</t>
+  </si>
+  <si>
+    <t>公民素质教育的含义</t>
+  </si>
+  <si>
+    <t>思想</t>
+  </si>
+  <si>
+    <t>道德</t>
+  </si>
+  <si>
+    <t>法治</t>
+  </si>
+  <si>
+    <t>思想遇到的</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本内容</t>
+  </si>
+  <si>
+    <t>党的路线方正政策</t>
+  </si>
+  <si>
+    <t>政治教育的基本内容</t>
+  </si>
+  <si>
+    <t>爱国主义和社会主义教育</t>
+  </si>
+  <si>
+    <t>形式和任务的教育</t>
+  </si>
+  <si>
+    <t>基本路线政策与方针政策教育</t>
+  </si>
+  <si>
+    <t>公民素质教育的主要内容</t>
+  </si>
+  <si>
+    <t>说理教育法的含义</t>
+  </si>
+  <si>
+    <t>向思想教育对象，讲解有关理论和道理，以说理说服对方，转变思想的一种方式</t>
+  </si>
+  <si>
+    <t>情感交流法的含义</t>
+  </si>
+  <si>
+    <t>对教育对象，情感交流，以情感去感动对方，转变思想的一找那个方式</t>
+  </si>
+  <si>
+    <t>个别引导法的含义</t>
+  </si>
+  <si>
+    <t>对个别对象，采用各种方式，因时因地的各种方式进行思想教育工作</t>
+  </si>
+  <si>
+    <t>心里咨询法的含义</t>
+  </si>
+  <si>
+    <t>对对象用心理学的方法，认识到自己的的问题根源，挖掘潜力，提高自己的认知的一种方式</t>
+  </si>
+  <si>
+    <t>榜样示范法的含义</t>
+  </si>
+  <si>
+    <t>以先进人物的先进思想的一种方式来教育对方，提高对方思想觉悟的一种方式</t>
+  </si>
+  <si>
+    <t>自我教育法的含义</t>
+  </si>
+  <si>
+    <t>以自我学习，自我提高修养的一种方式不断完善自己的思想品德</t>
+  </si>
+  <si>
+    <t>思想政治工作的方针</t>
+  </si>
+  <si>
+    <t>坚持，疏导，疏通，引导</t>
+  </si>
+  <si>
+    <t>理论联系实际</t>
+  </si>
+  <si>
+    <t>疏导</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本原则</t>
+  </si>
+  <si>
+    <t>表扬和批评</t>
+  </si>
+  <si>
+    <t>疏通</t>
+  </si>
+  <si>
+    <t>集思广益，把心里话说出来</t>
+  </si>
+  <si>
+    <t>思想政治工作的方法</t>
+  </si>
+  <si>
+    <t>说理</t>
+  </si>
+  <si>
+    <t>精神奖励和物质奖励</t>
   </si>
   <si>
     <t>引到</t>
-  </si>
-  <si>
-    <t>科学决策</t>
-  </si>
-  <si>
-    <t>领导职能在领导活动中的地位</t>
-  </si>
-  <si>
-    <t>是确定组织机构的重要标志</t>
-  </si>
-  <si>
-    <t>指挥</t>
-  </si>
-  <si>
-    <t>选才用人</t>
-  </si>
-  <si>
-    <t>能技能职对应，优势定位，结构优化</t>
-  </si>
-  <si>
-    <t>领导的一般职能</t>
-  </si>
-  <si>
-    <t>是领导活动科学化的依据</t>
-  </si>
-  <si>
-    <t>组织</t>
-  </si>
-  <si>
-    <t>思想政治工作</t>
-  </si>
-  <si>
-    <t>当代领导的基本职能</t>
-  </si>
-  <si>
-    <t>是领导活动结束的依据</t>
-  </si>
-  <si>
-    <t>协调</t>
-  </si>
-  <si>
-    <t>领导原则的含义</t>
-  </si>
-  <si>
-    <t>在领导活动中所要坚持的标准和法则</t>
-  </si>
-  <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>领导的总原则</t>
-  </si>
-  <si>
-    <t>总原则，基本原则，具体原则</t>
-  </si>
-  <si>
-    <t>监督</t>
-  </si>
-  <si>
-    <t>领导的基本原则</t>
-  </si>
-  <si>
-    <t>党的基本路线</t>
-  </si>
-  <si>
-    <t>统一领导原则</t>
-  </si>
-  <si>
-    <t>实事求是</t>
-  </si>
-  <si>
-    <t>分权原则</t>
-  </si>
-  <si>
-    <t>民主集中制</t>
-  </si>
-  <si>
-    <t>分层原则</t>
-  </si>
-  <si>
-    <t>群众路线原则</t>
-  </si>
-  <si>
-    <t>系统整体原则</t>
-  </si>
-  <si>
-    <t>权责一致原则</t>
-  </si>
-  <si>
-    <t>民主公开原则</t>
-  </si>
-  <si>
-    <t>集体，分工结合原则</t>
-  </si>
-  <si>
-    <t>领导观念的基本内涵</t>
-  </si>
-  <si>
-    <t>领导对领导活动中的规律性的本质认识和反应</t>
-  </si>
-  <si>
-    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
-  </si>
-  <si>
-    <t>现代领导观念的基本特征</t>
-  </si>
-  <si>
-    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
-  </si>
-  <si>
-    <t>决定领导者的领导方式，影响成败</t>
-  </si>
-  <si>
-    <t>领导观念的重要作用</t>
-  </si>
-  <si>
-    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
-  </si>
-  <si>
-    <t>政治观念的基本内涵</t>
-  </si>
-  <si>
-    <t>坚持中国民族特色，建设中国特色社会主义</t>
-  </si>
-  <si>
-    <t>领导者对政治本质的认识和看法</t>
-  </si>
-  <si>
-    <t>人本观念的基本内涵</t>
-  </si>
-  <si>
-    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
-  </si>
-  <si>
-    <t>权力观念的基本内涵</t>
-  </si>
-  <si>
-    <t>把个人意志强加在其他人行为上的能力</t>
-  </si>
-  <si>
-    <t>市场经济的需要</t>
-  </si>
-  <si>
-    <t>领导工作中主要矛盾决定的</t>
-  </si>
-  <si>
-    <t>法制观念的基本内涵</t>
-  </si>
-  <si>
-    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
-  </si>
-  <si>
-    <t>社会主义社会对领导的本质要求决定的</t>
-  </si>
-  <si>
-    <t>市场经济观念的基本内涵</t>
-  </si>
-  <si>
-    <t>领导者对市场经济的认识</t>
-  </si>
-  <si>
-    <t>密切党群关系的需要</t>
-  </si>
-  <si>
-    <t>改革创新观念的基本内涵</t>
-  </si>
-  <si>
-    <t>对改革创新的总体认识和看法</t>
-  </si>
-  <si>
-    <t>坚持党性质和宗旨的需要</t>
-  </si>
-  <si>
-    <t>权力是领导者执行领导活动的基本和前提</t>
-  </si>
-  <si>
-    <t>对政治本质的认识和看法</t>
-  </si>
-  <si>
-    <t>对外工作的需要</t>
-  </si>
-  <si>
-    <t>没有权力领导者无法完成使命</t>
-  </si>
-  <si>
-    <t>领导者树立政治观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法治国的前提条件</t>
-  </si>
-  <si>
-    <t>科学发展</t>
-  </si>
-  <si>
-    <t>必须要有决策权和用人权</t>
-  </si>
-  <si>
-    <t>领导者树立人本观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法行政的首要条件</t>
-  </si>
-  <si>
-    <t>时代变化的要求</t>
-  </si>
-  <si>
-    <t>领导者树立权力观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法政府必要条件</t>
-  </si>
-  <si>
-    <t>社会主义现代化建设的要求</t>
-  </si>
-  <si>
-    <t>领导者树立法治观念的必要性</t>
-  </si>
-  <si>
-    <t>保障人权的需要</t>
-  </si>
-  <si>
-    <t>保障事业发展的要求</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-  </si>
-  <si>
-    <t>权力内容</t>
-  </si>
-  <si>
-    <t>领导者树立改革创新观念的必要性</t>
-  </si>
-  <si>
-    <t>先人后事</t>
-  </si>
-  <si>
-    <t>权力来源</t>
-  </si>
-  <si>
-    <t>坚持人才原则</t>
-  </si>
-  <si>
-    <t>权责关系的</t>
-  </si>
-  <si>
-    <t>领导者树立正确的政治观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治方向，最终实现共产主义</t>
-  </si>
-  <si>
-    <t>人尽其才</t>
-  </si>
-  <si>
-    <t>权力监督</t>
-  </si>
-  <si>
-    <t>领导者树立人本观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治立场，为人民服务</t>
-  </si>
-  <si>
-    <t>人才竞争</t>
-  </si>
-  <si>
-    <t>权力行使的</t>
-  </si>
-  <si>
-    <t>领导者树立正确的权利观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
-  </si>
-  <si>
-    <t>人文关怀</t>
-  </si>
-  <si>
-    <t>领导者树立法治观念的基本要求</t>
-  </si>
-  <si>
-    <t>领导者树立现代市场经济观念的基本要求</t>
-  </si>
-  <si>
-    <t>法律至上</t>
-  </si>
-  <si>
-    <t>人情了解市场经济体制的必然性</t>
-  </si>
-  <si>
-    <t>要认识改革创新的性质和目的</t>
-  </si>
-  <si>
-    <t>什么是政绩</t>
-  </si>
-  <si>
-    <t>领导者树立科学的改革创新观念的基本要求</t>
-  </si>
-  <si>
-    <t>人人平等</t>
-  </si>
-  <si>
-    <t>了解基本规律</t>
-  </si>
-  <si>
-    <t>要明确改革创新的价值</t>
-  </si>
-  <si>
-    <t>为谁创政绩</t>
-  </si>
-  <si>
-    <t>领导者树立科学的政绩观念的基本要求</t>
-  </si>
-  <si>
-    <t>人权保障</t>
-  </si>
-  <si>
-    <t>了解特征</t>
-  </si>
-  <si>
-    <t>坚持改革创新的立场</t>
-  </si>
-  <si>
-    <t>标准</t>
-  </si>
-  <si>
-    <t>依法用权</t>
-  </si>
-  <si>
-    <t>完善目标</t>
-  </si>
-  <si>
-    <t>保持解放思想的思维方式</t>
-  </si>
-  <si>
-    <t>怎么创造政绩</t>
-  </si>
-  <si>
-    <t>选择合理的改革方式</t>
-  </si>
-  <si>
-    <t>决策及其在领导工作中的地位：</t>
-  </si>
-  <si>
-    <t>决策的含义</t>
-  </si>
-  <si>
-    <t>做出的决定，是决策做出的决定</t>
-  </si>
-  <si>
-    <t>决策的构成要素</t>
-  </si>
-  <si>
-    <t>决策者</t>
-  </si>
-  <si>
-    <t>决策目标</t>
-  </si>
-  <si>
-    <t>决策环境</t>
-  </si>
-  <si>
-    <t>决策结果</t>
-  </si>
-  <si>
-    <t>决策备选方案</t>
-  </si>
-  <si>
-    <t>决策的基本特征</t>
-  </si>
-  <si>
-    <t>针对性</t>
-  </si>
-  <si>
-    <t>目的性</t>
-  </si>
-  <si>
-    <t>实施性</t>
-  </si>
-  <si>
-    <t>选择性</t>
-  </si>
-  <si>
-    <t>优化型</t>
-  </si>
-  <si>
-    <t>经验决策特点</t>
-  </si>
-  <si>
-    <t>是个人的决策活动，主要依靠决策者个人的素质做出决策，以经验为基础，信息量有限</t>
-  </si>
-  <si>
-    <t>科学决策的特点</t>
-  </si>
-  <si>
-    <t>注重集体共同决策，共同完成决策活动，建立在科学基础上，运用广泛的科学技术方法进行分析，确保决策的可靠性</t>
-  </si>
-  <si>
-    <t>决策的分类</t>
-  </si>
-  <si>
-    <t>战略，战术，程序化，非程序化，高中基层，最快，最优，确定性不确定性风险性</t>
-  </si>
-  <si>
-    <t>决策的模式</t>
-  </si>
-  <si>
-    <t>理性，渐进，综合</t>
-  </si>
-  <si>
-    <t>科学决策的原则，程序，方法：</t>
-  </si>
-  <si>
-    <t>德尔菲法特点</t>
-  </si>
-  <si>
-    <t>匿名</t>
-  </si>
-  <si>
-    <t>多伦反馈</t>
-  </si>
-  <si>
-    <t>最终结论的统一性</t>
-  </si>
-  <si>
-    <t>组成专家小组</t>
-  </si>
-  <si>
-    <t>头脑风暴法的含义</t>
-  </si>
-  <si>
-    <t>一定数量的专家，用创造性的思维对决策对象的未来做出判断性的方法</t>
-  </si>
-  <si>
-    <t>提供问题和要求，并提供相关信息和文件</t>
-  </si>
-  <si>
-    <t>试验决策法的含义</t>
-  </si>
-  <si>
-    <t>新出现的问题，无法通过经验，不能通过备选方案，无法选择最优方案的时候使用的决策</t>
-  </si>
-  <si>
-    <t>专家根据提供的资料给出预测结果</t>
-  </si>
-  <si>
-    <t>科学决策的基本标准</t>
-  </si>
-  <si>
-    <t>要有决策目标，决策方案可以实现目标，实现目标的成本低，没有副作用</t>
-  </si>
-  <si>
-    <t>手机专家预测结果，绘制图表分发给专家，进行对比和修改</t>
-  </si>
-  <si>
-    <t>科学决策的基本原则</t>
-  </si>
-  <si>
-    <t>客观性，信息性，程序性，选择性，可行性预测性，外脑性</t>
-  </si>
-  <si>
-    <t>手机修改后的结果，再次分发给专家，做二次修改</t>
-  </si>
-  <si>
-    <t>追踪决策的特征</t>
-  </si>
-  <si>
-    <t>回溯性，非零起点，双重优化，心灵效应</t>
-  </si>
-  <si>
-    <t>最后对专家的意见做综合评价</t>
-  </si>
-  <si>
-    <t>头脑风暴法必须遵循的原则</t>
-  </si>
-  <si>
-    <t>自由畅言，强调数量，禁止评论，相互借鉴</t>
-  </si>
-  <si>
-    <t>科学决策的程序</t>
-  </si>
-  <si>
-    <t>明确问题，确定目标，集思广益，拟定方案，分析评估，选择防范，实施方案，反馈修正</t>
-  </si>
-  <si>
-    <t>德尔菲法的实施步骤</t>
-  </si>
-  <si>
-    <t>决策树法的步骤</t>
-  </si>
-  <si>
-    <t>根据决策问题绘制决策树，计算概率值，计算收益指，提出最优方案</t>
-  </si>
-  <si>
-    <t>决策中枢系统为核心</t>
-  </si>
-  <si>
-    <t>决策信息性系统外围</t>
-  </si>
-  <si>
-    <t>决策中的领导者：</t>
-  </si>
-  <si>
-    <t>决策智囊系统两者之间</t>
-  </si>
-  <si>
-    <t>决策体质的内涵</t>
-  </si>
-  <si>
-    <t>承担决策的结构和人员组成的组织形式的体质</t>
-  </si>
-  <si>
-    <t>决策体质的构成</t>
-  </si>
-  <si>
-    <t>具有决策权的领导集团共同作出的决策</t>
-  </si>
-  <si>
-    <t>集体抉择含义</t>
-  </si>
-  <si>
-    <t>决策信息系统</t>
-  </si>
-  <si>
-    <t>个人决策的含义</t>
-  </si>
-  <si>
-    <t>具有决策权的个人作出的决策</t>
-  </si>
-  <si>
-    <t>危机决策的内涵</t>
-  </si>
-  <si>
-    <t>非程序化的决策，一般为从未见过的，难以决策的，环境变化无常的</t>
-  </si>
-  <si>
-    <t>现代决策体质系统</t>
-  </si>
-  <si>
-    <t>决策目标的指定</t>
-  </si>
-  <si>
-    <t>时效性</t>
-  </si>
-  <si>
-    <t>领导保证智囊团独立研究，不能干涉，只让智能团论证自己的正确性</t>
-  </si>
-  <si>
-    <t>领导者在决策活动中的主要职责</t>
-  </si>
-  <si>
-    <t>方案的指定</t>
-  </si>
-  <si>
-    <t>民主性</t>
-  </si>
-  <si>
-    <t>领导者不能被智囊团替换，不能让智囊团为领导者作出决定</t>
-  </si>
-  <si>
-    <t>集体决策需要注意的问题，对领导决策的基本要求</t>
-  </si>
-  <si>
-    <t>快速果断</t>
-  </si>
-  <si>
-    <t>方案的选择</t>
-  </si>
-  <si>
-    <t>灵活性</t>
-  </si>
-  <si>
-    <t>决策的问题进行科学预测</t>
-  </si>
-  <si>
-    <t>领导者与智囊团的关系</t>
-  </si>
-  <si>
-    <t>高效准确</t>
-  </si>
-  <si>
-    <t>方案的试试</t>
-  </si>
-  <si>
-    <t>系统性</t>
-  </si>
-  <si>
-    <t>觉得的方案进行设计和分析</t>
-  </si>
-  <si>
-    <t>领导者危机决策的基本要求</t>
-  </si>
-  <si>
-    <t>非程序性</t>
-  </si>
-  <si>
-    <t>合法性</t>
-  </si>
-  <si>
-    <t>觉得问题进行咨询</t>
-  </si>
-  <si>
-    <t>领导者在决策过程中发挥智囊团的作用</t>
-  </si>
-  <si>
-    <t>主动积极</t>
-  </si>
-  <si>
-    <t>决策实施情况进行反馈</t>
-  </si>
-  <si>
-    <t>领导者进行危机决策的方法</t>
-  </si>
-  <si>
-    <t>迅速果断</t>
-  </si>
-  <si>
-    <t>领导者科学决策的原则和方法</t>
-  </si>
-  <si>
-    <t>富有创意灵活</t>
-  </si>
-  <si>
-    <t>人才的特点</t>
-  </si>
-  <si>
-    <t>社会性</t>
-  </si>
-  <si>
-    <t>工作性质</t>
-  </si>
-  <si>
-    <t>理论</t>
-  </si>
-  <si>
-    <t>实践</t>
-  </si>
-  <si>
-    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
-  </si>
-  <si>
-    <t>人才的类型</t>
-  </si>
-  <si>
-    <t>专业性</t>
-  </si>
-  <si>
-    <t>自身素质</t>
-  </si>
-  <si>
-    <t>发现型</t>
-  </si>
-  <si>
-    <t>再现型</t>
-  </si>
-  <si>
-    <t>人才是事业之本，正确的选才，推动社会金币</t>
-  </si>
-  <si>
-    <t>衡量人才的标准</t>
-  </si>
-  <si>
-    <t>衡量是否属于人才的指标和准则</t>
-  </si>
-  <si>
-    <t>创造性</t>
-  </si>
-  <si>
-    <t>发挥作用不同</t>
-  </si>
-  <si>
-    <t>组织型</t>
-  </si>
-  <si>
-    <t>操作型</t>
-  </si>
-  <si>
-    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
-  </si>
-  <si>
-    <t>选材用人对于现代领导的重要意义</t>
-  </si>
-  <si>
-    <t>历史进步性</t>
-  </si>
-  <si>
-    <t>相对性</t>
-  </si>
-  <si>
-    <t>资历与能力的关系，避免论资排辈</t>
-  </si>
-  <si>
-    <t>选举制的含义</t>
-  </si>
-  <si>
-    <t>通过投票以选拔人才</t>
-  </si>
-  <si>
-    <t>察言观行相结合</t>
-  </si>
-  <si>
-    <t>知识分子与人才的关系，避免把两者等同起来</t>
-  </si>
-  <si>
-    <t>考选制的含义</t>
-  </si>
-  <si>
-    <t>通过考试选拔人才</t>
-  </si>
-  <si>
-    <t>考察历史和显示结合</t>
-  </si>
-  <si>
-    <t>学历和能力的关系，要实践与文化相结合</t>
-  </si>
-  <si>
-    <t>荐举制的含义</t>
-  </si>
-  <si>
-    <t>通过推荐选拔人才</t>
-  </si>
-  <si>
-    <t>发现人才的长处与短处</t>
-  </si>
-  <si>
-    <t>人才选拔的基本原则</t>
-  </si>
-  <si>
-    <t>群众评论</t>
-  </si>
-  <si>
-    <t>人才选拔的制度</t>
-  </si>
-  <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>考选</t>
-  </si>
-  <si>
-    <t>推荐</t>
-  </si>
-  <si>
-    <t>领导者在选拔人才时必须正确处理的关系</t>
-  </si>
-  <si>
-    <t>领导者选拔人才的原则和方法</t>
-  </si>
-  <si>
-    <t>选任制的含义</t>
-  </si>
-  <si>
-    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
-  </si>
-  <si>
-    <t>委任制的含义</t>
-  </si>
-  <si>
-    <t>有任免权的领导按人事制度授予一定职位的制度</t>
-  </si>
-  <si>
-    <t>聘任制的含义</t>
-  </si>
-  <si>
-    <t>通过签署合同的方式照片人才的一种制度</t>
-  </si>
-  <si>
-    <t>考核制度的含义</t>
-  </si>
-  <si>
-    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
-  </si>
-  <si>
-    <t>奖惩制度的含义</t>
-  </si>
-  <si>
-    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
-  </si>
-  <si>
-    <t>交流制度的含义</t>
-  </si>
-  <si>
-    <t>对于人才实行有计划的定期交流的一种制度</t>
-  </si>
-  <si>
-    <t>任期制度的含义</t>
-  </si>
-  <si>
-    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
-  </si>
-  <si>
-    <t>人才使用的基本原则</t>
-  </si>
-  <si>
-    <t>人才使用的主要制度</t>
-  </si>
-  <si>
-    <t>量才用人，只能相称</t>
-  </si>
-  <si>
-    <t>任免制度培养制度</t>
-  </si>
-  <si>
-    <t>领导者使用人才的基本原则和方法</t>
-  </si>
-  <si>
-    <t>扬长避短，各尽所能</t>
-  </si>
-  <si>
-    <t>考核制度奖惩制度</t>
-  </si>
-  <si>
-    <t>用人不疑，疑人不用</t>
-  </si>
-  <si>
-    <t>交流制度回避制度</t>
-  </si>
-  <si>
-    <t>合理搭配，整体效能</t>
-  </si>
-  <si>
-    <t>甚至制度辞职制度</t>
-  </si>
-  <si>
-    <t>五湖四海，宽以容才</t>
-  </si>
-  <si>
-    <t>任期制度，退休制度</t>
-  </si>
-  <si>
-    <t>合理流动，适材适所</t>
-  </si>
-  <si>
-    <t>爱护人才，关心帮助</t>
-  </si>
-  <si>
-    <t>重视培养，用养结合</t>
-  </si>
-  <si>
-    <t>思想政治工作的含义</t>
-  </si>
-  <si>
-    <t>思想工作就是人的工作，通过确立观念，立场，思想来提高工作效率</t>
-  </si>
-  <si>
-    <t>思想政治工作的对象</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>马克思主义基本理论</t>
-  </si>
-  <si>
-    <t>思想政治工作对领导工作的重要意义</t>
-  </si>
-  <si>
-    <t>领导者在领导工作中，提高人们的思想觉悟，调用积极性的一种手段</t>
-  </si>
-  <si>
-    <t>爱国主义教育</t>
-  </si>
-  <si>
-    <t>形式和任务教育</t>
-  </si>
-  <si>
-    <t>政治教育的含义</t>
-  </si>
-  <si>
-    <t>是指中国中国共产党基本路线和方正的教育，爱国主义教育，形势任务教育</t>
-  </si>
-  <si>
-    <t>民主与法治</t>
-  </si>
-  <si>
-    <t>公民素质教育的含义</t>
-  </si>
-  <si>
-    <t>思想</t>
-  </si>
-  <si>
-    <t>道德</t>
-  </si>
-  <si>
-    <t>法治</t>
-  </si>
-  <si>
-    <t>思想遇到的</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本内容</t>
-  </si>
-  <si>
-    <t>党的路线方正政策</t>
-  </si>
-  <si>
-    <t>政治教育的基本内容</t>
-  </si>
-  <si>
-    <t>爱国主义和社会主义教育</t>
-  </si>
-  <si>
-    <t>形式和任务的教育</t>
-  </si>
-  <si>
-    <t>基本路线政策与方针政策教育</t>
-  </si>
-  <si>
-    <t>公民素质教育的主要内容</t>
-  </si>
-  <si>
-    <t>说理教育法的含义</t>
-  </si>
-  <si>
-    <t>向思想教育对象，讲解有关理论和道理，以说理说服对方，转变思想的一种方式</t>
-  </si>
-  <si>
-    <t>情感交流法的含义</t>
-  </si>
-  <si>
-    <t>对教育对象，情感交流，以情感去感动对方，转变思想的一找那个方式</t>
-  </si>
-  <si>
-    <t>个别引导法的含义</t>
-  </si>
-  <si>
-    <t>对个别对象，采用各种方式，因时因地的各种方式进行思想教育工作</t>
-  </si>
-  <si>
-    <t>心里咨询法的含义</t>
-  </si>
-  <si>
-    <t>对对象用心理学的方法，认识到自己的的问题根源，挖掘潜力，提高自己的认知的一种方式</t>
-  </si>
-  <si>
-    <t>榜样示范法的含义</t>
-  </si>
-  <si>
-    <t>以先进人物的先进思想的一种方式来教育对方，提高对方思想觉悟的一种方式</t>
-  </si>
-  <si>
-    <t>自我教育法的含义</t>
-  </si>
-  <si>
-    <t>以自我学习，自我提高修养的一种方式不断完善自己的思想品德</t>
-  </si>
-  <si>
-    <t>思想政治工作的方针</t>
-  </si>
-  <si>
-    <t>坚持，疏导，疏通，引导</t>
-  </si>
-  <si>
-    <t>理论联系实际</t>
-  </si>
-  <si>
-    <t>疏导</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本原则</t>
-  </si>
-  <si>
-    <t>表扬和批评</t>
-  </si>
-  <si>
-    <t>疏通</t>
-  </si>
-  <si>
-    <t>集思广益，把心里话说出来</t>
-  </si>
-  <si>
-    <t>思想政治工作的方法</t>
-  </si>
-  <si>
-    <t>说理</t>
-  </si>
-  <si>
-    <t>精神奖励和物质奖励</t>
   </si>
   <si>
     <t>循循善诱，说服教育的方法，把不正确的思想引导正确的是想上</t>
@@ -2622,10 +2712,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2672,15 +2762,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2693,31 +2784,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2732,8 +2800,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2741,6 +2841,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2762,25 +2870,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2794,9 +2885,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2818,7 +2908,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2830,13 +2944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2854,43 +2962,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,7 +3010,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,7 +3046,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2932,49 +3076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,19 +3088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3009,6 +3099,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3023,6 +3122,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3051,30 +3176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3086,17 +3187,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3117,10 +3207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3129,133 +3219,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3631,8 +3721,8 @@
   <sheetPr/>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -3976,190 +4066,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>690</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -4184,246 +4274,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>740</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>742</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>744</v>
+        <v>774</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>745</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>753</v>
+        <v>783</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>756</v>
+        <v>786</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>757</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>761</v>
+        <v>791</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>766</v>
+        <v>796</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>769</v>
+        <v>799</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>775</v>
+        <v>805</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>777</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>778</v>
+        <v>808</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>781</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -4448,34 +4538,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>788</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>790</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>791</v>
+        <v>821</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>792</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>793</v>
+        <v>823</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>794</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4483,57 +4573,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>795</v>
+        <v>825</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>796</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>802</v>
+        <v>832</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>805</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>806</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4541,18 +4631,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>807</v>
+        <v>837</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>809</v>
+        <v>839</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -4577,206 +4667,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>812</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>822</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>824</v>
+        <v>854</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>829</v>
+        <v>859</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>833</v>
+        <v>863</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>834</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>841</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>842</v>
+        <v>872</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>843</v>
+        <v>873</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>845</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>846</v>
+        <v>876</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>847</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>848</v>
+        <v>878</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>849</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>851</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>852</v>
+        <v>882</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>856</v>
+        <v>886</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>858</v>
+        <v>888</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>862</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -5384,143 +5474,343 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" s="5" customFormat="1" spans="2:2">
+      <c r="B2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="5" s="5" customFormat="1" spans="2:2">
+      <c r="B5" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="6" s="5" customFormat="1" spans="2:2">
+      <c r="B6" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="7" s="5" customFormat="1" spans="2:2">
+      <c r="B7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="10" s="5" customFormat="1" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="11" s="5" customFormat="1" spans="2:2">
+      <c r="B11" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+    <row r="12" s="5" customFormat="1" spans="2:2">
+      <c r="B12" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="13" s="5" customFormat="1" spans="2:2">
+      <c r="B13" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="14" s="5" customFormat="1" spans="2:2">
+      <c r="B14" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="15" s="5" customFormat="1" spans="2:2">
+      <c r="B15" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+    <row r="17" s="5" customFormat="1" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="18" s="5" customFormat="1" spans="2:2">
+      <c r="B18" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="19" s="5" customFormat="1" spans="2:2">
+      <c r="B19" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+    <row r="20" s="5" customFormat="1" spans="2:2">
+      <c r="B20" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="22" s="5" customFormat="1" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="23" s="5" customFormat="1" spans="2:2">
+      <c r="B23" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+    <row r="24" s="5" customFormat="1" spans="2:2">
+      <c r="B24" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="25" s="5" customFormat="1" spans="2:2">
+      <c r="B25" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="27" s="5" customFormat="1" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="28" s="5" customFormat="1" spans="2:2">
+      <c r="B28" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="29" s="5" customFormat="1" spans="2:2">
+      <c r="B29" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="30" s="5" customFormat="1" spans="2:2">
+      <c r="B30" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="1" t="s">
+    <row r="32" s="5" customFormat="1" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="33" s="5" customFormat="1" spans="2:2">
+      <c r="B33" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="1" t="s">
+    <row r="34" s="5" customFormat="1" spans="3:3">
+      <c r="C34" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="36" s="5" customFormat="1" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="1" t="s">
+    <row r="37" s="5" customFormat="1" spans="2:2">
+      <c r="B37" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="38" s="5" customFormat="1" spans="2:2">
+      <c r="B38" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="1" t="s">
+    <row r="39" s="5" customFormat="1" spans="2:6">
+      <c r="B39" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="1" t="s">
+      <c r="D39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" s="5" customFormat="1" spans="4:6">
+      <c r="D40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" s="5" customFormat="1" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" s="5" customFormat="1" spans="2:6">
+      <c r="B42" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="1" t="s">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" s="5" customFormat="1" spans="6:6">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" s="5" customFormat="1" spans="1:6">
+      <c r="A44" s="5" t="s">
         <v>212</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" s="5" customFormat="1" spans="2:2">
+      <c r="B45" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" s="5" customFormat="1" spans="2:2">
+      <c r="B46" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" s="5" customFormat="1" spans="2:2">
+      <c r="B47" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" s="5" customFormat="1" spans="2:2">
+      <c r="B48" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" s="5" customFormat="1" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" s="5" customFormat="1" spans="2:2">
+      <c r="B51" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" s="5" customFormat="1" spans="2:2">
+      <c r="B52" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" s="5" customFormat="1" spans="2:2">
+      <c r="B53" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" s="5" customFormat="1" spans="2:2">
+      <c r="B54" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" s="5" customFormat="1" spans="2:2">
+      <c r="B55" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" s="5" customFormat="1" spans="2:2">
+      <c r="B56" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" s="5" customFormat="1" spans="1:1">
+      <c r="A58" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" s="5" customFormat="1" spans="2:2">
+      <c r="B59" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="2:2">
+      <c r="B60" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" s="5" customFormat="1" spans="2:2">
+      <c r="B61" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" s="5" customFormat="1" spans="2:2">
+      <c r="B62" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" s="5" customFormat="1" spans="2:2">
+      <c r="B63" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" s="5" customFormat="1" spans="2:2">
+      <c r="B64" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" s="5" customFormat="1" spans="1:1">
+      <c r="A66" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" s="5" customFormat="1" spans="2:2">
+      <c r="B67" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" s="5" customFormat="1" spans="2:2">
+      <c r="B68" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" s="5" customFormat="1" spans="1:1">
+      <c r="A70" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" s="5" customFormat="1" spans="2:2">
+      <c r="B71" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="2:2">
+      <c r="B72" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" s="5" customFormat="1" spans="1:1">
+      <c r="A74" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" s="5" customFormat="1" spans="2:2">
+      <c r="B75" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" s="5" customFormat="1" spans="2:2">
+      <c r="B76" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" s="5" customFormat="1" spans="2:2">
+      <c r="B77" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5546,118 +5836,118 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -5665,188 +5955,188 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="13:15">
       <c r="M17" s="1" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="6:15">
       <c r="F25" s="1" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" s="1" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5871,358 +6161,358 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6249,274 +6539,274 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6541,149 +6831,149 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -6691,90 +6981,90 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>181</v>
+        <v>537</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -6799,378 +7089,378 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -7195,67 +7485,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -7263,171 +7553,171 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690" tabRatio="902" activeTab="2"/>
+    <workbookView windowHeight="17020" tabRatio="902" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -754,250 +754,319 @@
     <t>领导观念的基本内涵</t>
   </si>
   <si>
-    <t>领导对领导活动中的规律性的本质认识和反应</t>
-  </si>
-  <si>
-    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
+    <t>领导者对领导活动过程及其规律性的本质认识或反应</t>
   </si>
   <si>
     <t>现代领导观念的基本特征</t>
   </si>
   <si>
-    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
-  </si>
-  <si>
-    <t>决定领导者的领导方式，影响成败</t>
+    <t>1.以【马列主义，毛泽东思想】和【中国特色社会主义理论】【为指导】，坚持【一切从实际出发】，具备坚定的，鲜明的【政治立场】</t>
+  </si>
+  <si>
+    <t>2.即要【继承优良传统】，又要【充分体现时代精神</t>
+  </si>
+  <si>
+    <t>既要【摒弃或改变】那些已经过时的，错误的，落后的，腐朽的【旧观念】又要【树立】符合时代需要的正确的，进步的【新观念】</t>
+  </si>
+  <si>
+    <t>3.既要有【中国民族特色】【立足本国与当前】又要【面相世界与未来】【适应建设中国特色社会主义任务的需要】</t>
   </si>
   <si>
     <t>领导观念的重要作用</t>
   </si>
   <si>
-    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
+    <t>领导观念【指导】【领导者的思维活动】，【制约】领导思维活动的【过程和结果】</t>
+  </si>
+  <si>
+    <t>领导观念【决定】【领导行为和领导方式】，【影响】领导活动的【成败】</t>
   </si>
   <si>
     <t>政治观念的基本内涵</t>
   </si>
   <si>
-    <t>坚持中国民族特色，建设中国特色社会主义</t>
-  </si>
-  <si>
-    <t>领导者对政治本质的认识和看法</t>
+    <t>是指【领导者对】国家，民族，阶级，政党，社会集团和社会势力等在国家生活和国际</t>
+  </si>
+  <si>
+    <t>【等方面的制度，政策，活动，作用及其相互关系】的【看法或意识】一句话，就是【领导者对政治现象和政治本质的意识和看法】。</t>
+  </si>
+  <si>
+    <t>领导者树立政治观念的必要性</t>
+  </si>
+  <si>
+    <t>发展社会主义【市场经济】需要与之相适应的政治观念</t>
+  </si>
+  <si>
+    <t>全面贯彻执行【党的基本路线】需要正确的政治观念</t>
+  </si>
+  <si>
+    <t>【密切党群干群关系】需要树立清醒的政治观念</t>
+  </si>
+  <si>
+    <t>坚持执【政党的性质和宗旨】需要梳理正确的政治观念</t>
+  </si>
+  <si>
+    <t>做好【对外工作】，有效抵制和平演变，需要坚定的政治观念</t>
+  </si>
+  <si>
+    <t>领导者树立正确的政治观念的基本要求</t>
+  </si>
+  <si>
+    <t>坚持【正确的政治方向】，坚定不移地走【中国特色社会主义道路】，为【最终】【实现共产主义】而努力奋斗</t>
+  </si>
+  <si>
+    <t>坚持【正确的政治立场】，坚定地【站在工人阶级，人民大众的立场上】，甘当人民公仆，为人民掌好权，用好权，【真心实意为人民谋利益】</t>
+  </si>
+  <si>
+    <t>坚持【正确的政治观点】，自觉地【运用马列主义，毛泽东思想和中国特色社会主义理论】武装自己的头脑，【用科学发展观与和谐社会理论】【统领党和国家各项工作的全局】</t>
+  </si>
+  <si>
+    <t>坚持【严格的政治纪律】，保持敏锐的政治鉴别力和政治敏感性</t>
   </si>
   <si>
     <t>人本观念的基本内涵</t>
   </si>
   <si>
-    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
+    <t>十六届三中全在《中共中央关于完善社会主义市场经济体质诺干问题的决定》</t>
+  </si>
+  <si>
+    <t>坚持以人为本，树立全面协调，可持续的发展观，促进经济社会和人的全面发展</t>
+  </si>
+  <si>
+    <t>胡锦涛在2004年3月10日中央人口资源环境工作座谈会上</t>
+  </si>
+  <si>
+    <t>坚持以人为本，就是要以实现人的全面发展为目标，</t>
+  </si>
+  <si>
+    <t>从人民群众的根本利益出发谋发展，促发展，不断满足人民群众日益增长的物质文化需要，</t>
+  </si>
+  <si>
+    <t>切实保障任命群众的经济，政治和文化权益，让发展的成果惠及全体人民</t>
+  </si>
+  <si>
+    <t>2006年4月胡景涛在美国耶鲁大学指出</t>
+  </si>
+  <si>
+    <t>坚持以人为本，就是发展为了人民，发展依靠人民，发展成果由人民共享，</t>
+  </si>
+  <si>
+    <t>关注人的价值，权益和自由，关注人的生活质量，发展潜能，幸福指数，</t>
+  </si>
+  <si>
+    <t>最终为了实现人的全面发展</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的必要性</t>
+  </si>
+  <si>
+    <t>坚持以人为本是由【领导工作中】的【主要矛盾决定的】</t>
+  </si>
+  <si>
+    <t>坚持以人为本是【社会主义社会】【对领导者】的【本质要求】</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的基本要求</t>
+  </si>
+  <si>
+    <t>强化【为人民服务的理念】</t>
+  </si>
+  <si>
+    <t>坚定【先人后事的立场】</t>
+  </si>
+  <si>
+    <t>坚持【依靠关键人才的原则】</t>
+  </si>
+  <si>
+    <t>树立【人尽其才的观念】</t>
+  </si>
+  <si>
+    <t>鼓励【人才竞争的意识】</t>
+  </si>
+  <si>
+    <t>倡导【人文关怀】</t>
   </si>
   <si>
     <t>权力观念的基本内涵</t>
   </si>
   <si>
-    <t>把个人意志强加在其他人行为上的能力</t>
-  </si>
-  <si>
-    <t>市场经济的需要</t>
-  </si>
-  <si>
-    <t>领导工作中主要矛盾决定的</t>
+    <t>领导者对权利的来源，性质，内容及行使等方面的系统认识或根本看法，态度，是领导干部世界观，人生观，价值关的重要体现。</t>
+  </si>
+  <si>
+    <t>由两种权利观</t>
+  </si>
+  <si>
+    <t>1.为任命服务的权力观</t>
+  </si>
+  <si>
+    <t>2.利用手中的权利谋取个人或小集团利益的权力观</t>
+  </si>
+  <si>
+    <t>领导者树立正确的权利观念的基本要求</t>
+  </si>
+  <si>
+    <t>对【权力内容】的【正确认识】</t>
+  </si>
+  <si>
+    <t>对【权力来源】和性质的【正确认识】</t>
+  </si>
+  <si>
+    <t>对【权力行使】原则的【正确认识】</t>
+  </si>
+  <si>
+    <t>对【权责关系】的【正确认识】</t>
+  </si>
+  <si>
+    <t>对【用权监督】的【正确认识】</t>
   </si>
   <si>
     <t>法制观念的基本内涵</t>
   </si>
   <si>
-    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
-  </si>
-  <si>
-    <t>党的基本路线</t>
-  </si>
-  <si>
-    <t>社会主义社会对领导的本质要求决定的</t>
+    <t>人们对国家法律制度的性质，地位，作用等问题行程的认识和态度</t>
+  </si>
+  <si>
+    <t>领导者的法制观念</t>
+  </si>
+  <si>
+    <t>是指领导者围绕领导权利和领导只能所形成的依法用权，依法领导的思维方式和思想意识，</t>
+  </si>
+  <si>
+    <t>实质是对法律精神和法制价值在领导观念上的认同和贯彻，</t>
+  </si>
+  <si>
+    <t>表现为在领导活动中对宪法和法律的信仰与遵从，对民意的尊重与服从，对权利的敬畏与慎重</t>
+  </si>
+  <si>
+    <t>社会主义法制理念（胡锦涛）</t>
+  </si>
+  <si>
+    <t>依法治国（核心内容）</t>
+  </si>
+  <si>
+    <t>执法为民（本质要求）</t>
+  </si>
+  <si>
+    <t>公平正义（价值追求）</t>
+  </si>
+  <si>
+    <t>服务大局（重要使命）</t>
+  </si>
+  <si>
+    <t>党的领导（根本保证）</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的必要性</t>
+  </si>
+  <si>
+    <t>树立并增强法治观念是【贯彻】【依法治国】的【前提条件】</t>
+  </si>
+  <si>
+    <t>树立并增强法治观念是【切实】【依法行政】的【首要条件】</t>
+  </si>
+  <si>
+    <t>树立并增强法制观念是【建设】【法治政府】的【必要条件】</t>
+  </si>
+  <si>
+    <t>树立并增强法治观念是【保障人权】的【需要】</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的基本要求</t>
+  </si>
+  <si>
+    <t>自觉【维护宪法】和【法律的权威】，树立【法律至上】的观念</t>
+  </si>
+  <si>
+    <t>自觉【抵制】【特权思想】，树立法律面前【人人平等】的观念</t>
+  </si>
+  <si>
+    <t>自觉【维护】【人民合法权益】，树立【人权保障】的观念</t>
+  </si>
+  <si>
+    <t>自觉【坚持】【依法领导】，树立【依法用权】的观念</t>
   </si>
   <si>
     <t>市场经济观念的基本内涵</t>
   </si>
   <si>
-    <t>领导者对市场经济的认识</t>
-  </si>
-  <si>
-    <t>密切党群关系的需要</t>
+    <t>是指【领导者】对【市场经济要有正确的】，深刻的，【全面的认识】</t>
+  </si>
+  <si>
+    <t>领导者树立现代市场经济观念的基本要求</t>
+  </si>
+  <si>
+    <t>【认清】建立社会主义【市场经济体制】的【客观必然性】</t>
+  </si>
+  <si>
+    <t>【熟悉】市场经济运行的【基本规律】，【了解】市场经济自身【无法克服的缺陷】</t>
+  </si>
+  <si>
+    <t>【明确】社会主义【市场经济体制的特性】</t>
+  </si>
+  <si>
+    <t>【明确】【完善】社会主义【市场经济体制】的【目标和任务】</t>
   </si>
   <si>
     <t>改革创新观念的基本内涵</t>
   </si>
   <si>
-    <t>对改革创新的总体认识和看法</t>
-  </si>
-  <si>
-    <t>坚持党性质和宗旨的需要</t>
-  </si>
-  <si>
-    <t>权力是领导者执行领导活动的基本和前提</t>
-  </si>
-  <si>
-    <t>对政治本质的认识和看法</t>
-  </si>
-  <si>
-    <t>对外工作的需要</t>
-  </si>
-  <si>
-    <t>没有权力领导者无法完成使命</t>
-  </si>
-  <si>
-    <t>领导者树立政治观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法治国的前提条件</t>
-  </si>
-  <si>
-    <t>科学发展</t>
-  </si>
-  <si>
-    <t>必须要有决策权和用人权</t>
-  </si>
-  <si>
-    <t>领导者树立人本观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法行政的首要条件</t>
-  </si>
-  <si>
-    <t>时代变化的要求</t>
-  </si>
-  <si>
-    <t>领导者树立权力观念的必要性</t>
-  </si>
-  <si>
-    <t>是依法政府必要条件</t>
-  </si>
-  <si>
-    <t>社会主义现代化建设的要求</t>
-  </si>
-  <si>
-    <t>领导者树立法治观念的必要性</t>
-  </si>
-  <si>
-    <t>保障人权的需要</t>
-  </si>
-  <si>
-    <t>保障事业发展的要求</t>
-  </si>
-  <si>
-    <t>为人民服务</t>
-  </si>
-  <si>
-    <t>权力内容</t>
+    <t>人们对【改革创新】的【总体看法和基本观点】</t>
+  </si>
+  <si>
+    <t>包括【什么是改革创新】【为何改革创新】【为谁改革创新】【怎样改革创新】【如何评价改革创新】</t>
   </si>
   <si>
     <t>领导者树立改革创新观念的必要性</t>
   </si>
   <si>
-    <t>先人后事</t>
-  </si>
-  <si>
-    <t>权力来源</t>
-  </si>
-  <si>
-    <t>坚持人才原则</t>
-  </si>
-  <si>
-    <t>权责关系的</t>
-  </si>
-  <si>
-    <t>领导者树立正确的政治观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治方向，最终实现共产主义</t>
-  </si>
-  <si>
-    <t>人尽其才</t>
-  </si>
-  <si>
-    <t>权力监督</t>
-  </si>
-  <si>
-    <t>领导者树立人本观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治立场，为人民服务</t>
-  </si>
-  <si>
-    <t>人才竞争</t>
-  </si>
-  <si>
-    <t>权力行使的</t>
-  </si>
-  <si>
-    <t>领导者树立正确的权利观念的基本要求</t>
-  </si>
-  <si>
-    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
-  </si>
-  <si>
-    <t>人文关怀</t>
-  </si>
-  <si>
-    <t>领导者树立法治观念的基本要求</t>
-  </si>
-  <si>
-    <t>领导者树立现代市场经济观念的基本要求</t>
-  </si>
-  <si>
-    <t>法律至上</t>
-  </si>
-  <si>
-    <t>人情了解市场经济体制的必然性</t>
-  </si>
-  <si>
-    <t>要认识改革创新的性质和目的</t>
-  </si>
-  <si>
-    <t>什么是政绩</t>
+    <t>树立改革创新观念是【践行科学发展观】的【必然要求】</t>
+  </si>
+  <si>
+    <t>树立改革创新观念是【应付时代变革】的【客观要求】</t>
+  </si>
+  <si>
+    <t>树立改革创新观念是【社会主义现代化建设】的【迫切要求】</t>
+  </si>
+  <si>
+    <t>树立改革创新观念是【保证领导事业发展】的【不竭动力】</t>
+  </si>
+  <si>
+    <t>领导者树立改革创新观念的基本要求</t>
+  </si>
+  <si>
+    <t>【认识】改革创新的【性质和目的】</t>
+  </si>
+  <si>
+    <t>【明确】改革创新的【价值和作用】</t>
+  </si>
+  <si>
+    <t>【坚定】改革创新的【立场和方向】</t>
+  </si>
+  <si>
+    <t>【始终保持】【解放思想，与时俱进】的【精神状态和思维方式】</t>
+  </si>
+  <si>
+    <t>【善于】【选择合理】的【改革策略和方法】</t>
+  </si>
+  <si>
+    <t>就是对领导干部或党政机关施政作为【取得的成绩】形成的【总体看法和基本观点】什么是政绩，谁创造政绩，怎么创造政绩，如何衡量政绩等问题的基本观点</t>
+  </si>
+  <si>
+    <t>领导者树立科学的政绩观念的基本要求</t>
+  </si>
+  <si>
+    <t>明确什么是政绩</t>
+  </si>
+  <si>
+    <t>明确为了谁创造政绩</t>
+  </si>
+  <si>
+    <t>明确看待政绩的标准</t>
+  </si>
+  <si>
+    <t>明确怎样创造政绩</t>
   </si>
   <si>
     <t>领导者树立科学的改革创新观念的基本要求</t>
-  </si>
-  <si>
-    <t>人人平等</t>
-  </si>
-  <si>
-    <t>了解基本规律</t>
-  </si>
-  <si>
-    <t>要明确改革创新的价值</t>
-  </si>
-  <si>
-    <t>为谁创政绩</t>
-  </si>
-  <si>
-    <t>领导者树立科学的政绩观念的基本要求</t>
-  </si>
-  <si>
-    <t>人权保障</t>
-  </si>
-  <si>
-    <t>了解特征</t>
-  </si>
-  <si>
-    <t>坚持改革创新的立场</t>
-  </si>
-  <si>
-    <t>标准</t>
-  </si>
-  <si>
-    <t>依法用权</t>
-  </si>
-  <si>
-    <t>完善目标</t>
-  </si>
-  <si>
-    <t>保持解放思想的思维方式</t>
-  </si>
-  <si>
-    <t>怎么创造政绩</t>
-  </si>
-  <si>
-    <t>选择合理的改革方式</t>
   </si>
   <si>
     <t>决策及其在领导工作中的地位：</t>
@@ -2712,10 +2781,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2756,7 +2825,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2771,7 +2847,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2785,7 +2901,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2794,7 +2910,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2808,9 +2924,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2824,16 +2939,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2853,51 +2967,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2905,6 +2974,180 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2918,180 +3161,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3099,6 +3168,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3152,15 +3230,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3172,6 +3241,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3190,162 +3268,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3374,54 +3443,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3717,7 +3786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C74"/>
   <sheetViews>
@@ -3725,7 +3794,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -4044,14 +4113,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -4059,197 +4128,197 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>722</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>723</v>
+        <v>746</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>724</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>725</v>
+        <v>748</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>728</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>733</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>739</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -4267,253 +4336,253 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>758</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>767</v>
+        <v>790</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>772</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>773</v>
+        <v>796</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>799</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>778</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>802</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>780</v>
+        <v>803</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>781</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>783</v>
+        <v>806</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>790</v>
+        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>791</v>
+        <v>814</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>792</v>
+        <v>815</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>795</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>797</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>802</v>
+        <v>825</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -4523,7 +4592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -4531,41 +4600,41 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4573,57 +4642,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4631,18 +4700,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -4652,7 +4721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -4660,213 +4729,213 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>852</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>888</v>
+        <v>911</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -4876,7 +4945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C139"/>
   <sheetViews>
@@ -4884,7 +4953,7 @@
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -5465,22 +5534,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -5814,330 +5883,788 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="M6" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="J9" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="M9" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J10" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M10" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I12" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M12" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I13" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I14" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F15" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="I15" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="M15" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="O15" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="M16" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="O16" s="1" t="s">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="13:15">
-      <c r="M17" s="1" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="O17" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="3" t="s">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="M18" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="O18" s="1" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="O19" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F20" s="1" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="M20" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="3" t="s">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F22" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H22" s="1" t="s">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="L22" s="1" t="s">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="O22" s="1" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="1" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L23" s="1" t="s">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="O23" s="1" t="s">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="3" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="H24" s="1" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L24" s="1" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="O24" s="1" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="6:15">
-      <c r="F25" s="1" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="L25" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="12:12">
-      <c r="L26" s="1" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5" t="s">
         <v>323</v>
       </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6146,7 +6673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -6154,365 +6681,365 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -6522,7 +7049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -6530,7 +7057,7 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
@@ -6539,274 +7066,274 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -6816,7 +7343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -6824,156 +7351,156 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -6981,90 +7508,90 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -7074,7 +7601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
@@ -7082,385 +7609,385 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -7470,7 +7997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -7478,74 +8005,74 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -7553,171 +8080,171 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>692</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>693</v>
+        <v>716</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>694</v>
+        <v>717</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>695</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB44D1A-F768-4CC6-9697-C35322B9BC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17020" tabRatio="900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1078,66 +1072,300 @@
     <t>决策的含义</t>
   </si>
   <si>
+    <t>一般含义就是【做出决定】【是选择对策的决定】</t>
+  </si>
+  <si>
     <t>决策的构成要素</t>
   </si>
   <si>
+    <t>决策者</t>
+  </si>
+  <si>
+    <t>决策目标</t>
+  </si>
+  <si>
+    <t>决策备选方案</t>
+  </si>
+  <si>
+    <t>决策环境</t>
+  </si>
+  <si>
+    <t>决策后果</t>
+  </si>
+  <si>
     <t>决策的基本特征</t>
   </si>
   <si>
+    <t>针对性，为了解决一定问题的决定</t>
+  </si>
+  <si>
     <t>目的性</t>
   </si>
   <si>
+    <t>实施性</t>
+  </si>
+  <si>
+    <t>选择性</t>
+  </si>
+  <si>
+    <t>优化性</t>
+  </si>
+  <si>
     <t>经验决策特点</t>
   </si>
   <si>
+    <t>是【个人决策活动】，主要【依靠】【决策者个人的素质】做出决策</t>
+  </si>
+  <si>
+    <t>这种决策方式本质上讲是以决策者的经验为基础，所能处理的信息量有限</t>
+  </si>
+  <si>
     <t>科学决策的特点</t>
   </si>
   <si>
+    <t>注重共同决策，依靠各种智囊团组织，共同完成某个决策</t>
+  </si>
+  <si>
+    <t>强调将决策建立在科学分析的基础上，运用技术方法，定性定量确保正确性和可靠性</t>
+  </si>
+  <si>
     <t>决策的分类</t>
   </si>
   <si>
+    <t>高层，中层，基层决策</t>
+  </si>
+  <si>
+    <t>战略决策，战术决策</t>
+  </si>
+  <si>
+    <t>最优决策和满意决策</t>
+  </si>
+  <si>
+    <t>程序化决策，非程序化决策</t>
+  </si>
+  <si>
+    <t>确定型决策，不确定型决策，风险型决策</t>
+  </si>
+  <si>
     <t>决策的模式</t>
   </si>
   <si>
+    <t>理性决策模式</t>
+  </si>
+  <si>
+    <t>渐进决策模式</t>
+  </si>
+  <si>
+    <t>综合决策模式</t>
+  </si>
+  <si>
+    <t>科学决策的原则</t>
+  </si>
+  <si>
+    <t>具有准确的决策目标</t>
+  </si>
+  <si>
+    <t>决策的执行结果能够实现确定的目标</t>
+  </si>
+  <si>
+    <t>实现决策目标所付出的代价要小</t>
+  </si>
+  <si>
+    <t>决策执行后的副作用相对较小</t>
+  </si>
+  <si>
+    <t>科学决策必须遵循的基本原则</t>
+  </si>
+  <si>
+    <t>客观原则</t>
+  </si>
+  <si>
+    <t>信息原则</t>
+  </si>
+  <si>
+    <t>预测原则</t>
+  </si>
+  <si>
+    <t>程序原则</t>
+  </si>
+  <si>
+    <t>可行原则</t>
+  </si>
+  <si>
+    <t>选优原则</t>
+  </si>
+  <si>
+    <t>外脑原则</t>
+  </si>
+  <si>
+    <t>科学的决策程序主要包括四个环节</t>
+  </si>
+  <si>
+    <t>明确问题，确立目标</t>
+  </si>
+  <si>
+    <t>集思广益，拟定方案</t>
+  </si>
+  <si>
+    <t>分析评估，选择方案</t>
+  </si>
+  <si>
+    <t>实施方案，反馈修正</t>
+  </si>
+  <si>
+    <t>实施方案，反馈修正应做好几方面工作</t>
+  </si>
+  <si>
+    <t>编制实施计划，把决策具体化</t>
+  </si>
+  <si>
+    <t>组织实施力量</t>
+  </si>
+  <si>
+    <t>落实实施责任，简历严格的责任制</t>
+  </si>
+  <si>
+    <t>建立反馈系统，及时检查发现决策方案实施中的问题</t>
+  </si>
+  <si>
+    <t>追踪决策</t>
+  </si>
+  <si>
+    <t>回溯分析</t>
+  </si>
+  <si>
+    <t>非零起点</t>
+  </si>
+  <si>
+    <t>双重优化</t>
+  </si>
+  <si>
+    <t>心理效应</t>
+  </si>
+  <si>
+    <t>科学决策的方法</t>
+  </si>
+  <si>
+    <t>德尔菲法</t>
+  </si>
+  <si>
+    <t>头脑风暴，依靠一定数量的专家的创造性逻辑思维对决策对象未来的发展趋势及其状况做出集体判断的方法</t>
+  </si>
+  <si>
+    <t>决策树法</t>
+  </si>
+  <si>
+    <t>实验决策法，针对一些【新出现而且重要的问题】，在【没有经验，不能确切评价各备选方案】，【无法对方案进行最优抉择】的情况下采用的方案</t>
+  </si>
+  <si>
     <t>德尔菲法特点</t>
   </si>
   <si>
-    <t>头脑风暴法的含义</t>
-  </si>
-  <si>
-    <t>试验决策法的含义</t>
-  </si>
-  <si>
-    <t>科学决策的基本标准</t>
-  </si>
-  <si>
-    <t>科学决策的基本原则</t>
-  </si>
-  <si>
-    <t>追踪决策的特征</t>
+    <t>匿名性</t>
+  </si>
+  <si>
+    <t>多伦反馈性</t>
+  </si>
+  <si>
+    <t>最终结论的统一性</t>
+  </si>
+  <si>
+    <t>德尔菲法的具体步骤</t>
+  </si>
+  <si>
+    <t>组成专家小组</t>
+  </si>
+  <si>
+    <t>向所有专家所要预测的问题及有关要求，附上所有背景材料，询问专家，其他相关要求，由专家做出书面答复</t>
+  </si>
+  <si>
+    <t>各个专家根据他们所收集的材料提出自己的预测意见，并说明自己是怎样利用这些材料提出预测值</t>
+  </si>
+  <si>
+    <t>将各位专家第一次判断意见汇总，裂成图表，进行对比，再次分发给各位专家，让专家比较自己同他人的不同意见，修改自己的意见和判断</t>
+  </si>
+  <si>
+    <t>将所有专家的修改意见收集起来汇总，再次分发给各位专家，以便做第二次修改。</t>
+  </si>
+  <si>
+    <t>对专家意见进行综合处理</t>
   </si>
   <si>
     <t>头脑风暴法必须遵循的原则</t>
   </si>
   <si>
-    <t>科学决策的程序</t>
-  </si>
-  <si>
-    <t>德尔菲法的实施步骤</t>
+    <t>自由畅言</t>
+  </si>
+  <si>
+    <t>强调数量</t>
+  </si>
+  <si>
+    <t>禁止评论</t>
+  </si>
+  <si>
+    <t>相互借鉴</t>
   </si>
   <si>
     <t>决策树法的步骤</t>
   </si>
   <si>
-    <t>决策中的领导者：</t>
+    <t>【根据决策问题】【绘制决策树】</t>
+  </si>
+  <si>
+    <t>【计算】概率分支的【概率值】</t>
+  </si>
+  <si>
+    <t>【计算】各概率点的【收益期望值】，【确定最优方案】</t>
   </si>
   <si>
     <t>决策体质的内涵</t>
   </si>
   <si>
+    <t>决策体制是由【承担决策的机构和人员】所【组成的组织体系】，是决策活动得以进行的组织形式</t>
+  </si>
+  <si>
     <t>决策体质的构成</t>
   </si>
   <si>
+    <t>以【决策中枢系统】为【核心】，以【决策的信息系统】居【外围】，【决策的智囊系统】居【二者之间】的组织结构形式</t>
+  </si>
+  <si>
+    <t>现代智囊系统具有的特点</t>
+  </si>
+  <si>
+    <t>集体性</t>
+  </si>
+  <si>
+    <t>科学性</t>
+  </si>
+  <si>
+    <t>相对独立性</t>
+  </si>
+  <si>
+    <t>领导者在决策活动中的主要职责</t>
+  </si>
+  <si>
+    <t>考虑决策【目标的确立】</t>
+  </si>
+  <si>
+    <t>组织决策【方案的制订】</t>
+  </si>
+  <si>
+    <t>负责决策【方案的抉择】</t>
+  </si>
+  <si>
+    <t>领导决策【方案的实施】</t>
+  </si>
+  <si>
+    <t>领导者决策方式的选择</t>
+  </si>
+  <si>
+    <t>集体抉择，是由决策权的领导集体共同作出抉择的一种方式</t>
+  </si>
+  <si>
+    <t>个人决策，是由有决策权的个人做出抉择的一种方式</t>
+  </si>
+  <si>
     <t>集体抉择含义</t>
   </si>
   <si>
@@ -1150,444 +1378,441 @@
     <t>现代决策体质系统</t>
   </si>
   <si>
-    <t>领导者在决策活动中的主要职责</t>
-  </si>
-  <si>
     <t>集体决策需要注意的问题，对领导决策的基本要求</t>
   </si>
   <si>
     <t>领导者与智囊团的关系</t>
   </si>
   <si>
+    <t>领导者危机决策的基本要求</t>
+  </si>
+  <si>
+    <t>领导者在决策过程中发挥智囊团的作用</t>
+  </si>
+  <si>
+    <t>领导者进行危机决策的方法</t>
+  </si>
+  <si>
+    <t>领导者科学决策的原则和方法</t>
+  </si>
+  <si>
+    <t>人才的特点</t>
+  </si>
+  <si>
+    <t>社会性</t>
+  </si>
+  <si>
+    <t>工作性质</t>
+  </si>
+  <si>
+    <t>理论</t>
+  </si>
+  <si>
+    <t>实践</t>
+  </si>
+  <si>
+    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
+  </si>
+  <si>
+    <t>人才的类型</t>
+  </si>
+  <si>
+    <t>专业性</t>
+  </si>
+  <si>
+    <t>自身素质</t>
+  </si>
+  <si>
+    <t>发现型</t>
+  </si>
+  <si>
+    <t>再现型</t>
+  </si>
+  <si>
+    <t>人才是事业之本，正确的选才，推动社会金币</t>
+  </si>
+  <si>
+    <t>衡量人才的标准</t>
+  </si>
+  <si>
+    <t>衡量是否属于人才的指标和准则</t>
+  </si>
+  <si>
+    <t>创造性</t>
+  </si>
+  <si>
+    <t>发挥作用不同</t>
+  </si>
+  <si>
+    <t>组织型</t>
+  </si>
+  <si>
+    <t>操作型</t>
+  </si>
+  <si>
+    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
+  </si>
+  <si>
+    <t>选材用人对于现代领导的重要意义</t>
+  </si>
+  <si>
+    <t>历史进步性</t>
+  </si>
+  <si>
+    <t>相对性</t>
+  </si>
+  <si>
+    <t>资历与能力的关系，避免论资排辈</t>
+  </si>
+  <si>
+    <t>选举制的含义</t>
+  </si>
+  <si>
+    <t>通过投票以选拔人才</t>
+  </si>
+  <si>
+    <t>察言观行相结合</t>
+  </si>
+  <si>
+    <t>知识分子与人才的关系，避免把两者等同起来</t>
+  </si>
+  <si>
+    <t>考选制的含义</t>
+  </si>
+  <si>
+    <t>通过考试选拔人才</t>
+  </si>
+  <si>
+    <t>考察历史和显示结合</t>
+  </si>
+  <si>
+    <t>学历和能力的关系，要实践与文化相结合</t>
+  </si>
+  <si>
+    <t>荐举制的含义</t>
+  </si>
+  <si>
+    <t>通过推荐选拔人才</t>
+  </si>
+  <si>
+    <t>发现人才的长处与短处</t>
+  </si>
+  <si>
+    <t>人才选拔的基本原则</t>
+  </si>
+  <si>
+    <t>群众评论</t>
+  </si>
+  <si>
+    <t>人才选拔的制度</t>
+  </si>
+  <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>考选</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>领导者在选拔人才时必须正确处理的关系</t>
+  </si>
+  <si>
+    <t>领导者选拔人才的原则和方法</t>
+  </si>
+  <si>
+    <t>选任制的含义</t>
+  </si>
+  <si>
+    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
+  </si>
+  <si>
+    <t>委任制的含义</t>
+  </si>
+  <si>
+    <t>有任免权的领导按人事制度授予一定职位的制度</t>
+  </si>
+  <si>
+    <t>聘任制的含义</t>
+  </si>
+  <si>
+    <t>通过签署合同的方式照片人才的一种制度</t>
+  </si>
+  <si>
+    <t>考核制度的含义</t>
+  </si>
+  <si>
+    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
+  </si>
+  <si>
+    <t>奖惩制度的含义</t>
+  </si>
+  <si>
+    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
+  </si>
+  <si>
+    <t>交流制度的含义</t>
+  </si>
+  <si>
+    <t>对于人才实行有计划的定期交流的一种制度</t>
+  </si>
+  <si>
+    <t>任期制度的含义</t>
+  </si>
+  <si>
+    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
+  </si>
+  <si>
+    <t>人才使用的基本原则</t>
+  </si>
+  <si>
+    <t>人才使用的主要制度</t>
+  </si>
+  <si>
+    <t>量才用人，只能相称</t>
+  </si>
+  <si>
+    <t>任免制度培养制度</t>
+  </si>
+  <si>
+    <t>领导者使用人才的基本原则和方法</t>
+  </si>
+  <si>
+    <t>扬长避短，各尽所能</t>
+  </si>
+  <si>
+    <t>考核制度奖惩制度</t>
+  </si>
+  <si>
+    <t>用人不疑，疑人不用</t>
+  </si>
+  <si>
+    <t>交流制度回避制度</t>
+  </si>
+  <si>
+    <t>合理搭配，整体效能</t>
+  </si>
+  <si>
+    <t>甚至制度辞职制度</t>
+  </si>
+  <si>
+    <t>五湖四海，宽以容才</t>
+  </si>
+  <si>
+    <t>任期制度，退休制度</t>
+  </si>
+  <si>
+    <t>合理流动，适材适所</t>
+  </si>
+  <si>
+    <t>爱护人才，关心帮助</t>
+  </si>
+  <si>
+    <t>重视培养，用养结合</t>
+  </si>
+  <si>
+    <t>思想政治工作的含义</t>
+  </si>
+  <si>
+    <t>思想工作就是人的工作，通过确立观念，立场，思想来提高工作效率</t>
+  </si>
+  <si>
+    <t>思想政治工作的对象</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>马克思主义基本理论</t>
+  </si>
+  <si>
+    <t>思想政治工作对领导工作的重要意义</t>
+  </si>
+  <si>
+    <t>领导者在领导工作中，提高人们的思想觉悟，调用积极性的一种手段</t>
+  </si>
+  <si>
+    <t>爱国主义教育</t>
+  </si>
+  <si>
+    <t>形式和任务教育</t>
+  </si>
+  <si>
+    <t>政治教育的含义</t>
+  </si>
+  <si>
+    <t>是指中国中国共产党基本路线和方正的教育，爱国主义教育，形势任务教育</t>
+  </si>
+  <si>
+    <t>民主与法治</t>
+  </si>
+  <si>
+    <t>公民素质教育的含义</t>
+  </si>
+  <si>
+    <t>思想</t>
+  </si>
+  <si>
+    <t>道德</t>
+  </si>
+  <si>
+    <t>法治</t>
+  </si>
+  <si>
+    <t>思想遇到的</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本内容</t>
+  </si>
+  <si>
+    <t>党的路线方正政策</t>
+  </si>
+  <si>
+    <t>政治教育的基本内容</t>
+  </si>
+  <si>
+    <t>爱国主义和社会主义教育</t>
+  </si>
+  <si>
+    <t>形式和任务的教育</t>
+  </si>
+  <si>
+    <t>基本路线政策与方针政策教育</t>
+  </si>
+  <si>
+    <t>公民素质教育的主要内容</t>
+  </si>
+  <si>
+    <t>说理教育法的含义</t>
+  </si>
+  <si>
+    <t>向思想教育对象，讲解有关理论和道理，以说理说服对方，转变思想的一种方式</t>
+  </si>
+  <si>
+    <t>情感交流法的含义</t>
+  </si>
+  <si>
+    <t>对教育对象，情感交流，以情感去感动对方，转变思想的一找那个方式</t>
+  </si>
+  <si>
+    <t>个别引导法的含义</t>
+  </si>
+  <si>
+    <t>对个别对象，采用各种方式，因时因地的各种方式进行思想教育工作</t>
+  </si>
+  <si>
+    <t>心里咨询法的含义</t>
+  </si>
+  <si>
+    <t>对对象用心理学的方法，认识到自己的的问题根源，挖掘潜力，提高自己的认知的一种方式</t>
+  </si>
+  <si>
+    <t>榜样示范法的含义</t>
+  </si>
+  <si>
+    <t>以先进人物的先进思想的一种方式来教育对方，提高对方思想觉悟的一种方式</t>
+  </si>
+  <si>
+    <t>自我教育法的含义</t>
+  </si>
+  <si>
+    <t>以自我学习，自我提高修养的一种方式不断完善自己的思想品德</t>
+  </si>
+  <si>
+    <t>思想政治工作的方针</t>
+  </si>
+  <si>
+    <t>坚持，疏导，疏通，引导</t>
+  </si>
+  <si>
+    <t>理论联系实际</t>
+  </si>
+  <si>
+    <t>疏导</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本原则</t>
+  </si>
+  <si>
+    <t>表扬和批评</t>
+  </si>
+  <si>
+    <t>疏通</t>
+  </si>
+  <si>
+    <t>集思广益，把心里话说出来</t>
+  </si>
+  <si>
+    <t>思想政治工作的方法</t>
+  </si>
+  <si>
+    <t>说理</t>
+  </si>
+  <si>
+    <t>精神奖励和物质奖励</t>
+  </si>
+  <si>
+    <t>引到</t>
+  </si>
+  <si>
+    <t>循循善诱，说服教育的方法，把不正确的思想引导正确的是想上</t>
+  </si>
+  <si>
+    <t>领导者开展思想政治工作的方针，原则，方法</t>
+  </si>
+  <si>
+    <t>引导</t>
+  </si>
+  <si>
+    <t>思想问题和实际问题</t>
+  </si>
+  <si>
+    <t>榜样</t>
+  </si>
+  <si>
+    <t>结合业务一道做</t>
+  </si>
+  <si>
+    <t>心里</t>
+  </si>
+  <si>
+    <t>言传身教结合</t>
+  </si>
+  <si>
+    <t>感情</t>
+  </si>
+  <si>
+    <t>循循善诱，循序渐进</t>
+  </si>
+  <si>
+    <t>自我</t>
+  </si>
+  <si>
+    <t>思想教育，行政管理</t>
+  </si>
+  <si>
+    <t>领导体制的内涵</t>
+  </si>
+  <si>
+    <t>权力划分</t>
+  </si>
+  <si>
+    <t>根本性</t>
+  </si>
+  <si>
+    <t>自上而下的权力层级和数量</t>
+  </si>
+  <si>
+    <t>领导体制的特征</t>
+  </si>
+  <si>
+    <t>组织机构</t>
+  </si>
+  <si>
     <t>系统性</t>
   </si>
   <si>
-    <t>领导者危机决策的基本要求</t>
-  </si>
-  <si>
-    <t>领导者在决策过程中发挥智囊团的作用</t>
-  </si>
-  <si>
-    <t>领导者进行危机决策的方法</t>
-  </si>
-  <si>
-    <t>领导者科学决策的原则和方法</t>
-  </si>
-  <si>
-    <t>人才的特点</t>
-  </si>
-  <si>
-    <t>社会性</t>
-  </si>
-  <si>
-    <t>工作性质</t>
-  </si>
-  <si>
-    <t>理论</t>
-  </si>
-  <si>
-    <t>实践</t>
-  </si>
-  <si>
-    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
-  </si>
-  <si>
-    <t>人才的类型</t>
-  </si>
-  <si>
-    <t>专业性</t>
-  </si>
-  <si>
-    <t>自身素质</t>
-  </si>
-  <si>
-    <t>发现型</t>
-  </si>
-  <si>
-    <t>再现型</t>
-  </si>
-  <si>
-    <t>人才是事业之本，正确的选才，推动社会金币</t>
-  </si>
-  <si>
-    <t>衡量人才的标准</t>
-  </si>
-  <si>
-    <t>衡量是否属于人才的指标和准则</t>
-  </si>
-  <si>
-    <t>创造性</t>
-  </si>
-  <si>
-    <t>发挥作用不同</t>
-  </si>
-  <si>
-    <t>组织型</t>
-  </si>
-  <si>
-    <t>操作型</t>
-  </si>
-  <si>
-    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
-  </si>
-  <si>
-    <t>选材用人对于现代领导的重要意义</t>
-  </si>
-  <si>
-    <t>历史进步性</t>
-  </si>
-  <si>
-    <t>相对性</t>
-  </si>
-  <si>
-    <t>资历与能力的关系，避免论资排辈</t>
-  </si>
-  <si>
-    <t>选举制的含义</t>
-  </si>
-  <si>
-    <t>通过投票以选拔人才</t>
-  </si>
-  <si>
-    <t>察言观行相结合</t>
-  </si>
-  <si>
-    <t>知识分子与人才的关系，避免把两者等同起来</t>
-  </si>
-  <si>
-    <t>考选制的含义</t>
-  </si>
-  <si>
-    <t>通过考试选拔人才</t>
-  </si>
-  <si>
-    <t>考察历史和显示结合</t>
-  </si>
-  <si>
-    <t>学历和能力的关系，要实践与文化相结合</t>
-  </si>
-  <si>
-    <t>荐举制的含义</t>
-  </si>
-  <si>
-    <t>通过推荐选拔人才</t>
-  </si>
-  <si>
-    <t>发现人才的长处与短处</t>
-  </si>
-  <si>
-    <t>人才选拔的基本原则</t>
-  </si>
-  <si>
-    <t>群众评论</t>
-  </si>
-  <si>
-    <t>人才选拔的制度</t>
-  </si>
-  <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>考选</t>
-  </si>
-  <si>
-    <t>推荐</t>
-  </si>
-  <si>
-    <t>领导者在选拔人才时必须正确处理的关系</t>
-  </si>
-  <si>
-    <t>领导者选拔人才的原则和方法</t>
-  </si>
-  <si>
-    <t>选任制的含义</t>
-  </si>
-  <si>
-    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
-  </si>
-  <si>
-    <t>委任制的含义</t>
-  </si>
-  <si>
-    <t>有任免权的领导按人事制度授予一定职位的制度</t>
-  </si>
-  <si>
-    <t>聘任制的含义</t>
-  </si>
-  <si>
-    <t>通过签署合同的方式照片人才的一种制度</t>
-  </si>
-  <si>
-    <t>考核制度的含义</t>
-  </si>
-  <si>
-    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
-  </si>
-  <si>
-    <t>奖惩制度的含义</t>
-  </si>
-  <si>
-    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
-  </si>
-  <si>
-    <t>交流制度的含义</t>
-  </si>
-  <si>
-    <t>对于人才实行有计划的定期交流的一种制度</t>
-  </si>
-  <si>
-    <t>任期制度的含义</t>
-  </si>
-  <si>
-    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
-  </si>
-  <si>
-    <t>人才使用的基本原则</t>
-  </si>
-  <si>
-    <t>人才使用的主要制度</t>
-  </si>
-  <si>
-    <t>量才用人，只能相称</t>
-  </si>
-  <si>
-    <t>任免制度培养制度</t>
-  </si>
-  <si>
-    <t>领导者使用人才的基本原则和方法</t>
-  </si>
-  <si>
-    <t>扬长避短，各尽所能</t>
-  </si>
-  <si>
-    <t>考核制度奖惩制度</t>
-  </si>
-  <si>
-    <t>用人不疑，疑人不用</t>
-  </si>
-  <si>
-    <t>交流制度回避制度</t>
-  </si>
-  <si>
-    <t>合理搭配，整体效能</t>
-  </si>
-  <si>
-    <t>甚至制度辞职制度</t>
-  </si>
-  <si>
-    <t>五湖四海，宽以容才</t>
-  </si>
-  <si>
-    <t>任期制度，退休制度</t>
-  </si>
-  <si>
-    <t>合理流动，适材适所</t>
-  </si>
-  <si>
-    <t>爱护人才，关心帮助</t>
-  </si>
-  <si>
-    <t>重视培养，用养结合</t>
-  </si>
-  <si>
-    <t>思想政治工作的含义</t>
-  </si>
-  <si>
-    <t>思想工作就是人的工作，通过确立观念，立场，思想来提高工作效率</t>
-  </si>
-  <si>
-    <t>思想政治工作的对象</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>马克思主义基本理论</t>
-  </si>
-  <si>
-    <t>思想政治工作对领导工作的重要意义</t>
-  </si>
-  <si>
-    <t>领导者在领导工作中，提高人们的思想觉悟，调用积极性的一种手段</t>
-  </si>
-  <si>
-    <t>爱国主义教育</t>
-  </si>
-  <si>
-    <t>形式和任务教育</t>
-  </si>
-  <si>
-    <t>政治教育的含义</t>
-  </si>
-  <si>
-    <t>是指中国中国共产党基本路线和方正的教育，爱国主义教育，形势任务教育</t>
-  </si>
-  <si>
-    <t>民主与法治</t>
-  </si>
-  <si>
-    <t>公民素质教育的含义</t>
-  </si>
-  <si>
-    <t>思想</t>
-  </si>
-  <si>
-    <t>道德</t>
-  </si>
-  <si>
-    <t>法治</t>
-  </si>
-  <si>
-    <t>思想遇到的</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本内容</t>
-  </si>
-  <si>
-    <t>党的路线方正政策</t>
-  </si>
-  <si>
-    <t>政治教育的基本内容</t>
-  </si>
-  <si>
-    <t>爱国主义和社会主义教育</t>
-  </si>
-  <si>
-    <t>形式和任务的教育</t>
-  </si>
-  <si>
-    <t>基本路线政策与方针政策教育</t>
-  </si>
-  <si>
-    <t>公民素质教育的主要内容</t>
-  </si>
-  <si>
-    <t>说理教育法的含义</t>
-  </si>
-  <si>
-    <t>向思想教育对象，讲解有关理论和道理，以说理说服对方，转变思想的一种方式</t>
-  </si>
-  <si>
-    <t>情感交流法的含义</t>
-  </si>
-  <si>
-    <t>对教育对象，情感交流，以情感去感动对方，转变思想的一找那个方式</t>
-  </si>
-  <si>
-    <t>个别引导法的含义</t>
-  </si>
-  <si>
-    <t>对个别对象，采用各种方式，因时因地的各种方式进行思想教育工作</t>
-  </si>
-  <si>
-    <t>心里咨询法的含义</t>
-  </si>
-  <si>
-    <t>对对象用心理学的方法，认识到自己的的问题根源，挖掘潜力，提高自己的认知的一种方式</t>
-  </si>
-  <si>
-    <t>榜样示范法的含义</t>
-  </si>
-  <si>
-    <t>以先进人物的先进思想的一种方式来教育对方，提高对方思想觉悟的一种方式</t>
-  </si>
-  <si>
-    <t>自我教育法的含义</t>
-  </si>
-  <si>
-    <t>以自我学习，自我提高修养的一种方式不断完善自己的思想品德</t>
-  </si>
-  <si>
-    <t>思想政治工作的方针</t>
-  </si>
-  <si>
-    <t>坚持，疏导，疏通，引导</t>
-  </si>
-  <si>
-    <t>理论联系实际</t>
-  </si>
-  <si>
-    <t>疏导</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本原则</t>
-  </si>
-  <si>
-    <t>表扬和批评</t>
-  </si>
-  <si>
-    <t>疏通</t>
-  </si>
-  <si>
-    <t>集思广益，把心里话说出来</t>
-  </si>
-  <si>
-    <t>思想政治工作的方法</t>
-  </si>
-  <si>
-    <t>说理</t>
-  </si>
-  <si>
-    <t>精神奖励和物质奖励</t>
-  </si>
-  <si>
-    <t>引到</t>
-  </si>
-  <si>
-    <t>循循善诱，说服教育的方法，把不正确的思想引导正确的是想上</t>
-  </si>
-  <si>
-    <t>领导者开展思想政治工作的方针，原则，方法</t>
-  </si>
-  <si>
-    <t>引导</t>
-  </si>
-  <si>
-    <t>思想问题和实际问题</t>
-  </si>
-  <si>
-    <t>榜样</t>
-  </si>
-  <si>
-    <t>结合业务一道做</t>
-  </si>
-  <si>
-    <t>心里</t>
-  </si>
-  <si>
-    <t>言传身教结合</t>
-  </si>
-  <si>
-    <t>感情</t>
-  </si>
-  <si>
-    <t>循循善诱，循序渐进</t>
-  </si>
-  <si>
-    <t>自我</t>
-  </si>
-  <si>
-    <t>思想教育，行政管理</t>
-  </si>
-  <si>
-    <t>领导体制的内涵</t>
-  </si>
-  <si>
-    <t>权力划分</t>
-  </si>
-  <si>
-    <t>根本性</t>
-  </si>
-  <si>
-    <t>自上而下的权力层级和数量</t>
-  </si>
-  <si>
-    <t>领导体制的特征</t>
-  </si>
-  <si>
-    <t>组织机构</t>
-  </si>
-  <si>
     <t>领导层次的含义</t>
   </si>
   <si>
@@ -2597,249 +2822,19 @@
   </si>
   <si>
     <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
-  </si>
-  <si>
-    <t>一般含义就是【做出决定】【是选择对策的决定】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策目标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策备选方案</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策环境</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策后果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是【个人决策活动】，主要【依靠】【决策者个人的素质】做出决策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>这种决策方式本质上讲是以决策者的经验为基础，所能处理的信息量有限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对性，为了解决一定问题的决定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>注重共同决策，依靠各种智囊团组织，共同完成某个决策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>强调将决策建立在科学分析的基础上，运用技术方法，定性定量确保正确性和可靠性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>高层，中层，基层决策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>战略决策，战术决策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>最优决策和满意决策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序化决策，非程序化决策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定型决策，不确定型决策，风险型决策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>理性决策模式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>渐进决策模式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合决策模式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学决策的原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有准确的决策目标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策的执行结果能够实现确定的目标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现决策目标所付出的代价要小</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策执行后的副作用相对较小</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学决策必须遵循的基本原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客观原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可行原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选优原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>外脑原则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学的决策程序主要包括四个环节</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确问题，确立目标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>集思广益，拟定方案</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析评估，选择方案</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施方案，反馈修正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施方案，反馈修正应做好几方面工作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>编制实施计划，把决策具体化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织实施力量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>落实实施责任，简历严格的责任制</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立反馈系统，及时检查发现决策方案实施中的问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>追踪决策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>回溯分析</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>非零起点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>双重优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>心理效应</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学决策的方法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>德尔菲法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>头脑风暴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策树法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验决策法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>匿名性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>多伦反馈性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终结论的统一性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2855,7 +2850,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.14990691854609822"/>
+      <color theme="0" tint="-0.149906918546098"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2877,34 +2872,363 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2912,9 +3236,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2937,27 +3503,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3244,4581 +3854,4698 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="3:3">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="3:3">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="5" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="5" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="5" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="5" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="5" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="5" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="5" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="5" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="5" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="7" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>679</v>
+        <v>756</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>681</v>
+        <v>758</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>687</v>
+        <v>764</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>689</v>
+        <v>766</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>691</v>
+        <v>768</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>693</v>
+        <v>770</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>696</v>
+        <v>773</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>698</v>
+        <v>775</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>702</v>
+        <v>779</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>704</v>
+        <v>781</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>706</v>
+        <v>783</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>708</v>
+        <v>785</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>714</v>
+        <v>791</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>716</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>717</v>
+        <v>794</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>719</v>
+        <v>796</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>721</v>
+        <v>798</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>723</v>
+        <v>800</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>725</v>
+        <v>802</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>727</v>
+        <v>804</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>729</v>
+        <v>806</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>731</v>
+        <v>808</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>733</v>
+        <v>810</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>735</v>
+        <v>812</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>736</v>
+        <v>813</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>738</v>
+        <v>815</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>739</v>
+        <v>816</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>741</v>
+        <v>818</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>742</v>
+        <v>819</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>745</v>
+        <v>822</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>746</v>
+        <v>823</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>748</v>
+        <v>825</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>750</v>
+        <v>827</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>751</v>
+        <v>828</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>753</v>
+        <v>830</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>755</v>
+        <v>832</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>756</v>
+        <v>833</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>758</v>
+        <v>835</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>760</v>
+        <v>837</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>761</v>
+        <v>838</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>763</v>
+        <v>840</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>764</v>
+        <v>841</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>766</v>
+        <v>843</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>768</v>
+        <v>845</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>770</v>
+        <v>847</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>772</v>
+        <v>849</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>774</v>
+        <v>851</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>778</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>779</v>
+        <v>856</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>781</v>
+        <v>858</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>785</v>
+        <v>862</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>787</v>
+        <v>864</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>789</v>
+        <v>866</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>790</v>
+        <v>867</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>792</v>
+        <v>869</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>794</v>
+        <v>871</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>799</v>
+        <v>876</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>801</v>
+        <v>878</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>802</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>803</v>
+        <v>880</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>805</v>
+        <v>882</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>807</v>
+        <v>884</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>809</v>
+        <v>886</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>811</v>
+        <v>888</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>813</v>
+        <v>890</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>816</v>
+        <v>893</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>818</v>
+        <v>895</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>819</v>
+        <v>896</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>821</v>
+        <v>898</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>822</v>
+        <v>899</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>824</v>
+        <v>901</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>825</v>
+        <v>902</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>827</v>
+        <v>904</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>828</v>
+        <v>905</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>830</v>
+        <v>907</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>834</v>
+        <v>911</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>836</v>
+        <v>913</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>838</v>
+        <v>915</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>840</v>
+        <v>917</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>842</v>
+        <v>919</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>844</v>
+        <v>921</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>846</v>
+        <v>923</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>848</v>
+        <v>925</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>850</v>
+        <v>927</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>852</v>
+        <v>929</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>854</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView topLeftCell="A113" workbookViewId="0">
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="3:3">
+      <c r="C2" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="5" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="5" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="5" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="5" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="5" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="5" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="5" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="5" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="5" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="5" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="5" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B84" s="5" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="5" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="5" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="5" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="5" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="5" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B97" s="5" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B98" s="5" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B99" s="5" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B102" s="5" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B103" s="5" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B104" s="5" t="s">
+    <row r="104" spans="2:2">
+      <c r="B104" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B107" s="5" t="s">
+    <row r="107" spans="2:2">
+      <c r="B107" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="5" t="s">
+    <row r="108" spans="2:3">
+      <c r="B108" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="5" t="s">
+    <row r="109" spans="3:3">
+      <c r="C109" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B112" s="5" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="6" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B118" s="5" t="s">
+    <row r="118" spans="2:2">
+      <c r="B118" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B119" s="5" t="s">
+    <row r="119" spans="2:2">
+      <c r="B119" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B120" s="5" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B121" s="5" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B122" s="5" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A124" s="5" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B125" s="5" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B126" s="5" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B127" s="5" t="s">
+    <row r="127" spans="2:2">
+      <c r="B127" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B130" s="5" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B131" s="5" t="s">
+    <row r="131" spans="2:2">
+      <c r="B131" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B132" s="5" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B135" s="5" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B136" s="5" t="s">
+    <row r="136" spans="2:2">
+      <c r="B136" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B137" s="5" t="s">
+    <row r="137" spans="2:2">
+      <c r="B137" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B138" s="5" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B139" s="5" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" s="7" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C34" s="5" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="7" t="s">
         <v>210</v>
       </c>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:6">
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="7" t="s">
         <v>208</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="2:6">
+      <c r="B42" s="7" t="s">
         <v>211</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:6">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="5" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="5" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="5" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="5" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="5" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="5" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="5" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="5" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="7" t="s">
         <v>240</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="N124" sqref="N124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5" t="s">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+    <row r="58" spans="1:3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5" t="s">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5" t="s">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5" t="s">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5" t="s">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="5" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5" t="s">
+      <c r="B83" s="7"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="5" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5" t="s">
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="5" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5" t="s">
+      <c r="B95" s="7"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="5" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B98" s="5"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5" t="s">
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="5" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B104" s="5"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5" t="s">
+      <c r="B104" s="7"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B108" s="5"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5" t="s">
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:2">
       <c r="B116" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B118" s="5" t="s">
+    <row r="118" spans="2:2">
+      <c r="B118" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="5" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="5"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B122" s="5" t="s">
+      <c r="B121" s="7"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B123" s="5"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="5" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B124" s="5"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B125" s="5" t="s">
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B126" s="5" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" s="7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B131" s="5"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B132" s="5"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B133" s="5"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B134" s="5"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B135" s="5"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B137" s="5"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
+    <row r="129" spans="1:2">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="7"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="8" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="8" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="8" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="8" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="8" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="8" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="8" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="8" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="8" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="8" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="8" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="8" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="8" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="8" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="8" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="8" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="8" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="8" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="8" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="8" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="8" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="8" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="8" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="7" t="s">
-        <v>896</v>
-      </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="8" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="8" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="8" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="8" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="8" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="8" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="8" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
-        <v>906</v>
-      </c>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="8" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="8" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="8" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1"/>
-      <c r="B80" s="8" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="7" t="s">
-        <v>379</v>
+      <c r="B80" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="5" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>382</v>
+        <v>458</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>384</v>
+        <v>460</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>390</v>
+        <v>466</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>393</v>
+        <v>469</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>395</v>
+        <v>471</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>404</v>
+        <v>480</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>407</v>
+        <v>483</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>417</v>
+        <v>493</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>424</v>
+        <v>500</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>426</v>
+        <v>502</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>457</v>
+        <v>533</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>462</v>
+        <v>538</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>464</v>
+        <v>540</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>466</v>
+        <v>542</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>467</v>
+        <v>543</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>466</v>
+        <v>542</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>482</v>
+        <v>558</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>488</v>
+        <v>564</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>489</v>
+        <v>565</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>490</v>
+        <v>566</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>508</v>
+        <v>584</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>524</v>
+        <v>601</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>535</v>
+        <v>612</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>537</v>
+        <v>614</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>538</v>
+        <v>615</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>561</v>
+        <v>638</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>563</v>
+        <v>640</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>467</v>
+        <v>543</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>611</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
       <c r="F24" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1366,34 +1366,91 @@
     <t>个人决策，是由有决策权的个人做出抉择的一种方式</t>
   </si>
   <si>
-    <t>集体抉择含义</t>
-  </si>
-  <si>
-    <t>个人决策的含义</t>
-  </si>
-  <si>
-    <t>危机决策的内涵</t>
-  </si>
-  <si>
-    <t>现代决策体质系统</t>
-  </si>
-  <si>
-    <t>集体决策需要注意的问题，对领导决策的基本要求</t>
+    <t>领导者决策的基本要求</t>
+  </si>
+  <si>
+    <t>时效性</t>
+  </si>
+  <si>
+    <t>系统性</t>
+  </si>
+  <si>
+    <t>民主性</t>
+  </si>
+  <si>
+    <t>合法性</t>
+  </si>
+  <si>
+    <t>灵活性</t>
+  </si>
+  <si>
+    <t>智囊团成员必须具备的基本条件</t>
+  </si>
+  <si>
+    <t>应当是博才的专家，是既有一门专业知识，又是学识渊博，思路开阔，目光敏锐的人</t>
+  </si>
+  <si>
+    <t>应当具有服从科学，服从真理，服从事实的品质，而不能是看着领导的颜色行事</t>
+  </si>
+  <si>
+    <t>从几个方面发挥好智囊团的作用</t>
+  </si>
+  <si>
+    <t>对决策问题进行科学预测</t>
+  </si>
+  <si>
+    <t>对决策方案进行具体的设计，并对其进行详细的分析论证</t>
+  </si>
+  <si>
+    <t>对决策问题的有关方面进行咨询。</t>
+  </si>
+  <si>
+    <t>对决策的实施情况进行反馈分析。</t>
   </si>
   <si>
     <t>领导者与智囊团的关系</t>
   </si>
   <si>
+    <t>两者关系是多谋与善断的关系</t>
+  </si>
+  <si>
+    <t>两者相辅相成不是相互取代</t>
+  </si>
+  <si>
+    <t>一方面领导者必须保证智囊团的独立研究，甚至允许唱对台戏，而不是强加给他们</t>
+  </si>
+  <si>
+    <t>另一方面，领导者又不能让智囊团代替自己决策，不能完全为智囊团的意见所左右，不能让他们代替领导者选择方案</t>
+  </si>
+  <si>
+    <t>危机决策</t>
+  </si>
+  <si>
+    <t>是指决策问题罕见，或者决策环境变化无常，难以事先确定解决方案的非程序化的决策</t>
+  </si>
+  <si>
     <t>领导者危机决策的基本要求</t>
   </si>
   <si>
-    <t>领导者在决策过程中发挥智囊团的作用</t>
-  </si>
-  <si>
-    <t>领导者进行危机决策的方法</t>
-  </si>
-  <si>
-    <t>领导者科学决策的原则和方法</t>
+    <t>快速果断</t>
+  </si>
+  <si>
+    <t>高效准确</t>
+  </si>
+  <si>
+    <t>非程序性</t>
+  </si>
+  <si>
+    <t>领导者在危机决策中要做到</t>
+  </si>
+  <si>
+    <t>首先，要主动积极，镇定自若</t>
+  </si>
+  <si>
+    <t>其次，要迅速果断，协调合作</t>
+  </si>
+  <si>
+    <t>最后，要富有创意，灵活应变</t>
   </si>
   <si>
     <t>人才的特点</t>
@@ -1808,9 +1865,6 @@
   </si>
   <si>
     <t>组织机构</t>
-  </si>
-  <si>
-    <t>系统性</t>
   </si>
   <si>
     <t>领导层次的含义</t>
@@ -2830,11 +2884,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2872,17 +2926,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2897,8 +2940,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2912,18 +2970,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2936,24 +2987,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2973,6 +3017,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2981,8 +3032,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2997,40 +3070,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3049,13 +3092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3067,7 +3116,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3079,13 +3182,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3097,31 +3230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3133,61 +3248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3199,31 +3260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3250,7 +3293,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3274,7 +3317,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3339,152 +3382,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3503,13 +3546,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3868,319 +3905,319 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4207,190 +4244,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -4415,246 +4452,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -4679,34 +4716,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4714,57 +4751,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4772,18 +4809,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -4808,206 +4845,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -5027,581 +5064,581 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5623,166 +5660,166 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>210</v>
       </c>
       <c r="D39" s="1"/>
@@ -5793,14 +5830,14 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>208</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F42" s="1"/>
@@ -5809,148 +5846,148 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>212</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5976,652 +6013,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B76" s="7"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7" t="s">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7" t="s">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7" t="s">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7" t="s">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B95" s="7"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7" t="s">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7" t="s">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7" t="s">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7" t="s">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B108" s="7"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7" t="s">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="5" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6636,105 +6673,105 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7" t="s">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7" t="s">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="7"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="5" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="7"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B124" s="7"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="5" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7" t="s">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7" t="s">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="7"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="7"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="7"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="7"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="7"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="7"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6745,10 +6782,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="N126" sqref="N126"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="P118" sqref="P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6816,7 +6853,7 @@
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6856,12 +6893,12 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6871,27 +6908,27 @@
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="1" t="s">
         <v>372</v>
       </c>
     </row>
@@ -6901,17 +6938,17 @@
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6921,22 +6958,22 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="1" t="s">
         <v>381</v>
       </c>
     </row>
@@ -6946,270 +6983,238 @@
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="1" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="1" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:1">
       <c r="A54" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="1" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="1" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="1" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:1">
       <c r="A72" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="1" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1"/>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:1">
       <c r="A83" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:1">
       <c r="A91" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="1" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:1">
       <c r="A97" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="1" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="1" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7289,54 +7294,149 @@
         <v>445</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="5" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="5" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="5" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="5" t="s">
+    <row r="124" spans="2:2">
+      <c r="B124" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="5" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" s="1" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="1" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="5" t="s">
+    <row r="129" spans="2:2">
+      <c r="B129" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="5" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="5" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -7363,274 +7463,274 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="1" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="1" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="1" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -7655,149 +7755,149 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -7805,90 +7905,90 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -7913,378 +8013,378 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>594</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -8309,67 +8409,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -8377,158 +8477,158 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="6:8">
@@ -8536,12 +8636,12 @@
         <v>357</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="900" activeTab="4"/>
+    <workbookView windowHeight="17020" tabRatio="900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1456,217 +1456,175 @@
     <t>人才的特点</t>
   </si>
   <si>
+    <t>创造性</t>
+  </si>
+  <si>
+    <t>历史进步性</t>
+  </si>
+  <si>
     <t>社会性</t>
   </si>
   <si>
-    <t>工作性质</t>
-  </si>
-  <si>
-    <t>理论</t>
-  </si>
-  <si>
-    <t>实践</t>
-  </si>
-  <si>
-    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
+    <t>专业性</t>
+  </si>
+  <si>
+    <t>相对性</t>
   </si>
   <si>
     <t>人才的类型</t>
   </si>
   <si>
-    <t>专业性</t>
-  </si>
-  <si>
-    <t>自身素质</t>
-  </si>
-  <si>
-    <t>发现型</t>
-  </si>
-  <si>
-    <t>再现型</t>
-  </si>
-  <si>
-    <t>人才是事业之本，正确的选才，推动社会金币</t>
+    <t>依据人才从事的【工作性质不同】，降人才分为【理论型人才】和【实践型人才】</t>
+  </si>
+  <si>
+    <t>依据人才【自身素质】的不同，将人才分为【发现型人才】和【再现型人才】</t>
+  </si>
+  <si>
+    <t>依据人才在【社会活动中发挥的作用不同】，降人才分为【组织型人才】和【操作型人才】</t>
   </si>
   <si>
     <t>衡量人才的标准</t>
   </si>
   <si>
-    <t>衡量是否属于人才的指标和准则</t>
-  </si>
-  <si>
-    <t>创造性</t>
-  </si>
-  <si>
-    <t>发挥作用不同</t>
-  </si>
-  <si>
-    <t>组织型</t>
-  </si>
-  <si>
-    <t>操作型</t>
-  </si>
-  <si>
-    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
+    <t>是指衡量是否属于合格人才的尺标或准则</t>
   </si>
   <si>
     <t>选材用人对于现代领导的重要意义</t>
   </si>
   <si>
-    <t>历史进步性</t>
-  </si>
-  <si>
-    <t>相对性</t>
-  </si>
-  <si>
-    <t>资历与能力的关系，避免论资排辈</t>
-  </si>
-  <si>
-    <t>选举制的含义</t>
-  </si>
-  <si>
-    <t>通过投票以选拔人才</t>
-  </si>
-  <si>
-    <t>察言观行相结合</t>
-  </si>
-  <si>
-    <t>知识分子与人才的关系，避免把两者等同起来</t>
-  </si>
-  <si>
-    <t>考选制的含义</t>
-  </si>
-  <si>
-    <t>通过考试选拔人才</t>
-  </si>
-  <si>
-    <t>考察历史和显示结合</t>
-  </si>
-  <si>
-    <t>学历和能力的关系，要实践与文化相结合</t>
-  </si>
-  <si>
-    <t>荐举制的含义</t>
-  </si>
-  <si>
-    <t>通过推荐选拔人才</t>
-  </si>
-  <si>
-    <t>发现人才的长处与短处</t>
+    <t>【人才】是世界上【最宝贵的财富】，是【创造物质财富】和【精神财富】的【带头者和推动者】</t>
+  </si>
+  <si>
+    <t>【人才】是【事业之本】，是否【正确地选才用人】关系到【社会进步】，国家兴衰和事业的成败</t>
+  </si>
+  <si>
+    <t>【人才】是我国【社会主义现代化建设的栋梁】，【正确的选材用人】对我国【现代化建设起着关键作用】</t>
   </si>
   <si>
     <t>人才选拔的基本原则</t>
   </si>
   <si>
-    <t>群众评论</t>
+    <t>【察言】与【观行】相互结合的原则</t>
+  </si>
+  <si>
+    <t>【考察历史】与【考察现实】相结合的原则</t>
+  </si>
+  <si>
+    <t>发现人才的【长处】与认识人才的【短处】相结合原则</t>
+  </si>
+  <si>
+    <t>【组织考察】与【群众评议】相结合的原则</t>
+  </si>
+  <si>
+    <t>领导者在选拔人才时必须正确处理的关系</t>
+  </si>
+  <si>
+    <t>正确处理【资历与能力的关系】，【反对论资排辈】，【大胆选拔新秀】</t>
+  </si>
+  <si>
+    <t>正确处理【知识分子和人才的关系】，既【不能把知识分子与人才等同起来】，又要客服轻视知识分子的种种偏见</t>
+  </si>
+  <si>
+    <t>正确处理【学历与水平】，【实践经验与文化程度的关系】，既要反对以学历伦才，也要反对以经验伦才</t>
   </si>
   <si>
     <t>人才选拔的制度</t>
   </si>
   <si>
-    <t>选举</t>
-  </si>
-  <si>
-    <t>考选</t>
-  </si>
-  <si>
-    <t>推荐</t>
-  </si>
-  <si>
-    <t>领导者在选拔人才时必须正确处理的关系</t>
-  </si>
-  <si>
-    <t>领导者选拔人才的原则和方法</t>
+    <t>选举制，投票</t>
+  </si>
+  <si>
+    <t>考选制，公开考试</t>
+  </si>
+  <si>
+    <t>荐选制，推荐</t>
+  </si>
+  <si>
+    <t>人才使用的基本原则</t>
+  </si>
+  <si>
+    <t>量才用人，职能相称的原则</t>
+  </si>
+  <si>
+    <t>扬长避短，各尽所能的原则</t>
+  </si>
+  <si>
+    <t>用人不疑，疑人不用</t>
+  </si>
+  <si>
+    <t>合理搭配，整体效能原则</t>
+  </si>
+  <si>
+    <t>五湖四海，宽以容才的原则</t>
+  </si>
+  <si>
+    <t>合理流动，适才适所的原则</t>
+  </si>
+  <si>
+    <t>爱护人才，关心帮助的原则</t>
+  </si>
+  <si>
+    <t>重视培养，用养结合的原则</t>
+  </si>
+  <si>
+    <t>人才使用制度</t>
+  </si>
+  <si>
+    <t>任免制度与培养制度</t>
+  </si>
+  <si>
+    <t>考核制度与奖惩制度</t>
+  </si>
+  <si>
+    <t>交流制度与回避制度</t>
+  </si>
+  <si>
+    <t>职务升降制度与辞职辞退制度</t>
+  </si>
+  <si>
+    <t>任期制度与退休制度</t>
   </si>
   <si>
     <t>选任制的含义</t>
   </si>
   <si>
-    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
+    <t>依照法律程序，通过群众或群众代表【投票】表决选拔人才并加以任用的一种制度</t>
   </si>
   <si>
     <t>委任制的含义</t>
   </si>
   <si>
-    <t>有任免权的领导按人事制度授予一定职位的制度</t>
+    <t>是指有【任免权】的领导机关或领导者按照人事管理权限对人才授予一定职位的一种制度</t>
   </si>
   <si>
     <t>聘任制的含义</t>
   </si>
   <si>
-    <t>通过签署合同的方式照片人才的一种制度</t>
+    <t>是指用人单位运用【合同】形式对通过考试考核招聘的人才予以任用的一种制度</t>
   </si>
   <si>
     <t>考核制度的含义</t>
   </si>
   <si>
-    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
+    <t>是对一定职位的人才的【道德品质】，【工作能力】，【工作态度】【工作成绩】进行考察，审核和评价的一项制度</t>
   </si>
   <si>
     <t>奖惩制度的含义</t>
   </si>
   <si>
-    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
+    <t>是指对有【突出成绩】或有特殊贡献的人才给与【物质利益或荣誉】，以资鼓励，并对【犯错误的人】给与必要的【惩处以示教育】或训诫的一种制度</t>
   </si>
   <si>
     <t>交流制度的含义</t>
   </si>
   <si>
-    <t>对于人才实行有计划的定期交流的一种制度</t>
+    <t>是指对人才实行【有计划有步骤的定期交流】的一项制度，包括领导人才和科技人才的交流</t>
   </si>
   <si>
     <t>任期制度的含义</t>
   </si>
   <si>
-    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
-  </si>
-  <si>
-    <t>人才使用的基本原则</t>
-  </si>
-  <si>
-    <t>人才使用的主要制度</t>
-  </si>
-  <si>
-    <t>量才用人，只能相称</t>
-  </si>
-  <si>
-    <t>任免制度培养制度</t>
-  </si>
-  <si>
-    <t>领导者使用人才的基本原则和方法</t>
-  </si>
-  <si>
-    <t>扬长避短，各尽所能</t>
-  </si>
-  <si>
-    <t>考核制度奖惩制度</t>
-  </si>
-  <si>
-    <t>用人不疑，疑人不用</t>
-  </si>
-  <si>
-    <t>交流制度回避制度</t>
-  </si>
-  <si>
-    <t>合理搭配，整体效能</t>
-  </si>
-  <si>
-    <t>甚至制度辞职制度</t>
-  </si>
-  <si>
-    <t>五湖四海，宽以容才</t>
-  </si>
-  <si>
-    <t>任期制度，退休制度</t>
-  </si>
-  <si>
-    <t>合理流动，适材适所</t>
-  </si>
-  <si>
-    <t>爱护人才，关心帮助</t>
-  </si>
-  <si>
-    <t>重视培养，用养结合</t>
+    <t>是指在【领导机关或企事业单位中】，某些职位的工作【人员在职工作的时间有一定限制】，【任期届满后其职务，职权，职责自然取消】</t>
   </si>
   <si>
     <t>思想政治工作的含义</t>
@@ -2883,10 +2841,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2934,7 +2892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2955,8 +2913,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2970,24 +2981,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3011,67 +3014,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3086,7 +3044,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3098,19 +3116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3122,19 +3128,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3146,7 +3164,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,73 +3194,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3236,37 +3224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3313,11 +3271,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3337,21 +3316,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3363,17 +3327,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3382,127 +3340,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3511,16 +3469,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4244,190 +4202,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -4452,246 +4410,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -4716,34 +4674,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4751,57 +4709,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4809,18 +4767,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -4845,206 +4803,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -6784,8 +6742,8 @@
   <sheetPr/>
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="P118" sqref="P118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -7448,290 +7406,329 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="11.375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="M3" s="1" t="s">
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="7:11">
-      <c r="G5" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="K5" s="1" t="s">
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="K6" s="1" t="s">
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="K7" s="1" t="s">
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="H8" s="1" t="s">
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8">
-      <c r="E24" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8">
-      <c r="E25" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8">
-      <c r="E26" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" s="1" t="s">
-        <v>546</v>
-      </c>
+    </row>
+    <row r="76" spans="5:8">
+      <c r="E76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="5:8">
+      <c r="E77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="5:8">
+      <c r="E78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7755,149 +7752,149 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="14:14">
       <c r="N4" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -7905,90 +7902,90 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" s="1" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -8013,24 +8010,24 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>448</v>
@@ -8038,353 +8035,353 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -8409,67 +8406,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -8477,158 +8474,158 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="6:8">
@@ -8636,12 +8633,12 @@
         <v>357</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="900" activeTab="5"/>
+    <workbookView windowHeight="17020" tabRatio="900" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1630,7 +1630,16 @@
     <t>思想政治工作的含义</t>
   </si>
   <si>
-    <t>思想工作就是人的工作，通过确立观念，立场，思想来提高工作效率</t>
+    <t>思想政治工作就是【做人的工作】他是以人为本对象，</t>
+  </si>
+  <si>
+    <t>帮助人们【确立正确的立场，观点，方法】</t>
+  </si>
+  <si>
+    <t>【提高人们认识世界和改造世界的能力】</t>
+  </si>
+  <si>
+    <t>动员人们自觉地为【实现当前和长远的目标】而【努力奋斗的工作】。</t>
   </si>
   <si>
     <t>思想政治工作的对象</t>
@@ -1639,1006 +1648,940 @@
     <t>人</t>
   </si>
   <si>
-    <t>马克思主义基本理论</t>
-  </si>
-  <si>
     <t>思想政治工作对领导工作的重要意义</t>
   </si>
   <si>
-    <t>领导者在领导工作中，提高人们的思想觉悟，调用积极性的一种手段</t>
-  </si>
-  <si>
-    <t>爱国主义教育</t>
-  </si>
-  <si>
-    <t>形式和任务教育</t>
+    <t>思想政治工作是【领导者】在领导工作中用以【提高人们的思想觉悟】，【调动】人们建设社会主义【积极性】的一种重要手段</t>
+  </si>
+  <si>
+    <t>思想政治工作是【领导过程中】各项【工作的生命线】，既是【经济工作的生命线】，也是其他【一切工作的生命线】</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本内容</t>
+  </si>
+  <si>
+    <t>【马克思主义】基本理论的教育</t>
+  </si>
+  <si>
+    <t>【党的路线和方针政策】教育</t>
+  </si>
+  <si>
+    <t>【形式和任务】教育</t>
+  </si>
+  <si>
+    <t>【爱国主义和社会主义】教育</t>
+  </si>
+  <si>
+    <t>【思想与道德】教育</t>
+  </si>
+  <si>
+    <t>【民主与法制】教育</t>
   </si>
   <si>
     <t>政治教育的含义</t>
   </si>
   <si>
-    <t>是指中国中国共产党基本路线和方正的教育，爱国主义教育，形势任务教育</t>
-  </si>
-  <si>
-    <t>民主与法治</t>
+    <t>是指有关【中国共产党】的【基本路线与方针政策的教育】，【形式和任务教育】，【爱国主义和社会主义教育】</t>
+  </si>
+  <si>
+    <t>政治教育的基本内容</t>
+  </si>
+  <si>
+    <t>【基本路线和方针政策】的教育</t>
   </si>
   <si>
     <t>公民素质教育的含义</t>
   </si>
   <si>
-    <t>思想</t>
-  </si>
-  <si>
-    <t>道德</t>
+    <t>公民素质教育应包括对公民进行【理想，道德，科技文化知识】和【遵纪守法等方面的教育】，</t>
+  </si>
+  <si>
+    <t>从思想政治工作的角度看，公民素教育主要是指【思想教育】，【道德教育】和【法制教育】</t>
+  </si>
+  <si>
+    <t>公民素质教育的主要内容</t>
+  </si>
+  <si>
+    <t>思想教育</t>
+  </si>
+  <si>
+    <t>道德教育</t>
+  </si>
+  <si>
+    <t>法治教育</t>
+  </si>
+  <si>
+    <t>说理教育法的含义</t>
+  </si>
+  <si>
+    <t>情感交流法的含义</t>
+  </si>
+  <si>
+    <t>个别引导法的含义</t>
+  </si>
+  <si>
+    <t>心里咨询法的含义</t>
+  </si>
+  <si>
+    <t>榜样示范法的含义</t>
+  </si>
+  <si>
+    <t>自我教育法的含义</t>
+  </si>
+  <si>
+    <t>思想政治工作的方针</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本原则</t>
+  </si>
+  <si>
+    <t>思想政治工作的方法</t>
+  </si>
+  <si>
+    <t>领导者开展思想政治工作的方针，原则，方法</t>
+  </si>
+  <si>
+    <t>领导体制的内涵</t>
+  </si>
+  <si>
+    <t>权力划分</t>
+  </si>
+  <si>
+    <t>根本性</t>
+  </si>
+  <si>
+    <t>自上而下的权力层级和数量</t>
+  </si>
+  <si>
+    <t>领导体制的特征</t>
+  </si>
+  <si>
+    <t>组织机构</t>
+  </si>
+  <si>
+    <t>领导层次的含义</t>
+  </si>
+  <si>
+    <t>领导干部管理的制度安排</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>工作任务的性质</t>
+  </si>
+  <si>
+    <t>领导宽度（幅度）的含义</t>
+  </si>
+  <si>
+    <t>直接指挥下属的数量</t>
+  </si>
+  <si>
+    <t>规范性</t>
+  </si>
+  <si>
+    <t>工作的难易程度和近似度</t>
+  </si>
+  <si>
+    <t>领导体制的二重性</t>
+  </si>
+  <si>
+    <t>自然属性，领导体制的普遍性，社会属性，领导体制的特殊性</t>
+  </si>
+  <si>
+    <t>组织中成员的素质</t>
+  </si>
+  <si>
+    <t>领导组织的原则</t>
+  </si>
+  <si>
+    <t>目标性，统一性，适应性</t>
+  </si>
+  <si>
+    <t>领导者的能力</t>
+  </si>
+  <si>
+    <t>领导组织结构</t>
+  </si>
+  <si>
+    <t>直接领导，职能式领导，复合式，举证，置业部</t>
+  </si>
+  <si>
+    <t>组织的凝聚力</t>
+  </si>
+  <si>
+    <t>领导的层次与宽度（幅度）的关系</t>
+  </si>
+  <si>
+    <t>领导信息系统和技术的先进性</t>
+  </si>
+  <si>
+    <t>领导组织机构的构成</t>
+  </si>
+  <si>
+    <t>执行机构</t>
+  </si>
+  <si>
+    <t>监督机构</t>
+  </si>
+  <si>
+    <t>领导体制的作用</t>
+  </si>
+  <si>
+    <t>领导活动有序开展的保障，领导目标实现的手段，制约着领导主体，觉得这领导的绩效，组织未来的命运</t>
+  </si>
+  <si>
+    <t>集权制的含义</t>
+  </si>
+  <si>
+    <t>重大问题的决定权在上级领导手中，下级对上级有无条件的服从</t>
+  </si>
+  <si>
+    <t>下级领导在管辖范围内有一定的自主权，上级对下级不得随意干扰</t>
+  </si>
+  <si>
+    <t>分权制的含义</t>
+  </si>
+  <si>
+    <t>完整制的含义</t>
+  </si>
+  <si>
+    <t>同一领导层次的各级机关，均受上层领导统一指挥控制</t>
+  </si>
+  <si>
+    <t>集权制</t>
+  </si>
+  <si>
+    <t>统一管理</t>
+  </si>
+  <si>
+    <t>分权</t>
+  </si>
+  <si>
+    <t>高效，灵活</t>
+  </si>
+  <si>
+    <t>分离制的含义</t>
+  </si>
+  <si>
+    <t>同一层领导收到两个以上不同的领导机关控制指挥的机制</t>
+  </si>
+  <si>
+    <t>快速高效的处理上一级的任务</t>
+  </si>
+  <si>
+    <t>可以培养新人</t>
+  </si>
+  <si>
+    <t>一长制的含义</t>
+  </si>
+  <si>
+    <t>法定最高决策权在一位领导者掌握</t>
+  </si>
+  <si>
+    <t>将有用的资源分离分配</t>
+  </si>
+  <si>
+    <t>调动下级的积极性</t>
+  </si>
+  <si>
+    <t>委员会制的含义</t>
+  </si>
+  <si>
+    <t>法定最高决策权在两位以上的领导组成的委员会掌握</t>
+  </si>
+  <si>
+    <t>防止官僚</t>
+  </si>
+  <si>
+    <t>层次制的含义</t>
+  </si>
+  <si>
+    <t>领导机会在纵向上划分诺肝层，每一层对上一层负责，类似于金字塔</t>
+  </si>
+  <si>
+    <t>灵活性差</t>
+  </si>
+  <si>
+    <t>职能制的含义</t>
+  </si>
+  <si>
+    <t>根据业务不同设立不同职能部门，辅助领导机关的实施领导</t>
+  </si>
+  <si>
+    <t>对上级依赖</t>
+  </si>
+  <si>
+    <t>很难统一管理</t>
+  </si>
+  <si>
+    <t>无法调动积极性</t>
+  </si>
+  <si>
+    <t>容易出现本位主义</t>
+  </si>
+  <si>
+    <t>资产阶级民主制领导体制的特征</t>
+  </si>
+  <si>
+    <t>政党政治，政党竞选制，实行轮流执行，政党来集中统治阶级的意志，协调矛盾，处理政府机关活动</t>
+  </si>
+  <si>
+    <t>组织之间差距被拉开</t>
+  </si>
+  <si>
+    <t>集权制与分权制的特优缺点</t>
+  </si>
+  <si>
+    <t>议会制，由群众普选代表，负责法律和国家大事</t>
+  </si>
+  <si>
+    <t>比例与协调</t>
+  </si>
+  <si>
+    <t>完整制与分离制的优缺点</t>
+  </si>
+  <si>
+    <t>首长制，负责行政事务，但是权力限于议会收到司法议会的限制</t>
+  </si>
+  <si>
+    <t>完整制</t>
+  </si>
+  <si>
+    <t>统一指挥</t>
+  </si>
+  <si>
+    <t>分离</t>
+  </si>
+  <si>
+    <t>避免独裁</t>
+  </si>
+  <si>
+    <t>一长制与委员会制的优缺点</t>
+  </si>
+  <si>
+    <t>三权分立，立法权，行政，司法，由议会，总统，法院执行，相互制约</t>
   </si>
   <si>
     <t>法治</t>
   </si>
   <si>
-    <t>思想遇到的</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本内容</t>
-  </si>
-  <si>
-    <t>党的路线方正政策</t>
-  </si>
-  <si>
-    <t>政治教育的基本内容</t>
-  </si>
-  <si>
-    <t>爱国主义和社会主义教育</t>
-  </si>
-  <si>
-    <t>形式和任务的教育</t>
-  </si>
-  <si>
-    <t>基本路线政策与方针政策教育</t>
-  </si>
-  <si>
-    <t>公民素质教育的主要内容</t>
-  </si>
-  <si>
-    <t>说理教育法的含义</t>
-  </si>
-  <si>
-    <t>向思想教育对象，讲解有关理论和道理，以说理说服对方，转变思想的一种方式</t>
-  </si>
-  <si>
-    <t>情感交流法的含义</t>
-  </si>
-  <si>
-    <t>对教育对象，情感交流，以情感去感动对方，转变思想的一找那个方式</t>
-  </si>
-  <si>
-    <t>个别引导法的含义</t>
-  </si>
-  <si>
-    <t>对个别对象，采用各种方式，因时因地的各种方式进行思想教育工作</t>
-  </si>
-  <si>
-    <t>心里咨询法的含义</t>
-  </si>
-  <si>
-    <t>对对象用心理学的方法，认识到自己的的问题根源，挖掘潜力，提高自己的认知的一种方式</t>
-  </si>
-  <si>
-    <t>榜样示范法的含义</t>
-  </si>
-  <si>
-    <t>以先进人物的先进思想的一种方式来教育对方，提高对方思想觉悟的一种方式</t>
-  </si>
-  <si>
-    <t>自我教育法的含义</t>
-  </si>
-  <si>
-    <t>以自我学习，自我提高修养的一种方式不断完善自己的思想品德</t>
-  </si>
-  <si>
-    <t>思想政治工作的方针</t>
-  </si>
-  <si>
-    <t>坚持，疏导，疏通，引导</t>
+    <t>防止各自为政</t>
+  </si>
+  <si>
+    <t>调动积极性</t>
+  </si>
+  <si>
+    <t>层级制与职能制的优缺点</t>
+  </si>
+  <si>
+    <t>自上而下的资质结构，分权管理</t>
+  </si>
+  <si>
+    <t>公正</t>
+  </si>
+  <si>
+    <t>资源统筹全局</t>
+  </si>
+  <si>
+    <t>培养新人</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>竞争</t>
+  </si>
+  <si>
+    <t>我国现行领导体制的本质特征</t>
+  </si>
+  <si>
+    <t>人民群众主人地位</t>
+  </si>
+  <si>
+    <t>领导权集中</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>容易独裁</t>
+  </si>
+  <si>
+    <t>我国现行领导体制的主要问题</t>
+  </si>
+  <si>
+    <t>中共为核心</t>
+  </si>
+  <si>
+    <t>组织机构不尽合理</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>我国领导体制改革的原则</t>
+  </si>
+  <si>
+    <t>中央集权统一领导</t>
+  </si>
+  <si>
+    <t>领导体制建设邂逅</t>
+  </si>
+  <si>
+    <t>我国领导体制改革的内容</t>
+  </si>
+  <si>
+    <t>领导权力划分科学化</t>
+  </si>
+  <si>
+    <t>政党关系规范化</t>
+  </si>
+  <si>
+    <t>领导组织机构设置合理化</t>
+  </si>
+  <si>
+    <t>领导制度建设发指挥</t>
+  </si>
+  <si>
+    <t>领导者素质的内涵</t>
+  </si>
+  <si>
+    <t>与职位相符的领导主体，为了履行领导职责，所具备的价值理念行为能力</t>
+  </si>
+  <si>
+    <t>实施有效领导的基础</t>
+  </si>
+  <si>
+    <t>领导者素质的特点</t>
+  </si>
+  <si>
+    <t>动态性</t>
+  </si>
+  <si>
+    <t>自治性</t>
+  </si>
+  <si>
+    <t>领导力的基础</t>
+  </si>
+  <si>
+    <t>领导者素质的重要性</t>
+  </si>
+  <si>
+    <t>决定着领导绩效的高低</t>
+  </si>
+  <si>
+    <t>兴衰存亡</t>
+  </si>
+  <si>
+    <t>【政治素质】的含义</t>
+  </si>
+  <si>
+    <t>领导者从事领导活动所具备的政治立场，政治观念，政治态度，正式品质</t>
+  </si>
+  <si>
+    <t>【道德素质】的含义</t>
+  </si>
+  <si>
+    <t>领导者的品德修养，道德规范</t>
+  </si>
+  <si>
+    <t>【知识素质】的含义</t>
+  </si>
+  <si>
+    <t>做好工作所具备的基础知识和专业知识</t>
+  </si>
+  <si>
+    <t>领导者【政治素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>崇高的政治理想，高度的政治责任感，理性的民主政治自觉</t>
+  </si>
+  <si>
+    <t>领导者【法律素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>掌握法律知识，具有法律意识，注重职务守法</t>
+  </si>
+  <si>
+    <t>领导者【能力素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>科学的决策能力，知人善任的能力，激励能力，沟通能力，创新能力，危机管理能力</t>
+  </si>
+  <si>
+    <t>领导者【道德素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>忠诚于国家人民，公正廉洁，勤政尽职，严于律己宽以待人</t>
+  </si>
+  <si>
+    <t>领导者【知识素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>基础知识，专业知识，辅助知识</t>
+  </si>
+  <si>
+    <t>重视学习</t>
+  </si>
+  <si>
+    <t>领导者【身心素质】的【内容】</t>
+  </si>
+  <si>
+    <t>自我</t>
+  </si>
+  <si>
+    <t>正确认识自我，快熔他人</t>
+  </si>
+  <si>
+    <t>注重实践</t>
+  </si>
+  <si>
+    <t>领导者提高和培养素质的基本途径</t>
+  </si>
+  <si>
+    <t>财富权力</t>
+  </si>
+  <si>
+    <t>正确看待财富权力，保持从容</t>
+  </si>
+  <si>
+    <t>注意自省</t>
+  </si>
+  <si>
+    <t>当前领导者提高素质的基本方法</t>
+  </si>
+  <si>
+    <t>工作生活</t>
+  </si>
+  <si>
+    <t>正确对待工作和生活，避免浮躁</t>
+  </si>
+  <si>
+    <t>健全制度</t>
+  </si>
+  <si>
+    <t>气质</t>
+  </si>
+  <si>
+    <t>注意气质，融入环境</t>
+  </si>
+  <si>
+    <t>领导者集体素质结构的含义</t>
+  </si>
+  <si>
+    <t>各领导之间按一定关系组合在一起的集体领导整体</t>
+  </si>
+  <si>
+    <t>年龄结构要阶梯</t>
+  </si>
+  <si>
+    <t>领导集体素质结构的特征</t>
+  </si>
+  <si>
+    <t>整体，相关，目的，稳定，适应</t>
+  </si>
+  <si>
+    <t>知识结构要合理</t>
+  </si>
+  <si>
+    <t>合理的领导集体素质结构的基本内容</t>
+  </si>
+  <si>
+    <t>能力结构要互补</t>
+  </si>
+  <si>
+    <t>领导集体素质结构优化的原则</t>
+  </si>
+  <si>
+    <t>主动性</t>
+  </si>
+  <si>
+    <t>气质结构要协调</t>
+  </si>
+  <si>
+    <t>优化领导集体素质结构的途径</t>
+  </si>
+  <si>
+    <t>互补性</t>
+  </si>
+  <si>
+    <t>转变观念是前提</t>
+  </si>
+  <si>
+    <t>当前中国领导集体素质结构优化的原则和方法</t>
+  </si>
+  <si>
+    <t>静感性</t>
+  </si>
+  <si>
+    <t>搞好后背队伍建设是基础</t>
+  </si>
+  <si>
+    <t>加强集体自身建设是根本</t>
+  </si>
+  <si>
+    <t>改善干部管理制度是保证</t>
+  </si>
+  <si>
+    <t>领导方法的含义</t>
+  </si>
+  <si>
+    <t>领导者履行职责，完成领导目标，所需要的方法，手段的综合</t>
+  </si>
+  <si>
+    <t>领导方法在领导活动中处于中介地位</t>
+  </si>
+  <si>
+    <t>领导方法的特征</t>
+  </si>
+  <si>
+    <t>客观性，动态性，目的性，条件性，时效性</t>
+  </si>
+  <si>
+    <t>科学的领导方法是提高效率的推进器</t>
+  </si>
+  <si>
+    <t>运用领导方法的重要意义</t>
+  </si>
+  <si>
+    <t>科学的领导方法是现代领导的必备条件</t>
+  </si>
+  <si>
+    <t>运用领导方法的基本原则</t>
+  </si>
+  <si>
+    <t>目的性原则，创造性原则，具体性原则，高效性原则</t>
+  </si>
+  <si>
+    <t>战略性思维方法的特征</t>
+  </si>
+  <si>
+    <t>预见性，长远性，综合性，全局性</t>
+  </si>
+  <si>
+    <t>创造性思维的特征</t>
+  </si>
+  <si>
+    <t>独特性，求异性，灵活性，敏捷性，跳跃性，联动性，综合性</t>
+  </si>
+  <si>
+    <t>创造性思维原理</t>
+  </si>
+  <si>
+    <t>陌生原理，逆向原理，聚焦原理，综合原理</t>
+  </si>
+  <si>
+    <t>辩证逻辑思维方法</t>
+  </si>
+  <si>
+    <t>比较抽象概括的方法，分析综合，归纳演义的方法，抽象具体，历史逻辑统一的方法</t>
+  </si>
+  <si>
+    <t>系统性思维方法</t>
+  </si>
+  <si>
+    <t>整体性思维，动态性思维，结构性思维</t>
+  </si>
+  <si>
+    <t>改善战略性思维方法的途径</t>
+  </si>
+  <si>
+    <t>正确认识过去现在未来之间的本质联系，找到规律，完善预见能力</t>
+  </si>
+  <si>
+    <t>创造性思维方法</t>
+  </si>
+  <si>
+    <t>发挥个人的直接，灵感，想象力，进行创造性思维，发挥集体智慧进行创造性思维，信息交合法</t>
+  </si>
+  <si>
+    <t>领导者思维方法的训练和应用</t>
+  </si>
+  <si>
+    <t>典型调查的含义</t>
+  </si>
+  <si>
+    <t>根据一定调查目的，在调查对象中，通过科学分析对有一定规律的对象，选择若干个体，进行深入研究</t>
+  </si>
+  <si>
+    <t>抽样调查的含义</t>
+  </si>
+  <si>
+    <t>在调查对象中，抽取一部分进行调查分析，通过个别推论全部</t>
+  </si>
+  <si>
+    <t>普遍调查的含义</t>
+  </si>
+  <si>
+    <t>全部个体进行无遗漏的调查</t>
+  </si>
+  <si>
+    <t>系统领导法的含义</t>
+  </si>
+  <si>
+    <t>从领导活动的整体性出发，根据领导活动的空间结构，运行过程进行最优设计，从而实现最有效率的科学方法</t>
+  </si>
+  <si>
+    <t>信息方法的含义</t>
+  </si>
+  <si>
+    <t>通过信息的观点，把系统看做，输入，传递，加工，反馈，从而实现目标性活动的一种方法</t>
+  </si>
+  <si>
+    <t>控制论方法的含义</t>
+  </si>
+  <si>
+    <t>把人的行为，目的，生理基础与电子，机械运动结合起来，通过解决控制与被控制的矛盾，似的稳定进行的一种方法</t>
+  </si>
+  <si>
+    <t>基本领导方法的内容</t>
+  </si>
+  <si>
+    <t>一切从实际出发，调查研究，按辩证法的规律办事 ，坚持群众路线</t>
+  </si>
+  <si>
+    <t>系统论方法的内容</t>
+  </si>
+  <si>
+    <t>信息论方法的内容</t>
+  </si>
+  <si>
+    <t>控制论方法的内容</t>
+  </si>
+  <si>
+    <t>基本领导方法的应用</t>
+  </si>
+  <si>
+    <t>现在科学领导方法的应用</t>
+  </si>
+  <si>
+    <t>系统论，控制论，信息论</t>
+  </si>
+  <si>
+    <t>系统掌握基本领导方法和现在科学领导方法</t>
+  </si>
+  <si>
+    <t>领导艺术的含义</t>
+  </si>
+  <si>
+    <t>领导在履行领导职责的过程中，灵活运用，领导原则，领导条件，领导方法的技能技巧</t>
+  </si>
+  <si>
+    <t>领导艺术的定位</t>
+  </si>
+  <si>
+    <t>领导科学，领导经验，领导方法</t>
+  </si>
+  <si>
+    <t>领导艺术的特征</t>
+  </si>
+  <si>
+    <t>个性与共性，科学与经验，清晰与模糊，规范与创造性，原则和灵活</t>
+  </si>
+  <si>
+    <t>授权的含义</t>
+  </si>
+  <si>
+    <t>在领导的范围内，委托下属处理事物的权力，在其监督下拥有自主行动权</t>
+  </si>
+  <si>
+    <t>刚性授权的含义</t>
+  </si>
+  <si>
+    <t>领导者对授权的事务有明确的规定，被领导者必须严格遵循</t>
+  </si>
+  <si>
+    <t>惰性授权的含义</t>
+  </si>
+  <si>
+    <t>领导自己做的，和不知道怎么做的都交给下属来处理</t>
+  </si>
+  <si>
+    <t>模糊授权的含义</t>
+  </si>
+  <si>
+    <t>指向下属提出要做什么，和达到的目标，至于下属怎么处理，领导不加干预</t>
+  </si>
+  <si>
+    <t>口头授权的含义</t>
+  </si>
+  <si>
+    <t>领导者将部分事务通过口头的方式通知下属</t>
+  </si>
+  <si>
+    <t>书面授权的含义</t>
+  </si>
+  <si>
+    <t>围绕目标，明确要求</t>
+  </si>
+  <si>
+    <t>突发性事件的含义</t>
+  </si>
+  <si>
+    <t>超出常规，具有较大影响的</t>
+  </si>
+  <si>
+    <t>因事择人，视能授权</t>
+  </si>
+  <si>
+    <t>领导授权的类型，根据授权的具体内容划分</t>
+  </si>
+  <si>
+    <t>刚性，惰性，模糊，弹性</t>
+  </si>
+  <si>
+    <t>把握尺度，适度授权</t>
+  </si>
+  <si>
+    <t>领导授权的类型，根据授权行为的形式划分</t>
+  </si>
+  <si>
+    <t>口头和书面，个人和群体，长期和短期，逐级和越级</t>
+  </si>
+  <si>
+    <t>尊重分工，逐级授权</t>
+  </si>
+  <si>
+    <t>民主监督，公开授权</t>
+  </si>
+  <si>
+    <t>正副职的关系定位</t>
+  </si>
+  <si>
+    <t>承担的角色责任不同，但是属于同一个领导集体，组织，上下级，工作，协作，从程序，集中和民主</t>
+  </si>
+  <si>
+    <t>强化责任，可控授权</t>
+  </si>
+  <si>
+    <t>开会必须遵循的原则</t>
+  </si>
+  <si>
+    <t>超前，有效，善后</t>
+  </si>
+  <si>
+    <t>突发性事件的特征</t>
+  </si>
+  <si>
+    <t>突发性，不确定型，危害性，扩散性，集聚性</t>
+  </si>
+  <si>
+    <t>确认时间性质</t>
+  </si>
+  <si>
+    <t>领导授权的要点</t>
+  </si>
+  <si>
+    <t>以人为本，救人</t>
+  </si>
+  <si>
+    <t>领导沟通艺术的基本内容及其要点</t>
+  </si>
+  <si>
+    <t>接待，谈判 ，表扬批评，劝说疏导，电话蜀汉的沟通</t>
+  </si>
+  <si>
+    <t>主动出击，控制事态</t>
+  </si>
+  <si>
+    <t>当好正副职的艺术</t>
+  </si>
+  <si>
+    <t>把握全局</t>
+  </si>
+  <si>
+    <t>领导者运筹时间的艺术要点</t>
+  </si>
+  <si>
+    <t>集中时间，节约时间，扩大时间的容量，又花时间利用</t>
+  </si>
+  <si>
+    <t>打破常规，创造性化解危机</t>
+  </si>
+  <si>
+    <t>主持会议的技巧</t>
+  </si>
+  <si>
+    <t>严格会议的作风，控制进程，解决问题，指定守则</t>
+  </si>
+  <si>
+    <t>加强沟通，主导晕轮</t>
+  </si>
+  <si>
+    <t>处理突发性事件的艺术</t>
+  </si>
+  <si>
+    <t>整合资源，协力行动</t>
+  </si>
+  <si>
+    <t>中国领导者应该具备的领导艺术的要点</t>
+  </si>
+  <si>
+    <t>山后，避免重蹈覆辙</t>
+  </si>
+  <si>
+    <t>政客权术的含义</t>
+  </si>
+  <si>
+    <t>正科为了自己的权力，耍弄计谋的行为</t>
+  </si>
+  <si>
+    <t>领导艺术与政客权术的区别</t>
+  </si>
+  <si>
+    <t>目的不同，性质不同，行为不铜，趋势不同</t>
+  </si>
+  <si>
+    <t>提高领导艺术水平的途径</t>
+  </si>
+  <si>
+    <t>保持领导艺术的先进性</t>
+  </si>
+  <si>
+    <t>提高科学性</t>
+  </si>
+  <si>
+    <t>加强创造性</t>
+  </si>
+  <si>
+    <t>把我规律性</t>
+  </si>
+  <si>
+    <t>领导作风的含义</t>
+  </si>
+  <si>
+    <t>在领导活动中表现出来的，稳定性，习惯性，态度言行</t>
+  </si>
+  <si>
+    <t>领导作风的特点</t>
+  </si>
+  <si>
+    <t>从属性，行业性，外在性，时代性，稳定性</t>
+  </si>
+  <si>
+    <t>领导作风的本质</t>
+  </si>
+  <si>
+    <t>是世界观，人生观，价值观的体现，社会主义条件下，是共产党党性原则的体现</t>
+  </si>
+  <si>
+    <t>领导作风的意义</t>
+  </si>
+  <si>
+    <t>领导性质的保证，领导影响力的，群众积极性的保证，党风的保证</t>
+  </si>
+  <si>
+    <t>思想作风的含义</t>
+  </si>
+  <si>
+    <t>解放思想，实事求是</t>
+  </si>
+  <si>
+    <t>学习作风的含义</t>
   </si>
   <si>
     <t>理论联系实际</t>
-  </si>
-  <si>
-    <t>疏导</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本原则</t>
-  </si>
-  <si>
-    <t>表扬和批评</t>
-  </si>
-  <si>
-    <t>疏通</t>
-  </si>
-  <si>
-    <t>集思广益，把心里话说出来</t>
-  </si>
-  <si>
-    <t>思想政治工作的方法</t>
-  </si>
-  <si>
-    <t>说理</t>
-  </si>
-  <si>
-    <t>精神奖励和物质奖励</t>
-  </si>
-  <si>
-    <t>引到</t>
-  </si>
-  <si>
-    <t>循循善诱，说服教育的方法，把不正确的思想引导正确的是想上</t>
-  </si>
-  <si>
-    <t>领导者开展思想政治工作的方针，原则，方法</t>
-  </si>
-  <si>
-    <t>引导</t>
-  </si>
-  <si>
-    <t>思想问题和实际问题</t>
-  </si>
-  <si>
-    <t>榜样</t>
-  </si>
-  <si>
-    <t>结合业务一道做</t>
-  </si>
-  <si>
-    <t>心里</t>
-  </si>
-  <si>
-    <t>言传身教结合</t>
-  </si>
-  <si>
-    <t>感情</t>
-  </si>
-  <si>
-    <t>循循善诱，循序渐进</t>
-  </si>
-  <si>
-    <t>自我</t>
-  </si>
-  <si>
-    <t>思想教育，行政管理</t>
-  </si>
-  <si>
-    <t>领导体制的内涵</t>
-  </si>
-  <si>
-    <t>权力划分</t>
-  </si>
-  <si>
-    <t>根本性</t>
-  </si>
-  <si>
-    <t>自上而下的权力层级和数量</t>
-  </si>
-  <si>
-    <t>领导体制的特征</t>
-  </si>
-  <si>
-    <t>组织机构</t>
-  </si>
-  <si>
-    <t>领导层次的含义</t>
-  </si>
-  <si>
-    <t>领导干部管理的制度安排</t>
-  </si>
-  <si>
-    <t>稳定性</t>
-  </si>
-  <si>
-    <t>工作任务的性质</t>
-  </si>
-  <si>
-    <t>领导宽度（幅度）的含义</t>
-  </si>
-  <si>
-    <t>直接指挥下属的数量</t>
-  </si>
-  <si>
-    <t>规范性</t>
-  </si>
-  <si>
-    <t>工作的难易程度和近似度</t>
-  </si>
-  <si>
-    <t>领导体制的二重性</t>
-  </si>
-  <si>
-    <t>自然属性，领导体制的普遍性，社会属性，领导体制的特殊性</t>
-  </si>
-  <si>
-    <t>组织中成员的素质</t>
-  </si>
-  <si>
-    <t>领导组织的原则</t>
-  </si>
-  <si>
-    <t>目标性，统一性，适应性</t>
-  </si>
-  <si>
-    <t>领导者的能力</t>
-  </si>
-  <si>
-    <t>领导组织结构</t>
-  </si>
-  <si>
-    <t>直接领导，职能式领导，复合式，举证，置业部</t>
-  </si>
-  <si>
-    <t>组织的凝聚力</t>
-  </si>
-  <si>
-    <t>领导的层次与宽度（幅度）的关系</t>
-  </si>
-  <si>
-    <t>领导信息系统和技术的先进性</t>
-  </si>
-  <si>
-    <t>领导组织机构的构成</t>
-  </si>
-  <si>
-    <t>执行机构</t>
-  </si>
-  <si>
-    <t>监督机构</t>
-  </si>
-  <si>
-    <t>领导体制的作用</t>
-  </si>
-  <si>
-    <t>领导活动有序开展的保障，领导目标实现的手段，制约着领导主体，觉得这领导的绩效，组织未来的命运</t>
-  </si>
-  <si>
-    <t>集权制的含义</t>
-  </si>
-  <si>
-    <t>重大问题的决定权在上级领导手中，下级对上级有无条件的服从</t>
-  </si>
-  <si>
-    <t>下级领导在管辖范围内有一定的自主权，上级对下级不得随意干扰</t>
-  </si>
-  <si>
-    <t>分权制的含义</t>
-  </si>
-  <si>
-    <t>完整制的含义</t>
-  </si>
-  <si>
-    <t>同一领导层次的各级机关，均受上层领导统一指挥控制</t>
-  </si>
-  <si>
-    <t>集权制</t>
-  </si>
-  <si>
-    <t>统一管理</t>
-  </si>
-  <si>
-    <t>分权</t>
-  </si>
-  <si>
-    <t>高效，灵活</t>
-  </si>
-  <si>
-    <t>分离制的含义</t>
-  </si>
-  <si>
-    <t>同一层领导收到两个以上不同的领导机关控制指挥的机制</t>
-  </si>
-  <si>
-    <t>快速高效的处理上一级的任务</t>
-  </si>
-  <si>
-    <t>可以培养新人</t>
-  </si>
-  <si>
-    <t>一长制的含义</t>
-  </si>
-  <si>
-    <t>法定最高决策权在一位领导者掌握</t>
-  </si>
-  <si>
-    <t>将有用的资源分离分配</t>
-  </si>
-  <si>
-    <t>调动下级的积极性</t>
-  </si>
-  <si>
-    <t>委员会制的含义</t>
-  </si>
-  <si>
-    <t>法定最高决策权在两位以上的领导组成的委员会掌握</t>
-  </si>
-  <si>
-    <t>防止官僚</t>
-  </si>
-  <si>
-    <t>层次制的含义</t>
-  </si>
-  <si>
-    <t>领导机会在纵向上划分诺肝层，每一层对上一层负责，类似于金字塔</t>
-  </si>
-  <si>
-    <t>灵活性差</t>
-  </si>
-  <si>
-    <t>职能制的含义</t>
-  </si>
-  <si>
-    <t>根据业务不同设立不同职能部门，辅助领导机关的实施领导</t>
-  </si>
-  <si>
-    <t>对上级依赖</t>
-  </si>
-  <si>
-    <t>很难统一管理</t>
-  </si>
-  <si>
-    <t>无法调动积极性</t>
-  </si>
-  <si>
-    <t>容易出现本位主义</t>
-  </si>
-  <si>
-    <t>资产阶级民主制领导体制的特征</t>
-  </si>
-  <si>
-    <t>政党政治，政党竞选制，实行轮流执行，政党来集中统治阶级的意志，协调矛盾，处理政府机关活动</t>
-  </si>
-  <si>
-    <t>组织之间差距被拉开</t>
-  </si>
-  <si>
-    <t>集权制与分权制的特优缺点</t>
-  </si>
-  <si>
-    <t>议会制，由群众普选代表，负责法律和国家大事</t>
-  </si>
-  <si>
-    <t>比例与协调</t>
-  </si>
-  <si>
-    <t>完整制与分离制的优缺点</t>
-  </si>
-  <si>
-    <t>首长制，负责行政事务，但是权力限于议会收到司法议会的限制</t>
-  </si>
-  <si>
-    <t>完整制</t>
-  </si>
-  <si>
-    <t>统一指挥</t>
-  </si>
-  <si>
-    <t>分离</t>
-  </si>
-  <si>
-    <t>避免独裁</t>
-  </si>
-  <si>
-    <t>一长制与委员会制的优缺点</t>
-  </si>
-  <si>
-    <t>三权分立，立法权，行政，司法，由议会，总统，法院执行，相互制约</t>
-  </si>
-  <si>
-    <t>防止各自为政</t>
-  </si>
-  <si>
-    <t>调动积极性</t>
-  </si>
-  <si>
-    <t>层级制与职能制的优缺点</t>
-  </si>
-  <si>
-    <t>自上而下的资质结构，分权管理</t>
-  </si>
-  <si>
-    <t>公正</t>
-  </si>
-  <si>
-    <t>资源统筹全局</t>
-  </si>
-  <si>
-    <t>培养新人</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>竞争</t>
-  </si>
-  <si>
-    <t>我国现行领导体制的本质特征</t>
-  </si>
-  <si>
-    <t>人民群众主人地位</t>
-  </si>
-  <si>
-    <t>领导权集中</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>容易独裁</t>
-  </si>
-  <si>
-    <t>我国现行领导体制的主要问题</t>
-  </si>
-  <si>
-    <t>中共为核心</t>
-  </si>
-  <si>
-    <t>组织机构不尽合理</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>我国领导体制改革的原则</t>
-  </si>
-  <si>
-    <t>中央集权统一领导</t>
-  </si>
-  <si>
-    <t>领导体制建设邂逅</t>
-  </si>
-  <si>
-    <t>我国领导体制改革的内容</t>
-  </si>
-  <si>
-    <t>领导权力划分科学化</t>
-  </si>
-  <si>
-    <t>政党关系规范化</t>
-  </si>
-  <si>
-    <t>领导组织机构设置合理化</t>
-  </si>
-  <si>
-    <t>领导制度建设发指挥</t>
-  </si>
-  <si>
-    <t>领导者素质的内涵</t>
-  </si>
-  <si>
-    <t>与职位相符的领导主体，为了履行领导职责，所具备的价值理念行为能力</t>
-  </si>
-  <si>
-    <t>实施有效领导的基础</t>
-  </si>
-  <si>
-    <t>领导者素质的特点</t>
-  </si>
-  <si>
-    <t>动态性</t>
-  </si>
-  <si>
-    <t>自治性</t>
-  </si>
-  <si>
-    <t>领导力的基础</t>
-  </si>
-  <si>
-    <t>领导者素质的重要性</t>
-  </si>
-  <si>
-    <t>决定着领导绩效的高低</t>
-  </si>
-  <si>
-    <t>兴衰存亡</t>
-  </si>
-  <si>
-    <t>【政治素质】的含义</t>
-  </si>
-  <si>
-    <t>领导者从事领导活动所具备的政治立场，政治观念，政治态度，正式品质</t>
-  </si>
-  <si>
-    <t>【道德素质】的含义</t>
-  </si>
-  <si>
-    <t>领导者的品德修养，道德规范</t>
-  </si>
-  <si>
-    <t>【知识素质】的含义</t>
-  </si>
-  <si>
-    <t>做好工作所具备的基础知识和专业知识</t>
-  </si>
-  <si>
-    <t>领导者【政治素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>崇高的政治理想，高度的政治责任感，理性的民主政治自觉</t>
-  </si>
-  <si>
-    <t>领导者【法律素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>掌握法律知识，具有法律意识，注重职务守法</t>
-  </si>
-  <si>
-    <t>领导者【能力素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>科学的决策能力，知人善任的能力，激励能力，沟通能力，创新能力，危机管理能力</t>
-  </si>
-  <si>
-    <t>领导者【道德素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>忠诚于国家人民，公正廉洁，勤政尽职，严于律己宽以待人</t>
-  </si>
-  <si>
-    <t>领导者【知识素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>基础知识，专业知识，辅助知识</t>
-  </si>
-  <si>
-    <t>重视学习</t>
-  </si>
-  <si>
-    <t>领导者【身心素质】的【内容】</t>
-  </si>
-  <si>
-    <t>正确认识自我，快熔他人</t>
-  </si>
-  <si>
-    <t>注重实践</t>
-  </si>
-  <si>
-    <t>领导者提高和培养素质的基本途径</t>
-  </si>
-  <si>
-    <t>财富权力</t>
-  </si>
-  <si>
-    <t>正确看待财富权力，保持从容</t>
-  </si>
-  <si>
-    <t>注意自省</t>
-  </si>
-  <si>
-    <t>当前领导者提高素质的基本方法</t>
-  </si>
-  <si>
-    <t>工作生活</t>
-  </si>
-  <si>
-    <t>正确对待工作和生活，避免浮躁</t>
-  </si>
-  <si>
-    <t>健全制度</t>
-  </si>
-  <si>
-    <t>气质</t>
-  </si>
-  <si>
-    <t>注意气质，融入环境</t>
-  </si>
-  <si>
-    <t>领导者集体素质结构的含义</t>
-  </si>
-  <si>
-    <t>各领导之间按一定关系组合在一起的集体领导整体</t>
-  </si>
-  <si>
-    <t>年龄结构要阶梯</t>
-  </si>
-  <si>
-    <t>领导集体素质结构的特征</t>
-  </si>
-  <si>
-    <t>整体，相关，目的，稳定，适应</t>
-  </si>
-  <si>
-    <t>知识结构要合理</t>
-  </si>
-  <si>
-    <t>合理的领导集体素质结构的基本内容</t>
-  </si>
-  <si>
-    <t>能力结构要互补</t>
-  </si>
-  <si>
-    <t>领导集体素质结构优化的原则</t>
-  </si>
-  <si>
-    <t>主动性</t>
-  </si>
-  <si>
-    <t>气质结构要协调</t>
-  </si>
-  <si>
-    <t>优化领导集体素质结构的途径</t>
-  </si>
-  <si>
-    <t>互补性</t>
-  </si>
-  <si>
-    <t>转变观念是前提</t>
-  </si>
-  <si>
-    <t>当前中国领导集体素质结构优化的原则和方法</t>
-  </si>
-  <si>
-    <t>静感性</t>
-  </si>
-  <si>
-    <t>搞好后背队伍建设是基础</t>
-  </si>
-  <si>
-    <t>加强集体自身建设是根本</t>
-  </si>
-  <si>
-    <t>改善干部管理制度是保证</t>
-  </si>
-  <si>
-    <t>领导方法的含义</t>
-  </si>
-  <si>
-    <t>领导者履行职责，完成领导目标，所需要的方法，手段的综合</t>
-  </si>
-  <si>
-    <t>领导方法在领导活动中处于中介地位</t>
-  </si>
-  <si>
-    <t>领导方法的特征</t>
-  </si>
-  <si>
-    <t>客观性，动态性，目的性，条件性，时效性</t>
-  </si>
-  <si>
-    <t>科学的领导方法是提高效率的推进器</t>
-  </si>
-  <si>
-    <t>运用领导方法的重要意义</t>
-  </si>
-  <si>
-    <t>科学的领导方法是现代领导的必备条件</t>
-  </si>
-  <si>
-    <t>运用领导方法的基本原则</t>
-  </si>
-  <si>
-    <t>目的性原则，创造性原则，具体性原则，高效性原则</t>
-  </si>
-  <si>
-    <t>战略性思维方法的特征</t>
-  </si>
-  <si>
-    <t>预见性，长远性，综合性，全局性</t>
-  </si>
-  <si>
-    <t>创造性思维的特征</t>
-  </si>
-  <si>
-    <t>独特性，求异性，灵活性，敏捷性，跳跃性，联动性，综合性</t>
-  </si>
-  <si>
-    <t>创造性思维原理</t>
-  </si>
-  <si>
-    <t>陌生原理，逆向原理，聚焦原理，综合原理</t>
-  </si>
-  <si>
-    <t>辩证逻辑思维方法</t>
-  </si>
-  <si>
-    <t>比较抽象概括的方法，分析综合，归纳演义的方法，抽象具体，历史逻辑统一的方法</t>
-  </si>
-  <si>
-    <t>系统性思维方法</t>
-  </si>
-  <si>
-    <t>整体性思维，动态性思维，结构性思维</t>
-  </si>
-  <si>
-    <t>改善战略性思维方法的途径</t>
-  </si>
-  <si>
-    <t>正确认识过去现在未来之间的本质联系，找到规律，完善预见能力</t>
-  </si>
-  <si>
-    <t>创造性思维方法</t>
-  </si>
-  <si>
-    <t>发挥个人的直接，灵感，想象力，进行创造性思维，发挥集体智慧进行创造性思维，信息交合法</t>
-  </si>
-  <si>
-    <t>领导者思维方法的训练和应用</t>
-  </si>
-  <si>
-    <t>典型调查的含义</t>
-  </si>
-  <si>
-    <t>根据一定调查目的，在调查对象中，通过科学分析对有一定规律的对象，选择若干个体，进行深入研究</t>
-  </si>
-  <si>
-    <t>抽样调查的含义</t>
-  </si>
-  <si>
-    <t>在调查对象中，抽取一部分进行调查分析，通过个别推论全部</t>
-  </si>
-  <si>
-    <t>普遍调查的含义</t>
-  </si>
-  <si>
-    <t>全部个体进行无遗漏的调查</t>
-  </si>
-  <si>
-    <t>系统领导法的含义</t>
-  </si>
-  <si>
-    <t>从领导活动的整体性出发，根据领导活动的空间结构，运行过程进行最优设计，从而实现最有效率的科学方法</t>
-  </si>
-  <si>
-    <t>信息方法的含义</t>
-  </si>
-  <si>
-    <t>通过信息的观点，把系统看做，输入，传递，加工，反馈，从而实现目标性活动的一种方法</t>
-  </si>
-  <si>
-    <t>控制论方法的含义</t>
-  </si>
-  <si>
-    <t>把人的行为，目的，生理基础与电子，机械运动结合起来，通过解决控制与被控制的矛盾，似的稳定进行的一种方法</t>
-  </si>
-  <si>
-    <t>基本领导方法的内容</t>
-  </si>
-  <si>
-    <t>一切从实际出发，调查研究，按辩证法的规律办事 ，坚持群众路线</t>
-  </si>
-  <si>
-    <t>系统论方法的内容</t>
-  </si>
-  <si>
-    <t>信息论方法的内容</t>
-  </si>
-  <si>
-    <t>控制论方法的内容</t>
-  </si>
-  <si>
-    <t>基本领导方法的应用</t>
-  </si>
-  <si>
-    <t>现在科学领导方法的应用</t>
-  </si>
-  <si>
-    <t>系统论，控制论，信息论</t>
-  </si>
-  <si>
-    <t>系统掌握基本领导方法和现在科学领导方法</t>
-  </si>
-  <si>
-    <t>领导艺术的含义</t>
-  </si>
-  <si>
-    <t>领导在履行领导职责的过程中，灵活运用，领导原则，领导条件，领导方法的技能技巧</t>
-  </si>
-  <si>
-    <t>领导艺术的定位</t>
-  </si>
-  <si>
-    <t>领导科学，领导经验，领导方法</t>
-  </si>
-  <si>
-    <t>领导艺术的特征</t>
-  </si>
-  <si>
-    <t>个性与共性，科学与经验，清晰与模糊，规范与创造性，原则和灵活</t>
-  </si>
-  <si>
-    <t>授权的含义</t>
-  </si>
-  <si>
-    <t>在领导的范围内，委托下属处理事物的权力，在其监督下拥有自主行动权</t>
-  </si>
-  <si>
-    <t>刚性授权的含义</t>
-  </si>
-  <si>
-    <t>领导者对授权的事务有明确的规定，被领导者必须严格遵循</t>
-  </si>
-  <si>
-    <t>惰性授权的含义</t>
-  </si>
-  <si>
-    <t>领导自己做的，和不知道怎么做的都交给下属来处理</t>
-  </si>
-  <si>
-    <t>模糊授权的含义</t>
-  </si>
-  <si>
-    <t>指向下属提出要做什么，和达到的目标，至于下属怎么处理，领导不加干预</t>
-  </si>
-  <si>
-    <t>口头授权的含义</t>
-  </si>
-  <si>
-    <t>领导者将部分事务通过口头的方式通知下属</t>
-  </si>
-  <si>
-    <t>书面授权的含义</t>
-  </si>
-  <si>
-    <t>围绕目标，明确要求</t>
-  </si>
-  <si>
-    <t>突发性事件的含义</t>
-  </si>
-  <si>
-    <t>超出常规，具有较大影响的</t>
-  </si>
-  <si>
-    <t>因事择人，视能授权</t>
-  </si>
-  <si>
-    <t>领导授权的类型，根据授权的具体内容划分</t>
-  </si>
-  <si>
-    <t>刚性，惰性，模糊，弹性</t>
-  </si>
-  <si>
-    <t>把握尺度，适度授权</t>
-  </si>
-  <si>
-    <t>领导授权的类型，根据授权行为的形式划分</t>
-  </si>
-  <si>
-    <t>口头和书面，个人和群体，长期和短期，逐级和越级</t>
-  </si>
-  <si>
-    <t>尊重分工，逐级授权</t>
-  </si>
-  <si>
-    <t>民主监督，公开授权</t>
-  </si>
-  <si>
-    <t>正副职的关系定位</t>
-  </si>
-  <si>
-    <t>承担的角色责任不同，但是属于同一个领导集体，组织，上下级，工作，协作，从程序，集中和民主</t>
-  </si>
-  <si>
-    <t>强化责任，可控授权</t>
-  </si>
-  <si>
-    <t>开会必须遵循的原则</t>
-  </si>
-  <si>
-    <t>超前，有效，善后</t>
-  </si>
-  <si>
-    <t>突发性事件的特征</t>
-  </si>
-  <si>
-    <t>突发性，不确定型，危害性，扩散性，集聚性</t>
-  </si>
-  <si>
-    <t>确认时间性质</t>
-  </si>
-  <si>
-    <t>领导授权的要点</t>
-  </si>
-  <si>
-    <t>以人为本，救人</t>
-  </si>
-  <si>
-    <t>领导沟通艺术的基本内容及其要点</t>
-  </si>
-  <si>
-    <t>接待，谈判 ，表扬批评，劝说疏导，电话蜀汉的沟通</t>
-  </si>
-  <si>
-    <t>主动出击，控制事态</t>
-  </si>
-  <si>
-    <t>当好正副职的艺术</t>
-  </si>
-  <si>
-    <t>把握全局</t>
-  </si>
-  <si>
-    <t>领导者运筹时间的艺术要点</t>
-  </si>
-  <si>
-    <t>集中时间，节约时间，扩大时间的容量，又花时间利用</t>
-  </si>
-  <si>
-    <t>打破常规，创造性化解危机</t>
-  </si>
-  <si>
-    <t>主持会议的技巧</t>
-  </si>
-  <si>
-    <t>严格会议的作风，控制进程，解决问题，指定守则</t>
-  </si>
-  <si>
-    <t>加强沟通，主导晕轮</t>
-  </si>
-  <si>
-    <t>处理突发性事件的艺术</t>
-  </si>
-  <si>
-    <t>整合资源，协力行动</t>
-  </si>
-  <si>
-    <t>中国领导者应该具备的领导艺术的要点</t>
-  </si>
-  <si>
-    <t>山后，避免重蹈覆辙</t>
-  </si>
-  <si>
-    <t>政客权术的含义</t>
-  </si>
-  <si>
-    <t>正科为了自己的权力，耍弄计谋的行为</t>
-  </si>
-  <si>
-    <t>领导艺术与政客权术的区别</t>
-  </si>
-  <si>
-    <t>目的不同，性质不同，行为不铜，趋势不同</t>
-  </si>
-  <si>
-    <t>提高领导艺术水平的途径</t>
-  </si>
-  <si>
-    <t>保持领导艺术的先进性</t>
-  </si>
-  <si>
-    <t>提高科学性</t>
-  </si>
-  <si>
-    <t>加强创造性</t>
-  </si>
-  <si>
-    <t>把我规律性</t>
-  </si>
-  <si>
-    <t>领导作风的含义</t>
-  </si>
-  <si>
-    <t>在领导活动中表现出来的，稳定性，习惯性，态度言行</t>
-  </si>
-  <si>
-    <t>领导作风的特点</t>
-  </si>
-  <si>
-    <t>从属性，行业性，外在性，时代性，稳定性</t>
-  </si>
-  <si>
-    <t>领导作风的本质</t>
-  </si>
-  <si>
-    <t>是世界观，人生观，价值观的体现，社会主义条件下，是共产党党性原则的体现</t>
-  </si>
-  <si>
-    <t>领导作风的意义</t>
-  </si>
-  <si>
-    <t>领导性质的保证，领导影响力的，群众积极性的保证，党风的保证</t>
-  </si>
-  <si>
-    <t>思想作风的含义</t>
-  </si>
-  <si>
-    <t>解放思想，实事求是</t>
-  </si>
-  <si>
-    <t>学习作风的含义</t>
   </si>
   <si>
     <t>工作作风的含义</t>
@@ -2841,10 +2784,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2885,9 +2828,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2898,11 +2849,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2921,50 +2871,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2974,15 +2880,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3004,9 +2911,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3021,15 +2971,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3044,19 +2987,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3068,7 +3041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3080,49 +3059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3140,7 +3083,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3152,37 +3107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3194,7 +3119,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3206,13 +3143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3224,7 +3155,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3238,11 +3181,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3252,21 +3201,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3286,32 +3220,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3335,153 +3263,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4202,190 +4145,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -4410,246 +4353,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -4674,34 +4617,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4709,57 +4652,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>571</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4767,18 +4710,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -4803,206 +4746,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -7408,8 +7351,8 @@
   <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -7739,253 +7682,216 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="N3" s="1" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="14:14">
-      <c r="N4" s="1" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="N5" s="1" t="s">
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G6" s="1" t="s">
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="N6" s="1" t="s">
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="N7" s="1" t="s">
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H8" s="1" t="s">
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -8010,24 +7916,24 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>448</v>
@@ -8035,353 +7941,353 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>548</v>
+        <v>645</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -8406,67 +8312,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -8474,158 +8380,158 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>591</v>
+        <v>700</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="6:8">
@@ -8633,12 +8539,12 @@
         <v>357</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1711,34 +1711,106 @@
     <t>法治教育</t>
   </si>
   <si>
+    <t>思想政治工作的方针</t>
+  </si>
+  <si>
+    <t>方针是坚持【疏导，疏通，引导】</t>
+  </si>
+  <si>
+    <t>疏通是【广开言路，集思广益】，在发展民主的基础上让人们畅所欲言，【把自己的心里话说出来】</t>
+  </si>
+  <si>
+    <t>引导就是采用【循循善诱，说服教育的方法】，把各种【不正确的思想引向正确的方向和轨道】</t>
+  </si>
+  <si>
+    <t>疏通是引导的基础，引导是疏通的目的和归宿</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本原则</t>
+  </si>
+  <si>
+    <t>【理论联系实际】原则</t>
+  </si>
+  <si>
+    <t>【结合业务工作一道做】原则</t>
+  </si>
+  <si>
+    <t>【解决思想问题与解决实际问题相结合】的原则</t>
+  </si>
+  <si>
+    <t>【表扬和批评相结合】的原则</t>
+  </si>
+  <si>
+    <t>【精神鼓励与物质鼓励相结合】的原则</t>
+  </si>
+  <si>
+    <t>【言传与身教相结合】的原则</t>
+  </si>
+  <si>
+    <t>【循循善诱，循序渐进】的原则</t>
+  </si>
+  <si>
+    <t>【思想政治教育和加强行政管理，严格组织纪律相结合】的原则</t>
+  </si>
+  <si>
+    <t>思想政治工作的方法</t>
+  </si>
+  <si>
+    <t>说理教育法</t>
+  </si>
+  <si>
+    <t>情感交流法</t>
+  </si>
+  <si>
+    <t>个别引导法</t>
+  </si>
+  <si>
+    <t>心理咨询法</t>
+  </si>
+  <si>
+    <t>榜样示范法</t>
+  </si>
+  <si>
+    <t>自我教育法</t>
+  </si>
+  <si>
     <t>说理教育法的含义</t>
   </si>
   <si>
+    <t>领导者通过【向思想政治工作的对象】【讲解有关理论和道理】，【以道理说服对方】，从而使【对方转变思想的一种方法】</t>
+  </si>
+  <si>
     <t>情感交流法的含义</t>
   </si>
   <si>
+    <t>领导者通过【与思想政治工作的对象】相互【交流情感】，【以情感去感动对方】，从而使对方【转变思想的一种方法】</t>
+  </si>
+  <si>
     <t>个别引导法的含义</t>
   </si>
   <si>
+    <t>领导者【对个别对象】因时因地采用不同的【具体方式】，【手段】进行【有针对性的思想政治工作的一种方式】</t>
+  </si>
+  <si>
     <t>心里咨询法的含义</t>
   </si>
   <si>
+    <t>领导者运【用心理学的原理和方法】，【帮助咨询对象发现自身的问题和问题根源】，【挖掘潜在的能力】，</t>
+  </si>
+  <si>
+    <t>【改变原有的认知结构和行为模式】，【以提高对生活的适应性和调节周围环境的能力】</t>
+  </si>
+  <si>
     <t>榜样示范法的含义</t>
   </si>
   <si>
+    <t>以先进典型为榜样，以【先进人物的先进思想】和先进事迹【为范例】来【教育工作对象】，以【提高他们思想觉悟的一种方式】</t>
+  </si>
+  <si>
     <t>自我教育法的含义</t>
   </si>
   <si>
-    <t>思想政治工作的方针</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本原则</t>
-  </si>
-  <si>
-    <t>思想政治工作的方法</t>
-  </si>
-  <si>
-    <t>领导者开展思想政治工作的方针，原则，方法</t>
+    <t>思想政治工作对象通过【自觉学习】，【加强思想修养】，【主动接受积极影响】，克服消极影响，从而【不断完善自己的个性和思想品德的一种方法】</t>
   </si>
   <si>
     <t>领导体制的内涵</t>
@@ -2828,7 +2900,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2842,22 +2950,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2871,48 +2990,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2927,14 +3007,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2949,9 +3030,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2962,17 +3043,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2993,7 +3065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3005,19 +3077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3029,13 +3089,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3047,49 +3131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3113,19 +3161,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3143,7 +3185,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3161,13 +3227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,6 +3250,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3196,11 +3301,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3216,30 +3327,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3263,168 +3350,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4145,190 +4217,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -4353,246 +4425,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>814</v>
+        <v>838</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>835</v>
+        <v>859</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -4617,34 +4689,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4652,57 +4724,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4710,18 +4782,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -4746,206 +4818,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>889</v>
+        <v>913</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>890</v>
+        <v>914</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>891</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>892</v>
+        <v>916</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>893</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>895</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>896</v>
+        <v>920</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>897</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>899</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>900</v>
+        <v>924</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>901</v>
+        <v>925</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>904</v>
+        <v>928</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>905</v>
+        <v>929</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>906</v>
+        <v>930</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>909</v>
+        <v>933</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>910</v>
+        <v>934</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>911</v>
+        <v>935</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>912</v>
+        <v>936</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -7682,10 +7754,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -7844,28 +7916,28 @@
         <v>560</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="5" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
         <v>565</v>
       </c>
     </row>
@@ -7874,24 +7946,144 @@
         <v>566</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
         <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -7916,24 +8108,24 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>448</v>
@@ -7941,353 +8133,353 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="3" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="11:18">
       <c r="K26" s="1" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="1" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="1" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="1" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="1" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -8312,67 +8504,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -8380,158 +8572,158 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="6:8">
@@ -8539,12 +8731,12 @@
         <v>357</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="900" activeTab="6"/>
+    <workbookView windowHeight="17020" tabRatio="900" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1816,304 +1816,175 @@
     <t>领导体制的内涵</t>
   </si>
   <si>
-    <t>权力划分</t>
+    <t>领导体制是一种【权限划分】的【制度体系】</t>
+  </si>
+  <si>
+    <t>领导体制体现为一定的【组织机构】</t>
+  </si>
+  <si>
+    <t>领导体制是【领导干部管理】的一系列【制度安排】</t>
+  </si>
+  <si>
+    <t>领导体制的特征</t>
   </si>
   <si>
     <t>根本性</t>
   </si>
   <si>
-    <t>自上而下的权力层级和数量</t>
-  </si>
-  <si>
-    <t>领导体制的特征</t>
-  </si>
-  <si>
-    <t>组织机构</t>
+    <t>规范性</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>领导体制的二重性</t>
+  </si>
+  <si>
+    <t>自然属性：领导体制的普遍性，共性</t>
+  </si>
+  <si>
+    <t>社会属性：领导体制的特殊性，个性</t>
+  </si>
+  <si>
+    <t>领导组织的原则</t>
+  </si>
+  <si>
+    <t>目标性原则</t>
+  </si>
+  <si>
+    <t>统一性原则</t>
+  </si>
+  <si>
+    <t>适应性原则</t>
+  </si>
+  <si>
+    <t>领导组织结构</t>
+  </si>
+  <si>
+    <t>直线式领导结构</t>
+  </si>
+  <si>
+    <t>职能式领导结构</t>
+  </si>
+  <si>
+    <t>复合式领导结构（直线职能）</t>
+  </si>
+  <si>
+    <t>矩阵式领导结构</t>
+  </si>
+  <si>
+    <t>事业部式领导结构</t>
   </si>
   <si>
     <t>领导层次的含义</t>
   </si>
   <si>
-    <t>领导干部管理的制度安排</t>
-  </si>
-  <si>
-    <t>稳定性</t>
-  </si>
-  <si>
-    <t>工作任务的性质</t>
+    <t>是指组织系统中【自上而下】的实施【指挥与监督】的【权力层级数量】，即该组织系统中设置多少层级进行领导和管理</t>
+  </si>
+  <si>
+    <t>影响领导的层次与宽度（幅度）的关系</t>
+  </si>
+  <si>
+    <t>工作【任务的性质】</t>
+  </si>
+  <si>
+    <t>工作内容的【难易程度与近似程度】</t>
+  </si>
+  <si>
+    <t>组织【成员素质】水平</t>
+  </si>
+  <si>
+    <t>【领导者能力】状况</t>
+  </si>
+  <si>
+    <t>组织文化的【凝聚力】</t>
+  </si>
+  <si>
+    <t>领导信息【系统】和【技术】的【先进程度】</t>
+  </si>
+  <si>
+    <t>领导组织机构的构成</t>
+  </si>
+  <si>
+    <t>【执行】机构</t>
+  </si>
+  <si>
+    <t>【监督】机构</t>
   </si>
   <si>
     <t>领导宽度（幅度）的含义</t>
   </si>
   <si>
-    <t>直接指挥下属的数量</t>
-  </si>
-  <si>
-    <t>规范性</t>
-  </si>
-  <si>
-    <t>工作的难易程度和近似度</t>
-  </si>
-  <si>
-    <t>领导体制的二重性</t>
-  </si>
-  <si>
-    <t>自然属性，领导体制的普遍性，社会属性，领导体制的特殊性</t>
-  </si>
-  <si>
-    <t>组织中成员的素质</t>
-  </si>
-  <si>
-    <t>领导组织的原则</t>
-  </si>
-  <si>
-    <t>目标性，统一性，适应性</t>
-  </si>
-  <si>
-    <t>领导者的能力</t>
-  </si>
-  <si>
-    <t>领导组织结构</t>
-  </si>
-  <si>
-    <t>直接领导，职能式领导，复合式，举证，置业部</t>
-  </si>
-  <si>
-    <t>组织的凝聚力</t>
-  </si>
-  <si>
-    <t>领导的层次与宽度（幅度）的关系</t>
-  </si>
-  <si>
-    <t>领导信息系统和技术的先进性</t>
-  </si>
-  <si>
-    <t>领导组织机构的构成</t>
-  </si>
-  <si>
-    <t>执行机构</t>
-  </si>
-  <si>
-    <t>监督机构</t>
+    <t>领导【直接指挥】的【下属数量】</t>
   </si>
   <si>
     <t>领导体制的作用</t>
   </si>
   <si>
-    <t>领导活动有序开展的保障，领导目标实现的手段，制约着领导主体，觉得这领导的绩效，组织未来的命运</t>
+    <t>领导体制是【领导活动有序开展】的【制度保障】</t>
+  </si>
+  <si>
+    <t>领导体制是【实现领导目标】的重要【手段】</t>
+  </si>
+  <si>
+    <t>领导体制从根本上【制约着领导主体】</t>
+  </si>
+  <si>
+    <t>领导体制从根本上【决定着领导绩效】</t>
+  </si>
+  <si>
+    <t>领导体制关系到【组织的前途命运】</t>
   </si>
   <si>
     <t>集权制的含义</t>
   </si>
   <si>
-    <t>重大问题的决定权在上级领导手中，下级对上级有无条件的服从</t>
-  </si>
-  <si>
-    <t>下级领导在管辖范围内有一定的自主权，上级对下级不得随意干扰</t>
-  </si>
-  <si>
     <t>分权制的含义</t>
   </si>
   <si>
     <t>完整制的含义</t>
   </si>
   <si>
-    <t>同一领导层次的各级机关，均受上层领导统一指挥控制</t>
-  </si>
-  <si>
-    <t>集权制</t>
-  </si>
-  <si>
-    <t>统一管理</t>
-  </si>
-  <si>
-    <t>分权</t>
-  </si>
-  <si>
-    <t>高效，灵活</t>
-  </si>
-  <si>
     <t>分离制的含义</t>
   </si>
   <si>
-    <t>同一层领导收到两个以上不同的领导机关控制指挥的机制</t>
-  </si>
-  <si>
-    <t>快速高效的处理上一级的任务</t>
-  </si>
-  <si>
-    <t>可以培养新人</t>
-  </si>
-  <si>
     <t>一长制的含义</t>
   </si>
   <si>
-    <t>法定最高决策权在一位领导者掌握</t>
-  </si>
-  <si>
-    <t>将有用的资源分离分配</t>
-  </si>
-  <si>
-    <t>调动下级的积极性</t>
-  </si>
-  <si>
     <t>委员会制的含义</t>
   </si>
   <si>
-    <t>法定最高决策权在两位以上的领导组成的委员会掌握</t>
-  </si>
-  <si>
-    <t>防止官僚</t>
-  </si>
-  <si>
     <t>层次制的含义</t>
   </si>
   <si>
-    <t>领导机会在纵向上划分诺肝层，每一层对上一层负责，类似于金字塔</t>
-  </si>
-  <si>
-    <t>灵活性差</t>
-  </si>
-  <si>
     <t>职能制的含义</t>
   </si>
   <si>
-    <t>根据业务不同设立不同职能部门，辅助领导机关的实施领导</t>
-  </si>
-  <si>
-    <t>对上级依赖</t>
-  </si>
-  <si>
-    <t>很难统一管理</t>
-  </si>
-  <si>
-    <t>无法调动积极性</t>
-  </si>
-  <si>
-    <t>容易出现本位主义</t>
-  </si>
-  <si>
     <t>资产阶级民主制领导体制的特征</t>
   </si>
   <si>
-    <t>政党政治，政党竞选制，实行轮流执行，政党来集中统治阶级的意志，协调矛盾，处理政府机关活动</t>
-  </si>
-  <si>
-    <t>组织之间差距被拉开</t>
-  </si>
-  <si>
     <t>集权制与分权制的特优缺点</t>
   </si>
   <si>
-    <t>议会制，由群众普选代表，负责法律和国家大事</t>
-  </si>
-  <si>
-    <t>比例与协调</t>
-  </si>
-  <si>
     <t>完整制与分离制的优缺点</t>
   </si>
   <si>
-    <t>首长制，负责行政事务，但是权力限于议会收到司法议会的限制</t>
-  </si>
-  <si>
-    <t>完整制</t>
-  </si>
-  <si>
-    <t>统一指挥</t>
-  </si>
-  <si>
-    <t>分离</t>
-  </si>
-  <si>
-    <t>避免独裁</t>
-  </si>
-  <si>
     <t>一长制与委员会制的优缺点</t>
   </si>
   <si>
-    <t>三权分立，立法权，行政，司法，由议会，总统，法院执行，相互制约</t>
-  </si>
-  <si>
-    <t>法治</t>
-  </si>
-  <si>
-    <t>防止各自为政</t>
-  </si>
-  <si>
-    <t>调动积极性</t>
-  </si>
-  <si>
     <t>层级制与职能制的优缺点</t>
   </si>
   <si>
-    <t>自上而下的资质结构，分权管理</t>
-  </si>
-  <si>
-    <t>公正</t>
-  </si>
-  <si>
-    <t>资源统筹全局</t>
-  </si>
-  <si>
-    <t>培养新人</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>竞争</t>
-  </si>
-  <si>
     <t>我国现行领导体制的本质特征</t>
   </si>
   <si>
-    <t>人民群众主人地位</t>
-  </si>
-  <si>
-    <t>领导权集中</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>容易独裁</t>
-  </si>
-  <si>
     <t>我国现行领导体制的主要问题</t>
   </si>
   <si>
-    <t>中共为核心</t>
-  </si>
-  <si>
-    <t>组织机构不尽合理</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
     <t>我国领导体制改革的原则</t>
   </si>
   <si>
-    <t>中央集权统一领导</t>
-  </si>
-  <si>
-    <t>领导体制建设邂逅</t>
-  </si>
-  <si>
     <t>我国领导体制改革的内容</t>
-  </si>
-  <si>
-    <t>领导权力划分科学化</t>
-  </si>
-  <si>
-    <t>政党关系规范化</t>
-  </si>
-  <si>
-    <t>领导组织机构设置合理化</t>
-  </si>
-  <si>
-    <t>领导制度建设发指挥</t>
   </si>
   <si>
     <t>领导者素质的内涵</t>
@@ -4217,190 +4088,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>756</v>
+        <v>713</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>757</v>
+        <v>714</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>758</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>759</v>
+        <v>716</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>760</v>
+        <v>717</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>761</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>762</v>
+        <v>719</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>763</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>764</v>
+        <v>721</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>765</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>766</v>
+        <v>723</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>767</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>768</v>
+        <v>725</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>769</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>770</v>
+        <v>727</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>771</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>773</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>774</v>
+        <v>731</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>775</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>776</v>
+        <v>733</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>777</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>735</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>779</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>780</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>738</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>782</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>783</v>
+        <v>740</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>784</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>785</v>
+        <v>742</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>786</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>787</v>
+        <v>744</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>788</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>789</v>
+        <v>746</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>790</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>791</v>
+        <v>748</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>792</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>793</v>
+        <v>750</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>794</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>795</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>796</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>797</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>798</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>799</v>
+        <v>756</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>800</v>
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>801</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -4425,246 +4296,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>802</v>
+        <v>759</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>803</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>804</v>
+        <v>761</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>805</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>806</v>
+        <v>763</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>808</v>
+        <v>765</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>809</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>810</v>
+        <v>767</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>811</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>812</v>
+        <v>769</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>813</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>814</v>
+        <v>771</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>815</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>816</v>
+        <v>773</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>817</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>818</v>
+        <v>775</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>819</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>820</v>
+        <v>777</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>821</v>
+        <v>778</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>822</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>823</v>
+        <v>780</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>824</v>
+        <v>781</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>825</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>826</v>
+        <v>783</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>827</v>
+        <v>784</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>828</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>829</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>830</v>
+        <v>787</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>831</v>
+        <v>788</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>832</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>833</v>
+        <v>790</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>834</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>835</v>
+        <v>792</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>836</v>
+        <v>793</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>837</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>838</v>
+        <v>795</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>839</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>840</v>
+        <v>797</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>841</v>
+        <v>798</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>842</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>843</v>
+        <v>800</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>844</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>845</v>
+        <v>802</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>846</v>
+        <v>803</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>847</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>848</v>
+        <v>805</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>849</v>
+        <v>806</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>850</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>851</v>
+        <v>808</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>852</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>853</v>
+        <v>810</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>854</v>
+        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>855</v>
+        <v>812</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>856</v>
+        <v>813</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>857</v>
+        <v>814</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>858</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>859</v>
+        <v>816</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>860</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>861</v>
+        <v>818</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>862</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>863</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -4689,34 +4560,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>864</v>
+        <v>821</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>865</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>866</v>
+        <v>823</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>867</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>868</v>
+        <v>825</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>869</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>870</v>
+        <v>827</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>871</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4724,57 +4595,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>872</v>
+        <v>829</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>873</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>874</v>
+        <v>831</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>875</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>876</v>
+        <v>833</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>877</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>878</v>
+        <v>835</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>879</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>880</v>
+        <v>837</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>881</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>882</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>883</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>884</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4782,18 +4653,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>885</v>
+        <v>842</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>886</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>887</v>
+        <v>844</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>888</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -4818,206 +4689,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>889</v>
+        <v>846</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>890</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>891</v>
+        <v>848</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>892</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>893</v>
+        <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>894</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>895</v>
+        <v>852</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>896</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>897</v>
+        <v>854</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>898</v>
+        <v>855</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>899</v>
+        <v>856</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>900</v>
+        <v>857</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>901</v>
+        <v>858</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>902</v>
+        <v>859</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>903</v>
+        <v>860</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>904</v>
+        <v>861</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>905</v>
+        <v>862</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>906</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>907</v>
+        <v>864</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>908</v>
+        <v>865</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>909</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>910</v>
+        <v>867</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>911</v>
+        <v>868</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>912</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>913</v>
+        <v>870</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>914</v>
+        <v>871</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>915</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>916</v>
+        <v>873</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>917</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>918</v>
+        <v>875</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>919</v>
+        <v>876</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>920</v>
+        <v>877</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>921</v>
+        <v>878</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>922</v>
+        <v>879</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>923</v>
+        <v>880</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>924</v>
+        <v>881</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>925</v>
+        <v>882</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>926</v>
+        <v>883</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>927</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>928</v>
+        <v>885</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>929</v>
+        <v>886</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>930</v>
+        <v>887</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>931</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>932</v>
+        <v>889</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>933</v>
+        <v>890</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>934</v>
+        <v>891</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>935</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>936</v>
+        <v>893</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>937</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>938</v>
+        <v>895</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>939</v>
+        <v>896</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>940</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -7756,8 +7627,8 @@
   <sheetPr/>
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -8095,391 +7966,304 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="5" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="K5" s="1" t="s">
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="K6" s="1" t="s">
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="K7" s="1" t="s">
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="K8" s="1" t="s">
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="5" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="5" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="K12" s="1" t="s">
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="3" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="N14" s="1" t="s">
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="O14" s="1" t="s">
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="R14" s="1" t="s">
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="S14" s="1" t="s">
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="5" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="3" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="O15" s="1" t="s">
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="S15" s="1" t="s">
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="3" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="O16" s="1" t="s">
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="S16" s="1" t="s">
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="5" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="3" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="S17" s="1" t="s">
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="5" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="3" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="O18" s="1" t="s">
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="3" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="O19" s="1" t="s">
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="S19" s="1" t="s">
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="3"/>
-      <c r="O20" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="26" spans="11:18">
-      <c r="K26" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -8504,67 +8288,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>696</v>
+        <v>653</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>654</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>698</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>700</v>
+        <v>657</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>701</v>
+        <v>658</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>702</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>703</v>
+        <v>660</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>704</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>705</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>707</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>708</v>
+        <v>665</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>709</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>710</v>
+        <v>667</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>711</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -8572,158 +8356,158 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>712</v>
+        <v>669</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>713</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>714</v>
+        <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>715</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>716</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>717</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>718</v>
+        <v>675</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>719</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>720</v>
+        <v>677</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>721</v>
+        <v>678</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>722</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>723</v>
+        <v>680</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>724</v>
+        <v>681</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>725</v>
+        <v>682</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>726</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>727</v>
+        <v>684</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>728</v>
+        <v>685</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>729</v>
+        <v>686</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>730</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>732</v>
+        <v>689</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>733</v>
+        <v>690</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>734</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>735</v>
+        <v>692</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>736</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>737</v>
+        <v>694</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>738</v>
+        <v>695</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>739</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>740</v>
+        <v>697</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>741</v>
+        <v>698</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>742</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>743</v>
+        <v>700</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>744</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>745</v>
+        <v>702</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>746</v>
+        <v>703</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>747</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>748</v>
+        <v>705</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>749</v>
+        <v>706</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>750</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>751</v>
+        <v>708</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>752</v>
+        <v>709</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>753</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="6:8">
@@ -8731,12 +8515,12 @@
         <v>357</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>754</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>755</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="900" activeTab="7"/>
+    <workbookView windowWidth="17880" windowHeight="16420" tabRatio="900"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -2727,10 +2727,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2778,14 +2778,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2799,44 +2792,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2845,9 +2800,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2863,6 +2824,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2871,14 +2863,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2900,8 +2885,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2909,6 +2902,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2930,13 +2930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2948,19 +2948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2978,7 +2972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,19 +2984,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3014,7 +3008,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3026,13 +3032,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3044,13 +3068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3062,19 +3086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3086,31 +3098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3142,6 +3142,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3153,21 +3177,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3187,21 +3196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3213,11 +3207,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3226,145 +3226,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3743,8 +3743,8 @@
   <sheetPr/>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -7968,8 +7968,8 @@
   <sheetPr/>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17880" windowHeight="16420" tabRatio="900"/>
+    <workbookView windowHeight="17020" tabRatio="900" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -76,19 +76,19 @@
     <t>领导科学在我国兴起的原因</t>
   </si>
   <si>
-    <t>首先，领导科学的产生是新时期社会主义现代化建设的客观要求</t>
-  </si>
-  <si>
-    <t>其次，领导科学的产生是总结党的丰富领导经验和领导理论的需要</t>
-  </si>
-  <si>
-    <t>再次，领导科学的产生是借鉴古今中外领导思想和管理理论的结晶</t>
+    <t>首先，领导科学的产生是【新时期社会主义】现代化建设的客观要求</t>
+  </si>
+  <si>
+    <t>其次，领导科学的产生是【总结】党的丰富领导经验和领导理论的需要</t>
+  </si>
+  <si>
+    <t>再次，领导科学的产生是【借鉴古今中外】领导思想和管理理论的结晶</t>
   </si>
   <si>
     <t>领导科学</t>
   </si>
   <si>
-    <t>现代领导活动及其发展规律，也就是研究领导者，被领导者，群体目标和客观环境相互结合，相互作用的规律的科学</t>
+    <t>现代领导活动及其发展规律，也就是研究【领导者】，【被领导者】，【群体目标】和【客观环境】相互结合，相互作用的规律的科学</t>
   </si>
   <si>
     <t>领导活动过程基本要素</t>
@@ -106,7 +106,7 @@
     <t>客观环境</t>
   </si>
   <si>
-    <t>领导科学的范围</t>
+    <t>领导科学的范围（各种理论）</t>
   </si>
   <si>
     <t>领导本质的理论（领导和被领导者之间的关系，基本问题）</t>
@@ -157,34 +157,34 @@
     <t>领导科学与【党的建设学说】的关系</t>
   </si>
   <si>
-    <t>学习领导学科的目的（意义）</t>
-  </si>
-  <si>
-    <t>首先，学习领导科学，是全面建设小康社会，开创社会主义，现代化建设新局面的需要</t>
-  </si>
-  <si>
-    <t>其次，学习领导科学，是深化全面改革的需要</t>
-  </si>
-  <si>
-    <t>再次，学习领导科学是加强党的执行能力建设的需要</t>
-  </si>
-  <si>
-    <t>最后，学习领导科学是迎接世界新技术革命挑战的需要</t>
+    <t>学习领导学科的目的（意义，各种需要）</t>
+  </si>
+  <si>
+    <t>首先，学习领导科学，是全面建设【小康社会】，开创【社会主义，现代化建设】新局面的需要</t>
+  </si>
+  <si>
+    <t>其次，学习领导科学，是【深化全面改革】的需要</t>
+  </si>
+  <si>
+    <t>再次，学习领导科学是【加强党的执行能力建设】的需要</t>
+  </si>
+  <si>
+    <t>最后，学习领导科学是【迎接世界新技术革命挑战】的需要</t>
   </si>
   <si>
     <t>如何建设中国特色的领导科学</t>
   </si>
   <si>
-    <t>首先，必须坚持以马列主义，毛泽东思想，邓小平理论，三个代表重要思想和科学发展观为指导</t>
-  </si>
-  <si>
-    <t>其次，必须从我国现代化建设的实际出发，面对改革开放和现代化建设的实际</t>
-  </si>
-  <si>
-    <t>再次，必须继承和发扬我党的优良传统，认真总结我党的领导实践经验</t>
-  </si>
-  <si>
-    <t>最后，必须有分析的借鉴国外和我国古代的领导思想</t>
+    <t>首先，必须坚持以【马列主义，毛泽东思想，邓小平理论，三个代表】重要思想和【科学发展观】为指导</t>
+  </si>
+  <si>
+    <t>其次，必须从我国现代化建设的【实际出发】，面对改【革开放和现代化建设】的实际</t>
+  </si>
+  <si>
+    <t>再次，必须【继承和发扬】我【党的优良传统】，认真总结我党的【领导实践经验】</t>
+  </si>
+  <si>
+    <t>最后，必须有分析的【借鉴国外】和【我国古代的】领导思想</t>
   </si>
   <si>
     <t>学习领导科学的方法</t>
@@ -1936,55 +1936,241 @@
     <t>领导体制关系到【组织的前途命运】</t>
   </si>
   <si>
-    <t>集权制的含义</t>
-  </si>
-  <si>
-    <t>分权制的含义</t>
-  </si>
-  <si>
-    <t>完整制的含义</t>
-  </si>
-  <si>
-    <t>分离制的含义</t>
-  </si>
-  <si>
-    <t>一长制的含义</t>
-  </si>
-  <si>
-    <t>委员会制的含义</t>
-  </si>
-  <si>
-    <t>层次制的含义</t>
-  </si>
-  <si>
-    <t>职能制的含义</t>
-  </si>
-  <si>
     <t>资产阶级民主制领导体制的特征</t>
   </si>
   <si>
+    <t>实行政党政治，通过【政党竞选制】实行政党【轮流执行】，由【政党来集中统治阶级的意志】</t>
+  </si>
+  <si>
+    <t>【协调】统治阶级内部各个不同集团的【矛盾与利益】，通过【政党指导政府机构的活动】</t>
+  </si>
+  <si>
+    <t>实行【议会制】，议会【由公民普选】出来的【代表组成】，【负责制定法律，决定国家大事】</t>
+  </si>
+  <si>
+    <t>实行【行政长官首长】【负责制】，行政首长【掌握行政权力负责行政事务】但行政【首长的权力仅限于执行议会的决议】</t>
+  </si>
+  <si>
+    <t>【并受】【议会】以及【司法机关】的【约束】。</t>
+  </si>
+  <si>
+    <t>实行【三权分立】【立法，行政，司法】，由【议会，总统，法院】三种职能机构行使，【相互制约】</t>
+  </si>
+  <si>
+    <t>全国实行【自上而下的垂直自治结构】进行分级【分权管理】</t>
+  </si>
+  <si>
     <t>集权制与分权制的特优缺点</t>
   </si>
   <si>
+    <t>集权制</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>权利集中，政令统一，标准一致，能够统筹全局</t>
+  </si>
+  <si>
+    <t>能够统一指挥，容易做到令行禁止，便于统一调度和配置资源</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>灵活性差，应变能力低，不容易估计特殊情况</t>
+  </si>
+  <si>
+    <t>难以充分调用下级积极性，主动性和创造性</t>
+  </si>
+  <si>
+    <t>容易使下属对上级领导产生依附性</t>
+  </si>
+  <si>
+    <t>分权制</t>
+  </si>
+  <si>
+    <t>分级治事，分级负责，使下级机关和领导具有较大的灵活性，增强应变性，发挥下级积极主动性</t>
+  </si>
+  <si>
+    <t>有利于上级领导减轻工作负担，提高效率，有利于防止官僚主义</t>
+  </si>
+  <si>
+    <t>容易出现各自为政，本位主义，分散主义</t>
+  </si>
+  <si>
+    <t>协调难度比较大，不利于团体协作</t>
+  </si>
+  <si>
     <t>完整制与分离制的优缺点</t>
   </si>
   <si>
+    <t>完整制</t>
+  </si>
+  <si>
+    <t>统一指挥，责任明确，行动迅速，效率较高</t>
+  </si>
+  <si>
+    <t>便有统筹全局，协调各方</t>
+  </si>
+  <si>
+    <t>防止各自为政</t>
+  </si>
+  <si>
+    <t>容易导致独裁专断，降低应变能力</t>
+  </si>
+  <si>
+    <t>分离制</t>
+  </si>
+  <si>
+    <t>不同组织机关各司其职，发挥主动性，积极性</t>
+  </si>
+  <si>
+    <t>有利于各机关之间的监督，放置专断滥权</t>
+  </si>
+  <si>
+    <t>有利于各机关之间彼此竞争</t>
+  </si>
+  <si>
+    <t>容易出现，各自为政，政出多门，推卸责任，监督协调困难</t>
+  </si>
+  <si>
     <t>一长制与委员会制的优缺点</t>
   </si>
   <si>
+    <t>一长制</t>
+  </si>
+  <si>
+    <t>权利集中，责任明确，决策执行力的效率高</t>
+  </si>
+  <si>
+    <t>不能集思广益，收到个人知识经验的限制较大，容易发生决策失误</t>
+  </si>
+  <si>
+    <t>如果缺乏有效监督，容易产生独断专行</t>
+  </si>
+  <si>
+    <t>委员会制</t>
+  </si>
+  <si>
+    <t>集思广益，减少决策失误</t>
+  </si>
+  <si>
+    <t>分工负责，减轻主要领导负担</t>
+  </si>
+  <si>
+    <t>代表不同方面的利益，发扬民主</t>
+  </si>
+  <si>
+    <t>互相监督，避免个人专断</t>
+  </si>
+  <si>
+    <t>权力分散，行动迟缓，效率不高</t>
+  </si>
+  <si>
+    <t>意见难以统一，错失良机</t>
+  </si>
+  <si>
+    <t>容易出现责任不明，无人问责</t>
+  </si>
+  <si>
     <t>层级制与职能制的优缺点</t>
   </si>
   <si>
+    <t>层级制</t>
+  </si>
+  <si>
+    <t>权利集中，指挥统一，行动迅速</t>
+  </si>
+  <si>
+    <t>各层领导者工作基本相同，人员调动，能够很快适应工作</t>
+  </si>
+  <si>
+    <t>有利于培养综合能力的通才</t>
+  </si>
+  <si>
+    <t>领导管理的事务繁杂，容易陷入事务主义，影响决策</t>
+  </si>
+  <si>
+    <t>中间层级多，导致指挥效力随层递减</t>
+  </si>
+  <si>
+    <t>权力集中于上层领导，容易权力滥用</t>
+  </si>
+  <si>
+    <t>职能制</t>
+  </si>
+  <si>
+    <t>分工精细，专业性强</t>
+  </si>
+  <si>
+    <t>分工过细，容易早晨该机构臃肿，部门林立</t>
+  </si>
+  <si>
+    <t>容易本位主义</t>
+  </si>
+  <si>
+    <t>各部门之间矛盾冲突难以调节</t>
+  </si>
+  <si>
+    <t>难以贯彻系统原则，经济原则，效率原则</t>
+  </si>
+  <si>
     <t>我国现行领导体制的本质特征</t>
   </si>
   <si>
+    <t>人民群众的主人地位</t>
+  </si>
+  <si>
+    <t>共产党的领导核心作用</t>
+  </si>
+  <si>
+    <t>中央集权式的统一领导</t>
+  </si>
+  <si>
     <t>我国现行领导体制的主要问题</t>
   </si>
   <si>
+    <t>领导权力过于集中</t>
+  </si>
+  <si>
+    <t>组织机构的设置不尽合理</t>
+  </si>
+  <si>
+    <t>领导体制建设滞后</t>
+  </si>
+  <si>
     <t>我国领导体制改革的原则</t>
   </si>
   <si>
+    <t>法治原则</t>
+  </si>
+  <si>
+    <t>公正原则</t>
+  </si>
+  <si>
+    <t>系统性原则</t>
+  </si>
+  <si>
+    <t>效率性原则</t>
+  </si>
+  <si>
+    <t>民主性原则</t>
+  </si>
+  <si>
     <t>我国领导体制改革的内容</t>
+  </si>
+  <si>
+    <t>【领导权限划分】的【科学化】</t>
+  </si>
+  <si>
+    <t>【党政关系】的【规范化】</t>
+  </si>
+  <si>
+    <t>【领导组织机构设置】的【合理化】</t>
+  </si>
+  <si>
+    <t>【领导制度建设】的【法制化】</t>
   </si>
   <si>
     <t>领导者素质的内涵</t>
@@ -2727,9 +2913,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -2770,8 +2956,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2779,6 +2980,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2793,53 +3001,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2850,6 +3021,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2869,9 +3047,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2885,16 +3063,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2908,14 +3086,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2930,19 +3116,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2954,43 +3170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3002,25 +3188,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3044,6 +3236,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3056,19 +3260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3080,13 +3278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3098,19 +3296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3127,8 +3313,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3138,30 +3324,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3177,6 +3339,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3221,153 +3392,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3743,8 +3929,8 @@
   <sheetPr/>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -4088,190 +4274,190 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>713</v>
+        <v>775</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>714</v>
+        <v>776</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>715</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>716</v>
+        <v>778</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>717</v>
+        <v>779</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>718</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>719</v>
+        <v>781</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>720</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>721</v>
+        <v>783</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>722</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>723</v>
+        <v>785</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>724</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>725</v>
+        <v>787</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>726</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>727</v>
+        <v>789</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>728</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>729</v>
+        <v>791</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>730</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>731</v>
+        <v>793</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>732</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>733</v>
+        <v>795</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>734</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>735</v>
+        <v>797</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>736</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>737</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>738</v>
+        <v>800</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>739</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>740</v>
+        <v>802</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>741</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>742</v>
+        <v>804</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>743</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>744</v>
+        <v>806</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>745</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>746</v>
+        <v>808</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>747</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>748</v>
+        <v>810</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>751</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>752</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>753</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>754</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>755</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>756</v>
+        <v>818</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>757</v>
+        <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>758</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -4296,246 +4482,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>759</v>
+        <v>821</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>760</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>761</v>
+        <v>823</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>762</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>763</v>
+        <v>825</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>764</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>765</v>
+        <v>827</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>766</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>767</v>
+        <v>829</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>768</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>769</v>
+        <v>831</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>770</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>771</v>
+        <v>833</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>772</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>773</v>
+        <v>835</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>774</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>775</v>
+        <v>837</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>776</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>777</v>
+        <v>839</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>778</v>
+        <v>840</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>779</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>780</v>
+        <v>842</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>781</v>
+        <v>843</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>782</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>783</v>
+        <v>845</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>784</v>
+        <v>846</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>785</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>786</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>787</v>
+        <v>849</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>788</v>
+        <v>850</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>789</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>790</v>
+        <v>852</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>791</v>
+        <v>853</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>792</v>
+        <v>854</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>793</v>
+        <v>855</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>794</v>
+        <v>856</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>795</v>
+        <v>857</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>796</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>797</v>
+        <v>859</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>798</v>
+        <v>860</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>799</v>
+        <v>861</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>800</v>
+        <v>862</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>801</v>
+        <v>863</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>802</v>
+        <v>864</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>803</v>
+        <v>865</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>805</v>
+        <v>867</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>806</v>
+        <v>868</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>807</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>808</v>
+        <v>870</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>809</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>810</v>
+        <v>872</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>811</v>
+        <v>873</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>812</v>
+        <v>874</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>813</v>
+        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>814</v>
+        <v>876</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>815</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>816</v>
+        <v>878</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>817</v>
+        <v>879</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>818</v>
+        <v>880</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>819</v>
+        <v>881</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>820</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -4560,34 +4746,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>821</v>
+        <v>883</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>822</v>
+        <v>884</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>823</v>
+        <v>885</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>824</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>825</v>
+        <v>887</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>826</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>827</v>
+        <v>889</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>828</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4595,57 +4781,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>829</v>
+        <v>891</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>830</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>831</v>
+        <v>893</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>832</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>833</v>
+        <v>895</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>834</v>
+        <v>896</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>835</v>
+        <v>897</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>836</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>837</v>
+        <v>899</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>838</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>839</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>840</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>841</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4653,18 +4839,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>842</v>
+        <v>904</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>843</v>
+        <v>905</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>844</v>
+        <v>906</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>845</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -4689,206 +4875,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>846</v>
+        <v>908</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>847</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>848</v>
+        <v>910</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>849</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>850</v>
+        <v>912</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>851</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>852</v>
+        <v>914</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>853</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>854</v>
+        <v>916</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>855</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>856</v>
+        <v>918</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>857</v>
+        <v>919</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>858</v>
+        <v>920</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>859</v>
+        <v>921</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>860</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>861</v>
+        <v>923</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>862</v>
+        <v>924</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>863</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>864</v>
+        <v>926</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>865</v>
+        <v>927</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>866</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>867</v>
+        <v>929</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>868</v>
+        <v>930</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>869</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>870</v>
+        <v>932</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>871</v>
+        <v>933</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>872</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>873</v>
+        <v>935</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>874</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>875</v>
+        <v>937</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>876</v>
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>877</v>
+        <v>939</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>878</v>
+        <v>940</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>879</v>
+        <v>941</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>880</v>
+        <v>942</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>881</v>
+        <v>943</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>882</v>
+        <v>944</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>883</v>
+        <v>945</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>884</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>885</v>
+        <v>947</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>886</v>
+        <v>948</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>887</v>
+        <v>949</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>888</v>
+        <v>950</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>889</v>
+        <v>951</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>890</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>891</v>
+        <v>953</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>892</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>893</v>
+        <v>955</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>894</v>
+        <v>956</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>895</v>
+        <v>957</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>896</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>897</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -6628,8 +6814,8 @@
   <sheetPr/>
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A133" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -7295,7 +7481,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="A31" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -7627,8 +7813,8 @@
   <sheetPr/>
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A52" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -7966,15 +8152,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="10.8942307692308" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.2211538461538" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -8181,89 +8370,413 @@
         <v>635</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="5" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="5" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="5" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" s="5" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="5" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="5" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="5" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="5" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="5" t="s">
+    <row r="55" spans="3:3">
+      <c r="C55" s="5" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="5" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="5" t="s">
         <v>642</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="5" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="5" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="5" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="5" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="5" t="s">
+    <row r="61" spans="4:4">
+      <c r="D61" s="5" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="5" t="s">
+    <row r="63" spans="3:4">
+      <c r="C63" s="5" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="5" t="s">
+    <row r="64" spans="4:4">
+      <c r="D64" s="5" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="5" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" s="5" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="5" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -8288,67 +8801,67 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>653</v>
+        <v>715</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>654</v>
+        <v>716</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>655</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>657</v>
+        <v>719</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>658</v>
+        <v>720</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>659</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>660</v>
+        <v>722</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>661</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="13:13">
       <c r="M4" s="1" t="s">
-        <v>662</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>663</v>
+        <v>725</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>664</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>665</v>
+        <v>727</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>666</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>667</v>
+        <v>729</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>668</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -8356,158 +8869,158 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>669</v>
+        <v>731</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>670</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>671</v>
+        <v>733</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>672</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>673</v>
+        <v>735</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>674</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>675</v>
+        <v>737</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>676</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>677</v>
+        <v>739</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>678</v>
+        <v>740</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>680</v>
+        <v>742</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>681</v>
+        <v>743</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>682</v>
+        <v>744</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>683</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>685</v>
+        <v>747</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>686</v>
+        <v>748</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>687</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>689</v>
+        <v>751</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>690</v>
+        <v>752</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>691</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="1" t="s">
-        <v>692</v>
+        <v>754</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>693</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>694</v>
+        <v>756</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>695</v>
+        <v>757</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>696</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>697</v>
+        <v>759</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>698</v>
+        <v>760</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>699</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>700</v>
+        <v>762</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>701</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>702</v>
+        <v>764</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>703</v>
+        <v>765</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>705</v>
+        <v>767</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>706</v>
+        <v>768</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>707</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>708</v>
+        <v>770</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>709</v>
+        <v>771</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>710</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="6:8">
@@ -8515,12 +9028,12 @@
         <v>357</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>711</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>712</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="900" activeTab="7"/>
+    <workbookView windowHeight="17020" tabRatio="900" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -202,7 +202,10 @@
     <t>实证法（以实事求是的精神，通过调查研究大量资料，分析，探求领导的特点和规律）</t>
   </si>
   <si>
-    <t>历史方法（以【历史的观点】对【领导科学】的【起源，发展，演变的过程】，对社会的【影响作用】，通过【历史的轨迹】，【提升】对领导规律的【认识】，达到【以史为鉴的目的】）</t>
+    <t>历史方法（以【历史的观点】对【领导科学】的【起源，发展，演变的过程】，对社会的【影响作用】，</t>
+  </si>
+  <si>
+    <t>通过【历史的轨迹】，【提升】对领导规律的【认识】，达到【以史为鉴的目的】）</t>
   </si>
   <si>
     <t>比较方法（从具体的【社会形态出发】，【比较】【各种社会形态下】的【共同点】，【独有特点】，进行中外，古今的比较）</t>
@@ -2176,10 +2179,13 @@
     <t>领导者素质的内涵</t>
   </si>
   <si>
-    <t>与职位相符的领导主体，为了履行领导职责，所具备的价值理念行为能力</t>
-  </si>
-  <si>
-    <t>实施有效领导的基础</t>
+    <t>【与领导职务相适应】的【领导主体】为【履行领导职能】【发挥领导作用】所需具备的</t>
+  </si>
+  <si>
+    <t>【价值理念和行为能力】是基于人的一般素质，又【符合领导者角色特点】</t>
+  </si>
+  <si>
+    <t>而形成的【胜任领导工作】的各种【主观条件和特征】。</t>
   </si>
   <si>
     <t>领导者素质的特点</t>
@@ -2188,307 +2194,466 @@
     <t>动态性</t>
   </si>
   <si>
-    <t>自治性</t>
-  </si>
-  <si>
-    <t>领导力的基础</t>
+    <t>层次性</t>
+  </si>
+  <si>
+    <t>自致性</t>
   </si>
   <si>
     <t>领导者素质的重要性</t>
   </si>
   <si>
-    <t>决定着领导绩效的高低</t>
-  </si>
-  <si>
-    <t>兴衰存亡</t>
-  </si>
-  <si>
-    <t>【政治素质】的含义</t>
-  </si>
-  <si>
-    <t>领导者从事领导活动所具备的政治立场，政治观念，政治态度，正式品质</t>
-  </si>
-  <si>
-    <t>【道德素质】的含义</t>
-  </si>
-  <si>
-    <t>领导者的品德修养，道德规范</t>
-  </si>
-  <si>
-    <t>【知识素质】的含义</t>
-  </si>
-  <si>
-    <t>做好工作所具备的基础知识和专业知识</t>
-  </si>
-  <si>
-    <t>领导者【政治素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>崇高的政治理想，高度的政治责任感，理性的民主政治自觉</t>
-  </si>
-  <si>
-    <t>领导者【法律素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>掌握法律知识，具有法律意识，注重职务守法</t>
-  </si>
-  <si>
-    <t>领导者【能力素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>科学的决策能力，知人善任的能力，激励能力，沟通能力，创新能力，危机管理能力</t>
-  </si>
-  <si>
-    <t>领导者【道德素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>忠诚于国家人民，公正廉洁，勤政尽职，严于律己宽以待人</t>
-  </si>
-  <si>
-    <t>领导者【知识素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>基础知识，专业知识，辅助知识</t>
-  </si>
-  <si>
-    <t>重视学习</t>
-  </si>
-  <si>
-    <t>领导者【身心素质】的【内容】</t>
-  </si>
-  <si>
-    <t>自我</t>
-  </si>
-  <si>
-    <t>正确认识自我，快熔他人</t>
-  </si>
-  <si>
-    <t>注重实践</t>
+    <t>首先，领导者素质是【实施有效领导的基础】</t>
+  </si>
+  <si>
+    <t>其次，领导者素质是【领导力的基础】</t>
+  </si>
+  <si>
+    <t>再次，领导者素质【决定着领导绩效的高低】</t>
+  </si>
+  <si>
+    <t>最后，领导者素质关系到国家的【兴衰存亡】</t>
+  </si>
+  <si>
+    <t>政治素质的含义</t>
+  </si>
+  <si>
+    <t>是指领导者从事领导活动所必须具备的【政治立场，政治价值观，政治态度，政治品质】</t>
+  </si>
+  <si>
+    <t>领导者的素质一般包括几方面</t>
+  </si>
+  <si>
+    <t>政治素质</t>
+  </si>
+  <si>
+    <t>法律素质</t>
+  </si>
+  <si>
+    <t>能力素质</t>
+  </si>
+  <si>
+    <t>道德素质</t>
+  </si>
+  <si>
+    <t>知识素质</t>
+  </si>
+  <si>
+    <t>身心素质</t>
+  </si>
+  <si>
+    <t>领导者政治素质的要点（基本内容）</t>
+  </si>
+  <si>
+    <t>具有【崇高的政治理想】</t>
+  </si>
+  <si>
+    <t>具有【高度的政治责任感】</t>
+  </si>
+  <si>
+    <t>理性的民主政治自觉</t>
+  </si>
+  <si>
+    <t>领导者法律素质的基本内容</t>
+  </si>
+  <si>
+    <t>【熟练掌握】相关的【法律知识】</t>
+  </si>
+  <si>
+    <t>【具有】强烈的【法制意识】</t>
+  </si>
+  <si>
+    <t>依法领导，注重【职务守法】</t>
+  </si>
+  <si>
+    <t>领导者能力素质的基本内容</t>
+  </si>
+  <si>
+    <t>科学决策能力</t>
+  </si>
+  <si>
+    <t>知人善任能力</t>
+  </si>
+  <si>
+    <t>激励能力</t>
+  </si>
+  <si>
+    <t>沟通能力</t>
+  </si>
+  <si>
+    <t>创新能力</t>
+  </si>
+  <si>
+    <t>危机管理能力</t>
+  </si>
+  <si>
+    <t>道德素质的含义</t>
+  </si>
+  <si>
+    <t>是指领导者所具有的【品德修养】和在领导活动中自觉遵守【社会规范】</t>
+  </si>
+  <si>
+    <t>遵守【领导职业道德】的【基本素质】</t>
+  </si>
+  <si>
+    <t>领导者道德素质的基本内容</t>
+  </si>
+  <si>
+    <t>忠诚于国家和人民</t>
+  </si>
+  <si>
+    <t>公正廉洁</t>
+  </si>
+  <si>
+    <t>勤政尽职</t>
+  </si>
+  <si>
+    <t>严于律己，宽以待人</t>
+  </si>
+  <si>
+    <t>知识素质的含义</t>
+  </si>
+  <si>
+    <t>是指领导者做【好本职工作】所必须具备的【基础知识】【专业知识】合理的【知识结构】</t>
+  </si>
+  <si>
+    <t>领导者知识素质的基本内容</t>
+  </si>
+  <si>
+    <t>基础知识</t>
+  </si>
+  <si>
+    <t>专业知识</t>
+  </si>
+  <si>
+    <t>辅助知识</t>
+  </si>
+  <si>
+    <t>领导者身心素质的基本要求</t>
+  </si>
+  <si>
+    <t>【正确认识】【自我】学会【尊重和宽容他人】</t>
+  </si>
+  <si>
+    <t>【正确看待】【财富和权利】【保持从容】【平和的情绪状态】</t>
+  </si>
+  <si>
+    <t>【正确对待】【工作和生活】【远离奢华和浮躁】【锤炼良好的意志品质】</t>
+  </si>
+  <si>
+    <t>【注意】【气质性格的修养】【保持】【对外部环境的适应性】</t>
   </si>
   <si>
     <t>领导者提高和培养素质的基本途径</t>
   </si>
   <si>
-    <t>财富权力</t>
-  </si>
-  <si>
-    <t>正确看待财富权力，保持从容</t>
-  </si>
-  <si>
-    <t>注意自省</t>
-  </si>
-  <si>
-    <t>当前领导者提高素质的基本方法</t>
-  </si>
-  <si>
-    <t>工作生活</t>
-  </si>
-  <si>
-    <t>正确对待工作和生活，避免浮躁</t>
-  </si>
-  <si>
-    <t>健全制度</t>
-  </si>
-  <si>
-    <t>气质</t>
-  </si>
-  <si>
-    <t>注意气质，融入环境</t>
+    <t>重视学习，在读书学习中提高</t>
+  </si>
+  <si>
+    <t>注重实践，在社会实践中锻炼</t>
+  </si>
+  <si>
+    <t>不断自省，在总结反省中完善</t>
+  </si>
+  <si>
+    <t>健全制度，在制度规范中进步</t>
   </si>
   <si>
     <t>领导者集体素质结构的含义</t>
   </si>
   <si>
-    <t>各领导之间按一定关系组合在一起的集体领导整体</t>
-  </si>
-  <si>
-    <t>年龄结构要阶梯</t>
+    <t>是指由组织中的【各个领导】成员【按照一定的关系】所【组成的有机的领导整体】</t>
   </si>
   <si>
     <t>领导集体素质结构的特征</t>
   </si>
   <si>
-    <t>整体，相关，目的，稳定，适应</t>
-  </si>
-  <si>
-    <t>知识结构要合理</t>
-  </si>
-  <si>
-    <t>合理的领导集体素质结构的基本内容</t>
-  </si>
-  <si>
-    <t>能力结构要互补</t>
+    <t>整体性</t>
+  </si>
+  <si>
+    <t>相关性</t>
+  </si>
+  <si>
+    <t>适应性</t>
+  </si>
+  <si>
+    <t>合理的领导集体素质结构的基本内容（包括那几个方面）</t>
+  </si>
+  <si>
+    <t>梯次的【年龄】结构</t>
+  </si>
+  <si>
+    <t>合理的【知识】结构</t>
+  </si>
+  <si>
+    <t>互补的【能力】结构</t>
+  </si>
+  <si>
+    <t>协调的【气质】结构</t>
   </si>
   <si>
     <t>领导集体素质结构优化的原则</t>
   </si>
   <si>
-    <t>主动性</t>
-  </si>
-  <si>
-    <t>气质结构要协调</t>
+    <t>主动性原则</t>
+  </si>
+  <si>
+    <t>互补性原则</t>
+  </si>
+  <si>
+    <t>精干性原则</t>
+  </si>
+  <si>
+    <t>目的性原则</t>
   </si>
   <si>
     <t>优化领导集体素质结构的途径</t>
   </si>
   <si>
-    <t>互补性</t>
-  </si>
-  <si>
-    <t>转变观念是前提</t>
-  </si>
-  <si>
-    <t>当前中国领导集体素质结构优化的原则和方法</t>
-  </si>
-  <si>
-    <t>静感性</t>
-  </si>
-  <si>
-    <t>搞好后背队伍建设是基础</t>
-  </si>
-  <si>
-    <t>加强集体自身建设是根本</t>
-  </si>
-  <si>
-    <t>改善干部管理制度是保证</t>
+    <t>【转变观念】是优化领导集体素质结构的【前提】</t>
+  </si>
+  <si>
+    <t>【搞好后背干部队伍建设】是优化领导集体素质结构的【基础】</t>
+  </si>
+  <si>
+    <t>【加强领导集体自身建设】是优化领导集体素质结构的【根本】</t>
+  </si>
+  <si>
+    <t>【改革完善领导干部管理制度】是优化领导集体素质结构的【保障】</t>
   </si>
   <si>
     <t>领导方法的含义</t>
   </si>
   <si>
-    <t>领导者履行职责，完成领导目标，所需要的方法，手段的综合</t>
-  </si>
-  <si>
-    <t>领导方法在领导活动中处于中介地位</t>
+    <t>【领导者】为【履行领导职能】【达到领导目标】【采取的各种措施和手段】的总和</t>
   </si>
   <si>
     <t>领导方法的特征</t>
   </si>
   <si>
-    <t>客观性，动态性，目的性，条件性，时效性</t>
-  </si>
-  <si>
-    <t>科学的领导方法是提高效率的推进器</t>
+    <t>客观性</t>
+  </si>
+  <si>
+    <t>条件性</t>
   </si>
   <si>
     <t>运用领导方法的重要意义</t>
   </si>
   <si>
-    <t>科学的领导方法是现代领导的必备条件</t>
+    <t>领导方法在领导活动中【处于中介地位】</t>
+  </si>
+  <si>
+    <t>科学的领导方法是提高领导绩效的【推进器】</t>
+  </si>
+  <si>
+    <t>科学领导方法是现代领导的【必备条件】</t>
   </si>
   <si>
     <t>运用领导方法的基本原则</t>
   </si>
   <si>
-    <t>目的性原则，创造性原则，具体性原则，高效性原则</t>
+    <t>创造性原则</t>
+  </si>
+  <si>
+    <t>具体性原则</t>
+  </si>
+  <si>
+    <t>高效性原则</t>
+  </si>
+  <si>
+    <t>辩证逻辑思维方法</t>
+  </si>
+  <si>
+    <t>【比较抽象概括】的方法</t>
+  </si>
+  <si>
+    <t>【分析综合】【归纳演绎】的方法</t>
+  </si>
+  <si>
+    <t>【抽象与具体】【历史与逻辑】【统一】的方法</t>
+  </si>
+  <si>
+    <t>系统性思维方法</t>
+  </si>
+  <si>
+    <t>整体性思维</t>
+  </si>
+  <si>
+    <t>结构性思维</t>
+  </si>
+  <si>
+    <t>动态性思维</t>
   </si>
   <si>
     <t>战略性思维方法的特征</t>
   </si>
   <si>
-    <t>预见性，长远性，综合性，全局性</t>
+    <t>预见性</t>
+  </si>
+  <si>
+    <t>长远性</t>
+  </si>
+  <si>
+    <t>全局性</t>
+  </si>
+  <si>
+    <t>改善战略性思维方法的途径</t>
+  </si>
+  <si>
+    <t>要正确【认识】【过去，现在，未来】之间的【辩证关系】和【本质联系】</t>
+  </si>
+  <si>
+    <t>，找出三者之间的【发展规律】</t>
+  </si>
+  <si>
+    <t>要正确【处理】预见中【出乎意料】的情况，【完善预见能力】</t>
   </si>
   <si>
     <t>创造性思维的特征</t>
   </si>
   <si>
-    <t>独特性，求异性，灵活性，敏捷性，跳跃性，联动性，综合性</t>
+    <t>独特性</t>
+  </si>
+  <si>
+    <t>求异性</t>
+  </si>
+  <si>
+    <t>敏捷性</t>
+  </si>
+  <si>
+    <t>突发性</t>
+  </si>
+  <si>
+    <t>跳跃性</t>
+  </si>
+  <si>
+    <t>联动性</t>
   </si>
   <si>
     <t>创造性思维原理</t>
   </si>
   <si>
-    <t>陌生原理，逆向原理，聚焦原理，综合原理</t>
-  </si>
-  <si>
-    <t>辩证逻辑思维方法</t>
-  </si>
-  <si>
-    <t>比较抽象概括的方法，分析综合，归纳演义的方法，抽象具体，历史逻辑统一的方法</t>
-  </si>
-  <si>
-    <t>系统性思维方法</t>
-  </si>
-  <si>
-    <t>整体性思维，动态性思维，结构性思维</t>
-  </si>
-  <si>
-    <t>改善战略性思维方法的途径</t>
-  </si>
-  <si>
-    <t>正确认识过去现在未来之间的本质联系，找到规律，完善预见能力</t>
+    <t>陌生原理</t>
+  </si>
+  <si>
+    <t>逆向原理</t>
+  </si>
+  <si>
+    <t>聚焦原理</t>
+  </si>
+  <si>
+    <t>综合原理</t>
   </si>
   <si>
     <t>创造性思维方法</t>
   </si>
   <si>
-    <t>发挥个人的直接，灵感，想象力，进行创造性思维，发挥集体智慧进行创造性思维，信息交合法</t>
-  </si>
-  <si>
-    <t>领导者思维方法的训练和应用</t>
+    <t>【发挥】个人的【直觉，灵感，想象力】【进行创造性思维】</t>
+  </si>
+  <si>
+    <t>【激发】【集体智慧】进行【创造性思维】</t>
+  </si>
+  <si>
+    <t>信息交合法</t>
+  </si>
+  <si>
+    <t>基本领导方法的内容</t>
+  </si>
+  <si>
+    <t>一切从实际出发，做好调查研究</t>
+  </si>
+  <si>
+    <t>按辩证法的全面性要求办事</t>
+  </si>
+  <si>
+    <t>坚持群众路线</t>
+  </si>
+  <si>
+    <t>从群众中来</t>
+  </si>
+  <si>
+    <t>到群众中去</t>
+  </si>
+  <si>
+    <t>一切为了群众</t>
+  </si>
+  <si>
+    <t>调查研究的态度</t>
+  </si>
+  <si>
+    <t>掌握调查的方法</t>
+  </si>
+  <si>
+    <t>掌握研究的方法</t>
+  </si>
+  <si>
+    <t>典型调查</t>
+  </si>
+  <si>
+    <t>抽样调查</t>
+  </si>
+  <si>
+    <t>普遍调查</t>
   </si>
   <si>
     <t>典型调查的含义</t>
   </si>
   <si>
-    <t>根据一定调查目的，在调查对象中，通过科学分析对有一定规律的对象，选择若干个体，进行深入研究</t>
+    <t>【根据一定的调查目的】【对调查对象】【科学分析的基础上】【从具有共性的事物中】</t>
+  </si>
+  <si>
+    <t>【选择若干个体】【深入细致的调查】</t>
   </si>
   <si>
     <t>抽样调查的含义</t>
   </si>
   <si>
-    <t>在调查对象中，抽取一部分进行调查分析，通过个别推论全部</t>
+    <t>调查者从调查对象的【全体】中【抽取一部分】进行观察，【以部分调查结果】【推论全体】</t>
   </si>
   <si>
     <t>普遍调查的含义</t>
   </si>
   <si>
-    <t>全部个体进行无遗漏的调查</t>
+    <t>在【一定范围内】，对事物的【全部个体】，进行【全面的无遗漏的调查】</t>
+  </si>
+  <si>
+    <t>现在科学领导方法的应用</t>
+  </si>
+  <si>
+    <t>系统论</t>
+  </si>
+  <si>
+    <t>信息论</t>
+  </si>
+  <si>
+    <t>控制论</t>
   </si>
   <si>
     <t>系统领导法的含义</t>
   </si>
   <si>
-    <t>从领导活动的整体性出发，根据领导活动的空间结构，运行过程进行最优设计，从而实现最有效率的科学方法</t>
+    <t>从【领导活动的整体性出发】对领导活动的【空间结构】【运行过程】</t>
+  </si>
+  <si>
+    <t>进行【最优设计】从而实现【最优效益的】一种【科学方法】</t>
   </si>
   <si>
     <t>信息方法的含义</t>
   </si>
   <si>
-    <t>通过信息的观点，把系统看做，输入，传递，加工，反馈，从而实现目标性活动的一种方法</t>
+    <t>【运用信息的观点】把系统看做【借助于信息的获取，传递，加工，处理和反馈】</t>
+  </si>
+  <si>
+    <t>而【实现其有目的性运动】的一种研究方法和工作方法</t>
   </si>
   <si>
     <t>控制论方法的含义</t>
   </si>
   <si>
-    <t>把人的行为，目的，生理基础与电子，机械运动结合起来，通过解决控制与被控制的矛盾，似的稳定进行的一种方法</t>
-  </si>
-  <si>
-    <t>基本领导方法的内容</t>
-  </si>
-  <si>
-    <t>一切从实际出发，调查研究，按辩证法的规律办事 ，坚持群众路线</t>
-  </si>
-  <si>
-    <t>系统论方法的内容</t>
-  </si>
-  <si>
-    <t>信息论方法的内容</t>
-  </si>
-  <si>
-    <t>控制论方法的内容</t>
-  </si>
-  <si>
-    <t>基本领导方法的应用</t>
-  </si>
-  <si>
-    <t>现在科学领导方法的应用</t>
-  </si>
-  <si>
-    <t>系统论，控制论，信息论</t>
-  </si>
-  <si>
-    <t>系统掌握基本领导方法和现在科学领导方法</t>
+    <t>把人的行为，目的，生理基础同电子，机械运动联系起来解决控制与被控制的矛盾</t>
+  </si>
+  <si>
+    <t>使事物发展按照时限规定的功能目标，得以稳定进行的方法</t>
   </si>
   <si>
     <t>领导艺术的含义</t>
@@ -2913,10 +3078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2956,11 +3121,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2972,36 +3143,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3017,17 +3181,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3047,29 +3212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3078,10 +3220,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3092,8 +3235,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3116,7 +3281,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3128,19 +3341,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3152,31 +3425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3188,115 +3455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3313,17 +3478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3343,11 +3499,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3378,21 +3549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3407,153 +3563,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3927,10 +4092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -4231,8 +4396,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="3:3">
+      <c r="C71" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4249,6 +4414,11 @@
     <row r="74" spans="2:2">
       <c r="B74" s="5" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4261,203 +4431,427 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
         <v>820</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="1" t="s">
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -4482,246 +4876,246 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>822</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>823</v>
+        <v>878</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>824</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>825</v>
+        <v>880</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>826</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>827</v>
+        <v>882</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>828</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>829</v>
+        <v>884</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>830</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>831</v>
+        <v>886</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>832</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>833</v>
+        <v>888</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>834</v>
+        <v>889</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>835</v>
+        <v>890</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>836</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>837</v>
+        <v>892</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>838</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>839</v>
+        <v>894</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>840</v>
+        <v>895</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>841</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>842</v>
+        <v>897</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>843</v>
+        <v>898</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>844</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>845</v>
+        <v>900</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>846</v>
+        <v>901</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>847</v>
+        <v>902</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>848</v>
+        <v>903</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>849</v>
+        <v>904</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>850</v>
+        <v>905</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>851</v>
+        <v>906</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>852</v>
+        <v>907</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>853</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>854</v>
+        <v>909</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>855</v>
+        <v>910</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>856</v>
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>857</v>
+        <v>912</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>858</v>
+        <v>913</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>859</v>
+        <v>914</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>860</v>
+        <v>915</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>861</v>
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>862</v>
+        <v>917</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>863</v>
+        <v>918</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>864</v>
+        <v>919</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>865</v>
+        <v>920</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>866</v>
+        <v>921</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>867</v>
+        <v>922</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>868</v>
+        <v>923</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>869</v>
+        <v>924</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>870</v>
+        <v>925</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>871</v>
+        <v>926</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>872</v>
+        <v>927</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>873</v>
+        <v>928</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>874</v>
+        <v>929</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>875</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>876</v>
+        <v>931</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>877</v>
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>878</v>
+        <v>933</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>879</v>
+        <v>934</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>880</v>
+        <v>935</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>881</v>
+        <v>936</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>882</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -4746,34 +5140,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>883</v>
+        <v>938</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>884</v>
+        <v>939</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>885</v>
+        <v>940</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>886</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>887</v>
+        <v>942</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>888</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>890</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4781,57 +5175,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>891</v>
+        <v>946</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>892</v>
+        <v>947</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>893</v>
+        <v>948</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>894</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>895</v>
+        <v>950</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>896</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>897</v>
+        <v>952</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>898</v>
+        <v>953</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>899</v>
+        <v>954</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>900</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>901</v>
+        <v>956</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>902</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>903</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4839,18 +5233,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>904</v>
+        <v>959</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>905</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>906</v>
+        <v>961</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>907</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -4875,206 +5269,206 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>908</v>
+        <v>963</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>909</v>
+        <v>964</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>910</v>
+        <v>965</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>911</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>912</v>
+        <v>967</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>913</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>914</v>
+        <v>969</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>915</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>916</v>
+        <v>971</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>917</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>918</v>
+        <v>973</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>919</v>
+        <v>974</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>920</v>
+        <v>975</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>921</v>
+        <v>976</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>922</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>923</v>
+        <v>978</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>924</v>
+        <v>979</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>925</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>926</v>
+        <v>981</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>927</v>
+        <v>982</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>928</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>929</v>
+        <v>984</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>930</v>
+        <v>985</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>931</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>932</v>
+        <v>987</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>933</v>
+        <v>988</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>934</v>
+        <v>989</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>935</v>
+        <v>990</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>936</v>
+        <v>991</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>937</v>
+        <v>992</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>938</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>939</v>
+        <v>994</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>940</v>
+        <v>995</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>941</v>
+        <v>996</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>942</v>
+        <v>997</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>943</v>
+        <v>998</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>944</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>946</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>947</v>
+        <v>1002</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>948</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>949</v>
+        <v>1004</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>950</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>951</v>
+        <v>1006</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>952</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>953</v>
+        <v>1008</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>954</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>955</v>
+        <v>1010</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>956</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>957</v>
+        <v>1012</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>958</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>959</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
@@ -5099,577 +5493,577 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5695,162 +6089,162 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
@@ -5861,14 +6255,14 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -5877,148 +6271,148 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6044,14 +6438,14 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6060,33 +6454,33 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6095,20 +6489,20 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6117,21 +6511,21 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6140,38 +6534,38 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6180,32 +6574,32 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6214,75 +6608,75 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6291,20 +6685,20 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6313,44 +6707,44 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5"/>
       <c r="B52" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6359,34 +6753,34 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5"/>
       <c r="B56" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6395,38 +6789,38 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6435,14 +6829,14 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6451,26 +6845,26 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6479,38 +6873,38 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5"/>
       <c r="B77" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5"/>
       <c r="B79" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6519,32 +6913,32 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="5"/>
       <c r="B84" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6553,32 +6947,32 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6587,14 +6981,14 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6603,32 +6997,32 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6637,20 +7031,20 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6659,64 +7053,64 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5"/>
       <c r="B109" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="5"/>
       <c r="B110" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5"/>
       <c r="B111" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="5"/>
       <c r="B112" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5"/>
       <c r="B117" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="5"/>
       <c r="B119" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -6725,13 +7119,13 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B121" s="5"/>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="2:2">
@@ -6739,30 +7133,30 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B124" s="5"/>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5"/>
       <c r="B127" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5"/>
       <c r="B128" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -6829,644 +7223,644 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -7493,292 +7887,292 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="76" spans="5:8">
@@ -7825,322 +8219,322 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -8154,8 +8548,8 @@
   <sheetPr/>
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8168,615 +8562,615 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="C63" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="5" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="C85" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="107" spans="3:4">
       <c r="C107" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="113" spans="3:4">
       <c r="C113" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -8788,252 +9182,413 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="4" spans="13:13">
-      <c r="M4" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="F13" s="1" t="s">
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="K13" s="1" t="s">
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="G14" s="1" t="s">
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="K14" s="1" t="s">
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="F15" s="1" t="s">
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="G15" s="1" t="s">
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="K15" s="1" t="s">
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="G16" s="1" t="s">
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K16" s="1" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="1" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="G17" s="1" t="s">
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="F18" s="1" t="s">
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="K18" s="1" t="s">
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K19" s="1" t="s">
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="K20" s="1" t="s">
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="F22" s="1" t="s">
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="H22" s="1" t="s">
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="F23" s="1" t="s">
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="H23" s="1" t="s">
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="5" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
-      <c r="F24" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H24" s="1" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="1" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" s="1" t="s">
         <v>774</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/ldkx.xlsx
+++ b/glkx/ldkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="900" activeTab="9"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="900" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="1017">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1882,7 +1882,10 @@
     <t>领导层次的含义</t>
   </si>
   <si>
-    <t>是指组织系统中【自上而下】的实施【指挥与监督】的【权力层级数量】，即该组织系统中设置多少层级进行领导和管理</t>
+    <t>是指组织系统中【自上而下】的实施【指挥与监督】的【权力层级数量】，</t>
+  </si>
+  <si>
+    <t>即该组织系统中设置多少层级进行领导和管理</t>
   </si>
   <si>
     <t>影响领导的层次与宽度（幅度）的关系</t>
@@ -1951,10 +1954,10 @@
     <t>实行【议会制】，议会【由公民普选】出来的【代表组成】，【负责制定法律，决定国家大事】</t>
   </si>
   <si>
-    <t>实行【行政长官首长】【负责制】，行政首长【掌握行政权力负责行政事务】但行政【首长的权力仅限于执行议会的决议】</t>
-  </si>
-  <si>
-    <t>【并受】【议会】以及【司法机关】的【约束】。</t>
+    <t>实行【行政长官首长负责制】，行政首长【掌握行政权力负责行政事务】</t>
+  </si>
+  <si>
+    <t>但行政【首长的权力仅限于执行议会的决议】【并受】【议会】以及【司法机关】的约束</t>
   </si>
   <si>
     <t>实行【三权分立】【立法，行政，司法】，由【议会，总统，法院】三种职能机构行使，【相互制约】</t>
@@ -1993,7 +1996,10 @@
     <t>分权制</t>
   </si>
   <si>
-    <t>分级治事，分级负责，使下级机关和领导具有较大的灵活性，增强应变性，发挥下级积极主动性</t>
+    <t>分级治事，分级负责，使下级机关和领导具有较大的灵活性，增强应变性，</t>
+  </si>
+  <si>
+    <t>发挥下级积极主动性</t>
   </si>
   <si>
     <t>有利于上级领导减轻工作负担，提高效率，有利于防止官僚主义</t>
@@ -2182,7 +2188,7 @@
     <t>【与领导职务相适应】的【领导主体】为【履行领导职能】【发挥领导作用】所需具备的</t>
   </si>
   <si>
-    <t>【价值理念和行为能力】是基于人的一般素质，又【符合领导者角色特点】</t>
+    <t>【价值理念和行为能力】是基于【人的一般素质】，又【符合领导者角色特点】</t>
   </si>
   <si>
     <t>而形成的【胜任领导工作】的各种【主观条件和特征】。</t>
@@ -3080,8 +3086,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3122,14 +3128,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3142,54 +3155,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3204,9 +3171,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3228,8 +3209,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3243,15 +3241,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3259,14 +3273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3281,7 +3287,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,175 +3467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3472,30 +3478,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3510,15 +3492,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3540,11 +3513,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3568,7 +3539,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3577,148 +3583,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3747,54 +3753,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4090,7 +4096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C75"/>
   <sheetViews>
@@ -4098,7 +4104,7 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -4429,15 +4435,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4445,28 +4451,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>358</v>
@@ -4477,102 +4483,102 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -4582,276 +4588,276 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>452</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="5" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="5" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="5" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="5" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="5" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="5" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="5" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +4867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -4869,253 +4875,253 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="14" spans="13:13">
       <c r="M14" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -5125,7 +5131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -5133,41 +5139,41 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5175,57 +5181,57 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -5233,18 +5239,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -5254,7 +5260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -5262,213 +5268,213 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -5478,7 +5484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C139"/>
   <sheetViews>
@@ -5486,7 +5492,7 @@
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -6074,7 +6080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F77"/>
   <sheetViews>
@@ -6082,7 +6088,7 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
@@ -6423,7 +6429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C139"/>
   <sheetViews>
@@ -6431,7 +6437,7 @@
       <selection activeCell="N124" sqref="N124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -7204,7 +7210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D155"/>
   <sheetViews>
@@ -7212,7 +7218,7 @@
       <selection activeCell="A133" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
@@ -7870,7 +7876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
@@ -7878,7 +7884,7 @@
       <selection activeCell="A31" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="8" width="9" style="5"/>
     <col min="9" max="9" width="11.375" style="5" customWidth="1"/>
@@ -8203,7 +8209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C82"/>
   <sheetViews>
@@ -8211,7 +8217,7 @@
       <selection activeCell="A52" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -8544,19 +8550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="10.8942307692308" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.2211538461538" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.8916666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.225" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -8674,13 +8680,13 @@
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>620</v>
       </c>
     </row>
@@ -8709,13 +8715,13 @@
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>627</v>
       </c>
     </row>
@@ -8724,23 +8730,23 @@
         <v>628</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="5" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="5" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
         <v>632</v>
       </c>
     </row>
@@ -8764,23 +8770,23 @@
         <v>636</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="5" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="5" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="5" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" s="5" t="s">
         <v>640</v>
       </c>
     </row>
@@ -8789,13 +8795,13 @@
         <v>641</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="5" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="5" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="3:3">
+      <c r="C56" s="5" t="s">
         <v>643</v>
       </c>
     </row>
@@ -8804,36 +8810,36 @@
         <v>644</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="5" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="5" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="C60" s="5" t="s">
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="61" spans="4:4">
       <c r="D61" s="5" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="5" t="s">
+    <row r="62" spans="4:4">
+      <c r="D62" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D63" s="5" t="s">
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="5" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="64" spans="4:4">
       <c r="D64" s="5" t="s">
         <v>652</v>
       </c>
@@ -8843,352 +8849,363 @@
         <v>653</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="5" t="s">
+    <row r="66" spans="4:4">
+      <c r="D66" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D67" s="5" t="s">
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="5" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="68" spans="4:4">
+      <c r="C68" s="5" t="s">
+        <v>648</v>
+      </c>
       <c r="D68" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="5" t="s">
-        <v>650</v>
-      </c>
+    <row r="69" spans="5:5">
+      <c r="E69" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
       <c r="D70" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="5" t="s">
+    <row r="72" spans="3:4">
+      <c r="C72" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="5" t="s">
+    <row r="73" spans="4:4">
+      <c r="D73" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D75" s="5" t="s">
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="5" t="s">
+    <row r="86" spans="2:4">
+      <c r="B86" s="5" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="5" t="s">
+      <c r="C86" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="D79" s="5" t="s">
+    <row r="87" spans="4:4">
+      <c r="D87" s="5" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="5" t="s">
+    <row r="88" spans="4:4">
+      <c r="D88" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" s="5" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" s="5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4">
-      <c r="D91" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>647</v>
-      </c>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
       <c r="D93" s="5" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="5" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="5" t="s">
+      <c r="C104" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>678</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="5" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="5" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="5" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="5" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>687</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" s="5" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4">
-      <c r="D109" s="5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="5" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" s="5" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="5" t="s">
+    <row r="125" spans="4:4">
+      <c r="D125" s="5" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="5" t="s">
+    <row r="126" spans="4:4">
+      <c r="D126" s="5" t="s">
         <v>698</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="5" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="5" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="5" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="5" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="5" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="5" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="5" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="5" t="s">
-        <v>713</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="5" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="5" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="5" t="s">
         <v>715</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="5" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -9196,27 +9213,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -9224,290 +9241,290 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="5" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="5" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="5" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>603</v>
@@ -9518,81 +9535,82 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="5" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="5" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>